--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9923790504807993</v>
+      </c>
+      <c r="D3">
+        <v>1.00373640105318</v>
+      </c>
+      <c r="E3">
+        <v>0.9970388683970198</v>
+      </c>
+      <c r="F3">
+        <v>1.002847701606652</v>
+      </c>
+      <c r="G3">
         <v>1.016364389738909</v>
       </c>
-      <c r="D3">
-        <v>0.9887259044682083</v>
-      </c>
-      <c r="E3">
-        <v>0.9995463881253207</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>1.016364389738909</v>
-      </c>
-      <c r="G3">
-        <v>0.9970388683970198</v>
-      </c>
-      <c r="H3">
-        <v>1.002847701606652</v>
       </c>
       <c r="I3">
         <v>1.016364389738909</v>
       </c>
       <c r="J3">
+        <v>0.9995463881253207</v>
+      </c>
+      <c r="K3">
         <v>0.9887259044682083</v>
       </c>
-      <c r="K3">
+      <c r="L3">
+        <v>0.9887259044682083</v>
+      </c>
+      <c r="M3">
         <v>0.9963832705733374</v>
-      </c>
-      <c r="L3">
-        <v>1.00373640105318</v>
-      </c>
-      <c r="M3">
-        <v>0.992379050480799</v>
       </c>
       <c r="N3">
         <v>1.016364389738909</v>
@@ -764,7 +716,7 @@
         <v>0.9996277468054284</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.985265229052475</v>
+      </c>
+      <c r="D4">
+        <v>1.007420242645664</v>
+      </c>
+      <c r="E4">
+        <v>0.9944695713987214</v>
+      </c>
+      <c r="F4">
+        <v>1.005539412702385</v>
+      </c>
+      <c r="G4">
         <v>1.031087293656351</v>
       </c>
-      <c r="D4">
-        <v>0.977994780532309</v>
-      </c>
-      <c r="E4">
-        <v>0.9989922668654171</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.031087293656351</v>
-      </c>
-      <c r="G4">
-        <v>0.9944695713987214</v>
-      </c>
-      <c r="H4">
-        <v>1.005539412702385</v>
       </c>
       <c r="I4">
         <v>1.031087293656351</v>
       </c>
       <c r="J4">
+        <v>0.9989922668654171</v>
+      </c>
+      <c r="K4">
         <v>0.977994780532309</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>0.977994780532309</v>
+      </c>
+      <c r="M4">
         <v>0.9929858312459325</v>
-      </c>
-      <c r="L4">
-        <v>1.007420242645665</v>
-      </c>
-      <c r="M4">
-        <v>0.9852652290524748</v>
       </c>
       <c r="N4">
         <v>1.031087293656351</v>
@@ -832,10 +784,10 @@
         <v>1.00672624122183</v>
       </c>
       <c r="W4">
-        <v>0.999219328512407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9992193285124069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9715992116246506</v>
+      </c>
+      <c r="D5">
+        <v>1.013775890497661</v>
+      </c>
+      <c r="E5">
+        <v>0.9891913558041214</v>
+      </c>
+      <c r="F5">
+        <v>1.010817853852573</v>
+      </c>
+      <c r="G5">
         <v>1.059457581726223</v>
       </c>
-      <c r="D5">
-        <v>0.9578893377788282</v>
-      </c>
-      <c r="E5">
-        <v>0.9989990465376831</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.059457581726223</v>
-      </c>
-      <c r="G5">
-        <v>0.9891913558041222</v>
-      </c>
-      <c r="H5">
-        <v>1.010817853852573</v>
       </c>
       <c r="I5">
         <v>1.059457581726223</v>
       </c>
       <c r="J5">
+        <v>0.9989990465376831</v>
+      </c>
+      <c r="K5">
         <v>0.9578893377788282</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <v>0.9578893377788282</v>
+      </c>
+      <c r="M5">
         <v>0.9867567016282554</v>
-      </c>
-      <c r="L5">
-        <v>1.013775890497661</v>
-      </c>
-      <c r="M5">
-        <v>0.9715992116246509</v>
       </c>
       <c r="N5">
         <v>1.059457581726223</v>
@@ -885,13 +837,13 @@
         <v>0.9784441921582556</v>
       </c>
       <c r="Q5">
-        <v>0.9940952011709027</v>
+        <v>0.9940952011709023</v>
       </c>
       <c r="R5">
         <v>1.005448655347578</v>
       </c>
       <c r="S5">
-        <v>0.9820265800402112</v>
+        <v>0.9820265800402108</v>
       </c>
       <c r="T5">
         <v>1.005448655347578</v>
@@ -906,7 +858,7 @@
         <v>0.9985608724312496</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9581698212628745</v>
+      </c>
+      <c r="D6">
+        <v>1.017617736842419</v>
+      </c>
+      <c r="E6">
+        <v>0.9844229914005468</v>
+      </c>
+      <c r="F6">
+        <v>1.015028534270522</v>
+      </c>
+      <c r="G6">
         <v>1.092271101183605</v>
       </c>
-      <c r="D6">
-        <v>0.9386259300401929</v>
-      </c>
-      <c r="E6">
-        <v>0.9992538512548</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.092271101183605</v>
-      </c>
-      <c r="G6">
-        <v>0.9844229914005468</v>
-      </c>
-      <c r="H6">
-        <v>1.015028534270522</v>
       </c>
       <c r="I6">
         <v>1.092271101183605</v>
       </c>
       <c r="J6">
+        <v>0.9992538512548</v>
+      </c>
+      <c r="K6">
         <v>0.9386259300401929</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>0.9386259300401929</v>
+      </c>
+      <c r="M6">
         <v>0.9818857840881751</v>
-      </c>
-      <c r="L6">
-        <v>1.017617736842419</v>
-      </c>
-      <c r="M6">
-        <v>0.9581698212628745</v>
       </c>
       <c r="N6">
         <v>1.092271101183605</v>
@@ -977,7 +929,7 @@
         <v>0.9984094687928919</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9992058431693007</v>
+      </c>
+      <c r="D7">
+        <v>1.000324695910354</v>
+      </c>
+      <c r="E7">
+        <v>0.9997946548326412</v>
+      </c>
+      <c r="F7">
+        <v>1.000514730350011</v>
+      </c>
+      <c r="G7">
         <v>1.00036480145811</v>
       </c>
-      <c r="D7">
-        <v>0.9988453029941518</v>
-      </c>
-      <c r="E7">
-        <v>1.000576074461001</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.00036480145811</v>
-      </c>
-      <c r="G7">
-        <v>0.9997946548326412</v>
-      </c>
-      <c r="H7">
-        <v>1.000514730350011</v>
       </c>
       <c r="I7">
         <v>1.00036480145811</v>
       </c>
       <c r="J7">
-        <v>0.9988453029941518</v>
+        <v>1.000576074461001</v>
       </c>
       <c r="K7">
-        <v>0.9997452715095241</v>
+        <v>0.9988453029941521</v>
       </c>
       <c r="L7">
-        <v>1.000324695910354</v>
+        <v>0.9988453029941521</v>
       </c>
       <c r="M7">
-        <v>0.9992058431693003</v>
+        <v>0.9997452715095236</v>
       </c>
       <c r="N7">
         <v>1.00036480145811</v>
@@ -1024,7 +976,7 @@
         <v>1.000576074461001</v>
       </c>
       <c r="P7">
-        <v>0.9997106887275766</v>
+        <v>0.9997106887275764</v>
       </c>
       <c r="Q7">
         <v>1.000185364646821</v>
@@ -1033,7 +985,7 @@
         <v>0.9999287263044211</v>
       </c>
       <c r="S7">
-        <v>0.9997386774292648</v>
+        <v>0.9997386774292646</v>
       </c>
       <c r="T7">
         <v>0.9999287263044211</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999214218356367</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9977293236722706</v>
+      </c>
+      <c r="D8">
+        <v>1.000981271151461</v>
+      </c>
+      <c r="E8">
+        <v>0.9993412739316673</v>
+      </c>
+      <c r="F8">
+        <v>1.001361636008715</v>
+      </c>
+      <c r="G8">
         <v>1.001549115692195</v>
       </c>
-      <c r="D8">
-        <v>0.9967818985979986</v>
-      </c>
-      <c r="E8">
-        <v>1.001213359749175</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
         <v>1.001549115692195</v>
-      </c>
-      <c r="G8">
-        <v>0.9993412739316674</v>
-      </c>
-      <c r="H8">
-        <v>1.001361636008714</v>
       </c>
       <c r="I8">
         <v>1.001549115692195</v>
       </c>
       <c r="J8">
-        <v>0.9967818985979986</v>
+        <v>1.001213359749175</v>
       </c>
       <c r="K8">
+        <v>0.9967818985979977</v>
+      </c>
+      <c r="L8">
+        <v>0.9967818985979977</v>
+      </c>
+      <c r="M8">
         <v>0.9992511291019858</v>
-      </c>
-      <c r="L8">
-        <v>1.000981271151462</v>
-      </c>
-      <c r="M8">
-        <v>0.9977293236722714</v>
       </c>
       <c r="N8">
         <v>1.001549115692195</v>
@@ -1095,31 +1047,31 @@
         <v>1.001213359749175</v>
       </c>
       <c r="P8">
-        <v>0.9989976291735866</v>
+        <v>0.9989976291735865</v>
       </c>
       <c r="Q8">
         <v>1.000277316840421</v>
       </c>
       <c r="R8">
-        <v>0.9998481246797893</v>
+        <v>0.9998481246797892</v>
       </c>
       <c r="S8">
         <v>0.9991121774262801</v>
       </c>
       <c r="T8">
-        <v>0.9998481246797893</v>
+        <v>0.9998481246797892</v>
       </c>
       <c r="U8">
-        <v>0.9997214119927589</v>
+        <v>0.9997214119927588</v>
       </c>
       <c r="V8">
         <v>1.000086952732646</v>
       </c>
       <c r="W8">
-        <v>0.9997761259881836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9997761259881834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,43 +1079,43 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9967984466952716</v>
+      </c>
+      <c r="D9">
+        <v>1.001593668987856</v>
+      </c>
+      <c r="E9">
+        <v>0.9990977869931983</v>
+      </c>
+      <c r="F9">
+        <v>1.001798611933937</v>
+      </c>
+      <c r="G9">
         <v>1.003144546647182</v>
       </c>
-      <c r="D9">
-        <v>0.9954084943709013</v>
-      </c>
-      <c r="E9">
-        <v>1.00128297897916</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>1.003144546647182</v>
-      </c>
-      <c r="G9">
-        <v>0.9990977869931983</v>
-      </c>
-      <c r="H9">
-        <v>1.001798611933937</v>
       </c>
       <c r="I9">
         <v>1.003144546647182</v>
       </c>
       <c r="J9">
+        <v>1.001282978979159</v>
+      </c>
+      <c r="K9">
         <v>0.9954084943709013</v>
       </c>
-      <c r="K9">
+      <c r="L9">
+        <v>0.9954084943709013</v>
+      </c>
+      <c r="M9">
         <v>0.9986616727013692</v>
-      </c>
-      <c r="L9">
-        <v>1.001593668987856</v>
-      </c>
-      <c r="M9">
-        <v>0.9967984466952716</v>
       </c>
       <c r="N9">
         <v>1.003144546647182</v>
       </c>
       <c r="O9">
-        <v>1.00128297897916</v>
+        <v>1.001282978979159</v>
       </c>
       <c r="P9">
         <v>0.9983457366750303</v>
@@ -1187,10 +1139,10 @@
         <v>1.000415670727524</v>
       </c>
       <c r="W9">
-        <v>0.9997232759136093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9997232759136092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9931270233741623</v>
+      </c>
+      <c r="D10">
+        <v>1.003270754272389</v>
+      </c>
+      <c r="E10">
+        <v>0.9981448812594353</v>
+      </c>
+      <c r="F10">
+        <v>1.003968240927226</v>
+      </c>
+      <c r="G10">
         <v>1.005713076578818</v>
       </c>
-      <c r="D10">
-        <v>0.9899992994008955</v>
-      </c>
-      <c r="E10">
-        <v>1.003236842003405</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>1.005713076578818</v>
-      </c>
-      <c r="G10">
-        <v>0.9981448812594353</v>
-      </c>
-      <c r="H10">
-        <v>1.003968240927226</v>
       </c>
       <c r="I10">
         <v>1.005713076578818</v>
       </c>
       <c r="J10">
-        <v>0.9899992994008955</v>
+        <v>1.003236842003405</v>
       </c>
       <c r="K10">
+        <v>0.9899992994008958</v>
+      </c>
+      <c r="L10">
+        <v>0.9899992994008958</v>
+      </c>
+      <c r="M10">
         <v>0.9974012907424427</v>
-      </c>
-      <c r="L10">
-        <v>1.003270754272389</v>
-      </c>
-      <c r="M10">
-        <v>0.9931270233741623</v>
       </c>
       <c r="N10">
         <v>1.005713076578818</v>
@@ -1237,19 +1189,19 @@
         <v>1.003236842003405</v>
       </c>
       <c r="P10">
-        <v>0.9966180707021504</v>
+        <v>0.9966180707021506</v>
       </c>
       <c r="Q10">
-        <v>1.00069086163142</v>
+        <v>1.000690861631421</v>
       </c>
       <c r="R10">
-        <v>0.9996497393277063</v>
+        <v>0.9996497393277064</v>
       </c>
       <c r="S10">
         <v>0.9971270075545787</v>
       </c>
       <c r="T10">
-        <v>0.9996497393277063</v>
+        <v>0.9996497393277064</v>
       </c>
       <c r="U10">
         <v>0.9992735248106386</v>
@@ -1261,7 +1213,7 @@
         <v>0.9993576760698468</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9884604765074865</v>
+      </c>
+      <c r="D11">
+        <v>1.006037844110522</v>
+      </c>
+      <c r="E11">
+        <v>0.9966906750730629</v>
+      </c>
+      <c r="F11">
+        <v>1.006213312321969</v>
+      </c>
+      <c r="G11">
         <v>1.012568506259566</v>
       </c>
-      <c r="D11">
-        <v>0.9835699613677082</v>
-      </c>
-      <c r="E11">
-        <v>1.003499263262497</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.012568506259566</v>
-      </c>
-      <c r="G11">
-        <v>0.9966906750730629</v>
-      </c>
-      <c r="H11">
-        <v>1.006213312321969</v>
       </c>
       <c r="I11">
         <v>1.012568506259566</v>
       </c>
       <c r="J11">
+        <v>1.003499263262497</v>
+      </c>
+      <c r="K11">
         <v>0.9835699613677082</v>
       </c>
-      <c r="K11">
+      <c r="L11">
+        <v>0.9835699613677082</v>
+      </c>
+      <c r="M11">
         <v>0.9949926655851431</v>
-      </c>
-      <c r="L11">
-        <v>1.006037844110522</v>
-      </c>
-      <c r="M11">
-        <v>0.9884604765074865</v>
       </c>
       <c r="N11">
         <v>1.012568506259566</v>
@@ -1332,7 +1284,7 @@
         <v>0.9990040880609943</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.195553934469803</v>
+      </c>
+      <c r="D12">
+        <v>1.036237983932957</v>
+      </c>
+      <c r="E12">
+        <v>1.07137824426673</v>
+      </c>
+      <c r="F12">
+        <v>0.8413181839612555</v>
+      </c>
+      <c r="G12">
         <v>1.125624028573287</v>
       </c>
-      <c r="D12">
-        <v>1.343527441546627</v>
-      </c>
-      <c r="E12">
-        <v>0.6904362039496496</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.125624028573287</v>
-      </c>
-      <c r="G12">
-        <v>1.07137824426673</v>
-      </c>
-      <c r="H12">
-        <v>0.8413181839612556</v>
       </c>
       <c r="I12">
         <v>1.125624028573287</v>
       </c>
       <c r="J12">
+        <v>0.6904362039496496</v>
+      </c>
+      <c r="K12">
         <v>1.343527441546627</v>
       </c>
-      <c r="K12">
+      <c r="L12">
+        <v>1.343527441546627</v>
+      </c>
+      <c r="M12">
         <v>0.9392059045035001</v>
-      </c>
-      <c r="L12">
-        <v>1.036237983932957</v>
-      </c>
-      <c r="M12">
-        <v>1.195553934469803</v>
       </c>
       <c r="N12">
         <v>1.125624028573287</v>
@@ -1403,7 +1355,7 @@
         <v>1.030410240650476</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,40 +1363,40 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8667078842957303</v>
+        <v>1.0079658628135</v>
       </c>
       <c r="D13">
+        <v>0.9406475568271571</v>
+      </c>
+      <c r="E13">
+        <v>0.9914945564739818</v>
+      </c>
+      <c r="F13">
+        <v>1.016894837832945</v>
+      </c>
+      <c r="G13">
+        <v>0.8667078842957302</v>
+      </c>
+      <c r="H13">
+        <v>0.8667078842957302</v>
+      </c>
+      <c r="I13">
+        <v>0.8667078842957302</v>
+      </c>
+      <c r="J13">
+        <v>1.102024286899525</v>
+      </c>
+      <c r="K13">
         <v>1.00247466253149</v>
       </c>
-      <c r="E13">
-        <v>1.102024286899525</v>
-      </c>
-      <c r="F13">
-        <v>0.8667078842957303</v>
-      </c>
-      <c r="G13">
-        <v>0.9914945564739819</v>
-      </c>
-      <c r="H13">
-        <v>1.016894837832945</v>
-      </c>
-      <c r="I13">
-        <v>0.8667078842957303</v>
-      </c>
-      <c r="J13">
+      <c r="L13">
         <v>1.00247466253149</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>1.055436583587249</v>
       </c>
-      <c r="L13">
-        <v>0.9406475568271571</v>
-      </c>
-      <c r="M13">
-        <v>1.0079658628135</v>
-      </c>
       <c r="N13">
-        <v>0.8667078842957303</v>
+        <v>0.8667078842957302</v>
       </c>
       <c r="O13">
         <v>1.102024286899525</v>
@@ -1456,25 +1408,25 @@
         <v>1.046759421686753</v>
       </c>
       <c r="R13">
-        <v>0.9904022779089149</v>
+        <v>0.990402277908915</v>
       </c>
       <c r="S13">
         <v>1.031997835301665</v>
       </c>
       <c r="T13">
-        <v>0.9904022779089149</v>
+        <v>0.990402277908915</v>
       </c>
       <c r="U13">
-        <v>0.9906753475501816</v>
+        <v>0.9906753475501817</v>
       </c>
       <c r="V13">
         <v>0.9658818548992913</v>
       </c>
       <c r="W13">
-        <v>0.9979557789076974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.9979557789076973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.8810440720733679</v>
+      </c>
+      <c r="D14">
+        <v>0.867934691843096</v>
+      </c>
+      <c r="E14">
+        <v>0.9648572936305628</v>
+      </c>
+      <c r="F14">
+        <v>1.138983883956824</v>
+      </c>
+      <c r="G14">
         <v>0.5264605511290485</v>
       </c>
-      <c r="D14">
-        <v>0.7023409907965468</v>
-      </c>
-      <c r="E14">
-        <v>1.423922236082588</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.5264605511290485</v>
-      </c>
-      <c r="G14">
-        <v>0.9648572936305628</v>
-      </c>
-      <c r="H14">
-        <v>1.138983883956824</v>
       </c>
       <c r="I14">
         <v>0.5264605511290485</v>
       </c>
       <c r="J14">
-        <v>0.7023409907965468</v>
+        <v>1.423922236082588</v>
       </c>
       <c r="K14">
+        <v>0.7023409907965469</v>
+      </c>
+      <c r="L14">
+        <v>0.7023409907965469</v>
+      </c>
+      <c r="M14">
         <v>1.188087969423358</v>
-      </c>
-      <c r="L14">
-        <v>0.8679346918430961</v>
-      </c>
-      <c r="M14">
-        <v>0.8810440720733679</v>
       </c>
       <c r="N14">
         <v>0.5264605511290485</v>
@@ -1545,7 +1497,7 @@
         <v>0.961703961116924</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.043338375171208</v>
+      </c>
+      <c r="D15">
+        <v>1.056453063421275</v>
+      </c>
+      <c r="E15">
+        <v>1.008723348151931</v>
+      </c>
+      <c r="F15">
+        <v>0.9541336621606232</v>
+      </c>
+      <c r="G15">
         <v>1.191403987328237</v>
       </c>
-      <c r="D15">
-        <v>1.133303954464979</v>
-      </c>
-      <c r="E15">
-        <v>0.8334494132133775</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>1.191403987328237</v>
-      </c>
-      <c r="G15">
-        <v>1.008723348151931</v>
-      </c>
-      <c r="H15">
-        <v>0.9541336621606232</v>
       </c>
       <c r="I15">
         <v>1.191403987328237</v>
       </c>
       <c r="J15">
+        <v>0.8334494132133775</v>
+      </c>
+      <c r="K15">
         <v>1.133303954464979</v>
       </c>
-      <c r="K15">
+      <c r="L15">
+        <v>1.133303954464979</v>
+      </c>
+      <c r="M15">
         <v>0.9121127047590144</v>
-      </c>
-      <c r="L15">
-        <v>1.056453063421275</v>
-      </c>
-      <c r="M15">
-        <v>1.043338375171208</v>
       </c>
       <c r="N15">
         <v>1.191403987328237</v>
@@ -1616,7 +1568,7 @@
         <v>1.016614813583831</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000075171759897</v>
+        <v>0.8486464886009826</v>
       </c>
       <c r="D16">
-        <v>1.00107767268683</v>
+        <v>1.073947629239333</v>
       </c>
       <c r="E16">
-        <v>1.000662673798838</v>
+        <v>0.9433481067999026</v>
       </c>
       <c r="F16">
-        <v>1.000075171759897</v>
+        <v>1.061362225147323</v>
       </c>
       <c r="G16">
-        <v>0.9993053568495591</v>
+        <v>1.298439005779975</v>
       </c>
       <c r="H16">
-        <v>1.000520285041087</v>
+        <v>1.298439005779975</v>
       </c>
       <c r="I16">
-        <v>1.000075171759897</v>
+        <v>1.298439005779975</v>
       </c>
       <c r="J16">
-        <v>1.00107767268683</v>
+        <v>0.9988057494903637</v>
       </c>
       <c r="K16">
-        <v>0.9997413612170463</v>
+        <v>0.7748550914695124</v>
       </c>
       <c r="L16">
-        <v>0.9995737570173197</v>
+        <v>0.7748550914695124</v>
       </c>
       <c r="M16">
-        <v>0.9999159394211805</v>
+        <v>0.9302796249818588</v>
       </c>
       <c r="N16">
-        <v>1.000075171759897</v>
+        <v>1.298439005779975</v>
       </c>
       <c r="O16">
-        <v>1.000662673798838</v>
+        <v>0.9988057494903637</v>
       </c>
       <c r="P16">
-        <v>1.000870173242834</v>
+        <v>0.886830420479938</v>
       </c>
       <c r="Q16">
-        <v>0.9999840153241984</v>
+        <v>0.9710769281451331</v>
       </c>
       <c r="R16">
-        <v>1.000605172748522</v>
+        <v>1.024033282246617</v>
       </c>
       <c r="S16">
-        <v>1.000348567778409</v>
+        <v>0.9056696492532595</v>
       </c>
       <c r="T16">
-        <v>1.000605172748522</v>
+        <v>1.024033282246617</v>
       </c>
       <c r="U16">
-        <v>1.000280218773781</v>
+        <v>1.003861988384938</v>
       </c>
       <c r="V16">
-        <v>1.000239209371004</v>
+        <v>1.062777391863946</v>
       </c>
       <c r="W16">
-        <v>1.00010902722397</v>
+        <v>0.9912104901886563</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9996656839104044</v>
+        <v>0.8699897202021021</v>
       </c>
       <c r="D17">
-        <v>0.9973621287631761</v>
+        <v>1.057769372172575</v>
       </c>
       <c r="E17">
-        <v>1.000351823732639</v>
+        <v>0.9534712026103177</v>
       </c>
       <c r="F17">
-        <v>0.9996656839104044</v>
+        <v>1.060410876469404</v>
       </c>
       <c r="G17">
-        <v>1.000681912371166</v>
+        <v>1.209957527155241</v>
       </c>
       <c r="H17">
-        <v>1.000098641873461</v>
+        <v>1.209957527155241</v>
       </c>
       <c r="I17">
-        <v>0.9996656839104044</v>
+        <v>1.209957527155241</v>
       </c>
       <c r="J17">
-        <v>0.9973621287631761</v>
+        <v>1.022042458262617</v>
       </c>
       <c r="K17">
-        <v>1.000004864385872</v>
+        <v>0.8054912472014736</v>
       </c>
       <c r="L17">
-        <v>1.000907140039534</v>
+        <v>0.8054912472014736</v>
       </c>
       <c r="M17">
-        <v>0.9991383206412235</v>
+        <v>0.9476662283547171</v>
       </c>
       <c r="N17">
-        <v>0.9996656839104044</v>
+        <v>1.209957527155241</v>
       </c>
       <c r="O17">
-        <v>1.000351823732639</v>
+        <v>1.022042458262617</v>
       </c>
       <c r="P17">
-        <v>0.9988569762479074</v>
+        <v>0.9137668527320453</v>
       </c>
       <c r="Q17">
-        <v>1.000516868051902</v>
+        <v>0.9877568304364672</v>
       </c>
       <c r="R17">
-        <v>0.9991265454687398</v>
+        <v>1.012497077539777</v>
       </c>
       <c r="S17">
-        <v>0.9994652882889935</v>
+        <v>0.9270016360248028</v>
       </c>
       <c r="T17">
-        <v>0.9991265454687398</v>
+        <v>1.012497077539777</v>
       </c>
       <c r="U17">
-        <v>0.9995153871943463</v>
+        <v>0.9977406088074124</v>
       </c>
       <c r="V17">
-        <v>0.9995454465375578</v>
+        <v>1.040183992476978</v>
       </c>
       <c r="W17">
-        <v>0.9997763144646844</v>
+        <v>0.990849829053556</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.005963958697656</v>
+        <v>0.9128917579384118</v>
       </c>
       <c r="D18">
-        <v>0.9999248861535219</v>
+        <v>1.025683107383797</v>
       </c>
       <c r="E18">
-        <v>1.000718142509944</v>
+        <v>0.9737364010321896</v>
       </c>
       <c r="F18">
-        <v>1.005963958697656</v>
+        <v>1.058030904695713</v>
       </c>
       <c r="G18">
-        <v>0.9971786495270939</v>
+        <v>1.034805876782295</v>
       </c>
       <c r="H18">
-        <v>1.002047979018349</v>
+        <v>1.034805876782295</v>
       </c>
       <c r="I18">
-        <v>1.005963958697656</v>
+        <v>1.034805876782295</v>
       </c>
       <c r="J18">
-        <v>0.9999248861535219</v>
+        <v>1.067233911242276</v>
       </c>
       <c r="K18">
-        <v>0.9981180335476781</v>
+        <v>0.867129425882125</v>
       </c>
       <c r="L18">
-        <v>1.000026370509348</v>
+        <v>0.867129425882125</v>
       </c>
       <c r="M18">
-        <v>0.9976538799431965</v>
+        <v>0.9821277353250094</v>
       </c>
       <c r="N18">
-        <v>1.005963958697656</v>
+        <v>1.034805876782295</v>
       </c>
       <c r="O18">
-        <v>1.000718142509944</v>
+        <v>1.067233911242276</v>
       </c>
       <c r="P18">
-        <v>1.000321514331733</v>
+        <v>0.9671816685622003</v>
       </c>
       <c r="Q18">
-        <v>0.9989483960185188</v>
+        <v>1.020485156137233</v>
       </c>
       <c r="R18">
-        <v>1.002202329120374</v>
+        <v>0.9897230713022319</v>
       </c>
       <c r="S18">
-        <v>0.9992738927301864</v>
+        <v>0.9693665793855301</v>
       </c>
       <c r="T18">
-        <v>1.002202329120374</v>
+        <v>0.9897230713022319</v>
       </c>
       <c r="U18">
-        <v>1.000946409222054</v>
+        <v>0.9857264037347213</v>
       </c>
       <c r="V18">
-        <v>1.001949919117174</v>
+        <v>0.9955422983442361</v>
       </c>
       <c r="W18">
-        <v>1.000203987488348</v>
+        <v>0.990204890035227</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9007771034281945</v>
+      </c>
+      <c r="D19">
+        <v>1.023593885189078</v>
+      </c>
+      <c r="E19">
+        <v>0.9691746290842406</v>
+      </c>
+      <c r="F19">
+        <v>1.069510610744039</v>
+      </c>
+      <c r="G19">
+        <v>1.019593938201308</v>
+      </c>
+      <c r="H19">
+        <v>1.019593938201308</v>
+      </c>
+      <c r="I19">
+        <v>1.019593938201308</v>
+      </c>
+      <c r="J19">
+        <v>1.092294086933831</v>
+      </c>
+      <c r="K19">
+        <v>0.848543336594923</v>
+      </c>
+      <c r="L19">
+        <v>0.848543336594923</v>
+      </c>
+      <c r="M19">
+        <v>0.9850024578752147</v>
+      </c>
+      <c r="N19">
+        <v>1.019593938201308</v>
+      </c>
+      <c r="O19">
+        <v>1.092294086933831</v>
+      </c>
+      <c r="P19">
+        <v>0.9704187117643772</v>
+      </c>
+      <c r="Q19">
+        <v>1.030734358009036</v>
+      </c>
+      <c r="R19">
+        <v>0.9868104539100209</v>
+      </c>
+      <c r="S19">
+        <v>0.970004017537665</v>
+      </c>
+      <c r="T19">
+        <v>0.9868104539100209</v>
+      </c>
+      <c r="U19">
+        <v>0.9824014977035758</v>
+      </c>
+      <c r="V19">
+        <v>0.9898399858031223</v>
+      </c>
+      <c r="W19">
+        <v>0.9885612560063538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999159394211805</v>
+      </c>
+      <c r="D20">
+        <v>0.9995737570173197</v>
+      </c>
+      <c r="E20">
+        <v>0.9993053568495591</v>
+      </c>
+      <c r="F20">
+        <v>1.000520285041087</v>
+      </c>
+      <c r="G20">
+        <v>1.000075171759897</v>
+      </c>
+      <c r="H20">
+        <v>1.000075171759897</v>
+      </c>
+      <c r="I20">
+        <v>1.000075171759897</v>
+      </c>
+      <c r="J20">
+        <v>1.000662673798838</v>
+      </c>
+      <c r="K20">
+        <v>1.001077672686831</v>
+      </c>
+      <c r="L20">
+        <v>1.001077672686831</v>
+      </c>
+      <c r="M20">
+        <v>0.9997413612170462</v>
+      </c>
+      <c r="N20">
+        <v>1.000075171759897</v>
+      </c>
+      <c r="O20">
+        <v>1.000662673798838</v>
+      </c>
+      <c r="P20">
+        <v>1.000870173242834</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999840153241984</v>
+      </c>
+      <c r="R20">
+        <v>1.000605172748522</v>
+      </c>
+      <c r="S20">
+        <v>1.000348567778409</v>
+      </c>
+      <c r="T20">
+        <v>1.000605172748522</v>
+      </c>
+      <c r="U20">
+        <v>1.000280218773781</v>
+      </c>
+      <c r="V20">
+        <v>1.000239209371004</v>
+      </c>
+      <c r="W20">
+        <v>1.00010902722397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9991383206412237</v>
+      </c>
+      <c r="D21">
+        <v>1.000907140039534</v>
+      </c>
+      <c r="E21">
+        <v>1.000681912371166</v>
+      </c>
+      <c r="F21">
+        <v>1.000098641873462</v>
+      </c>
+      <c r="G21">
+        <v>0.9996656839104047</v>
+      </c>
+      <c r="H21">
+        <v>0.9996656839104047</v>
+      </c>
+      <c r="I21">
+        <v>0.9996656839104047</v>
+      </c>
+      <c r="J21">
+        <v>1.000351823732639</v>
+      </c>
+      <c r="K21">
+        <v>0.9973621287631758</v>
+      </c>
+      <c r="L21">
+        <v>0.9973621287631758</v>
+      </c>
+      <c r="M21">
+        <v>1.000004864385872</v>
+      </c>
+      <c r="N21">
+        <v>0.9996656839104047</v>
+      </c>
+      <c r="O21">
+        <v>1.000351823732639</v>
+      </c>
+      <c r="P21">
+        <v>0.9988569762479073</v>
+      </c>
+      <c r="Q21">
+        <v>1.000516868051902</v>
+      </c>
+      <c r="R21">
+        <v>0.9991265454687398</v>
+      </c>
+      <c r="S21">
+        <v>0.9994652882889934</v>
+      </c>
+      <c r="T21">
+        <v>0.9991265454687398</v>
+      </c>
+      <c r="U21">
+        <v>0.9995153871943463</v>
+      </c>
+      <c r="V21">
+        <v>0.9995454465375581</v>
+      </c>
+      <c r="W21">
+        <v>0.9997763144646845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9976538799431963</v>
+      </c>
+      <c r="D22">
+        <v>1.000026370509348</v>
+      </c>
+      <c r="E22">
+        <v>0.9971786495270938</v>
+      </c>
+      <c r="F22">
+        <v>1.002047979018349</v>
+      </c>
+      <c r="G22">
+        <v>1.005963958697656</v>
+      </c>
+      <c r="H22">
+        <v>1.005963958697656</v>
+      </c>
+      <c r="I22">
+        <v>1.005963958697656</v>
+      </c>
+      <c r="J22">
+        <v>1.000718142509944</v>
+      </c>
+      <c r="K22">
+        <v>0.9999248861535215</v>
+      </c>
+      <c r="L22">
+        <v>0.9999248861535215</v>
+      </c>
+      <c r="M22">
+        <v>0.9981180335476781</v>
+      </c>
+      <c r="N22">
+        <v>1.005963958697656</v>
+      </c>
+      <c r="O22">
+        <v>1.000718142509944</v>
+      </c>
+      <c r="P22">
+        <v>1.000321514331733</v>
+      </c>
+      <c r="Q22">
+        <v>0.9989483960185188</v>
+      </c>
+      <c r="R22">
+        <v>1.002202329120374</v>
+      </c>
+      <c r="S22">
+        <v>0.9992738927301864</v>
+      </c>
+      <c r="T22">
+        <v>1.002202329120374</v>
+      </c>
+      <c r="U22">
+        <v>1.000946409222054</v>
+      </c>
+      <c r="V22">
+        <v>1.001949919117174</v>
+      </c>
+      <c r="W22">
+        <v>1.000203987488348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9951390396576457</v>
+      </c>
+      <c r="D23">
+        <v>0.9974392151624313</v>
+      </c>
+      <c r="E23">
+        <v>0.9892967474728002</v>
+      </c>
+      <c r="F23">
+        <v>1.006168243055572</v>
+      </c>
+      <c r="G23">
         <v>1.0197413020938</v>
       </c>
-      <c r="D19">
+      <c r="H23">
+        <v>1.0197413020938</v>
+      </c>
+      <c r="I23">
+        <v>1.0197413020938</v>
+      </c>
+      <c r="J23">
+        <v>1.001820592064191</v>
+      </c>
+      <c r="K23">
         <v>1.007108463976743</v>
       </c>
-      <c r="E19">
-        <v>1.001820592064192</v>
-      </c>
-      <c r="F19">
+      <c r="L23">
+        <v>1.007108463976743</v>
+      </c>
+      <c r="M23">
+        <v>0.9939368116388794</v>
+      </c>
+      <c r="N23">
         <v>1.0197413020938</v>
       </c>
-      <c r="G19">
-        <v>0.9892967474728002</v>
-      </c>
-      <c r="H19">
-        <v>1.006168243055572</v>
-      </c>
-      <c r="I19">
-        <v>1.0197413020938</v>
-      </c>
-      <c r="J19">
-        <v>1.007108463976743</v>
-      </c>
-      <c r="K19">
-        <v>0.9939368116388794</v>
-      </c>
-      <c r="L19">
-        <v>0.9974392151624313</v>
-      </c>
-      <c r="M19">
-        <v>0.9951390396576457</v>
-      </c>
-      <c r="N19">
-        <v>1.0197413020938</v>
-      </c>
-      <c r="O19">
-        <v>1.001820592064192</v>
-      </c>
-      <c r="P19">
+      <c r="O23">
+        <v>1.001820592064191</v>
+      </c>
+      <c r="P23">
         <v>1.004464528020467</v>
       </c>
-      <c r="Q19">
-        <v>0.9955586697684959</v>
-      </c>
-      <c r="R19">
+      <c r="Q23">
+        <v>0.9955586697684955</v>
+      </c>
+      <c r="R23">
         <v>1.009556786044912</v>
       </c>
-      <c r="S19">
-        <v>0.999408601171245</v>
-      </c>
-      <c r="T19">
+      <c r="S23">
+        <v>0.9994086011712447</v>
+      </c>
+      <c r="T23">
         <v>1.009556786044912</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.004491776401884</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.007541681540267</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.001331301890258</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[5, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9923790504807993</v>
+        <v>0.8944951734077798</v>
       </c>
       <c r="D3">
-        <v>1.00373640105318</v>
+        <v>1.031558151505765</v>
       </c>
       <c r="E3">
-        <v>0.9970388683970198</v>
+        <v>0.9676218863256485</v>
       </c>
       <c r="F3">
-        <v>1.002847701606652</v>
+        <v>1.070887325324201</v>
       </c>
       <c r="G3">
-        <v>1.016364389738909</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="H3">
-        <v>1.016364389738909</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="I3">
-        <v>1.016364389738909</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="J3">
-        <v>0.9995463881253207</v>
+        <v>1.082732298602304</v>
       </c>
       <c r="K3">
-        <v>0.9887259044682083</v>
+        <v>0.841751529167867</v>
       </c>
       <c r="L3">
-        <v>0.9887259044682083</v>
+        <v>0.841751529167867</v>
       </c>
       <c r="M3">
-        <v>0.9963832705733374</v>
+        <v>0.9764953793155635</v>
       </c>
       <c r="N3">
-        <v>1.016364389738909</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="O3">
-        <v>0.9995463881253207</v>
+        <v>1.082732298602304</v>
       </c>
       <c r="P3">
-        <v>0.9941361462967645</v>
+        <v>0.9622419138850856</v>
       </c>
       <c r="Q3">
-        <v>0.9982926282611703</v>
+        <v>1.025177092463976</v>
       </c>
       <c r="R3">
-        <v>1.001545560777479</v>
+        <v>0.9892058065670005</v>
       </c>
       <c r="S3">
-        <v>0.9951037203301829</v>
+        <v>0.9640352380319399</v>
       </c>
       <c r="T3">
-        <v>1.001545560777479</v>
+        <v>0.9892058065670005</v>
       </c>
       <c r="U3">
-        <v>1.000418887682365</v>
+        <v>0.9838098265066626</v>
       </c>
       <c r="V3">
-        <v>1.003607988093673</v>
+        <v>0.9956745795914962</v>
       </c>
       <c r="W3">
-        <v>0.9996277468054284</v>
+        <v>0.9885844169474949</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.985265229052475</v>
+        <v>0.9046859737150521</v>
       </c>
       <c r="D4">
-        <v>1.007420242645664</v>
+        <v>1.027802325616853</v>
       </c>
       <c r="E4">
-        <v>0.9944695713987214</v>
+        <v>0.9709582309476357</v>
       </c>
       <c r="F4">
-        <v>1.005539412702385</v>
+        <v>1.064177321360416</v>
       </c>
       <c r="G4">
-        <v>1.031087293656351</v>
+        <v>1.036547894289983</v>
       </c>
       <c r="H4">
-        <v>1.031087293656351</v>
+        <v>1.036547894289983</v>
       </c>
       <c r="I4">
-        <v>1.031087293656351</v>
+        <v>1.036547894289983</v>
       </c>
       <c r="J4">
-        <v>0.9989922668654171</v>
+        <v>1.075450031219721</v>
       </c>
       <c r="K4">
-        <v>0.977994780532309</v>
+        <v>0.8558042222285669</v>
       </c>
       <c r="L4">
-        <v>0.977994780532309</v>
+        <v>0.8558042222285669</v>
       </c>
       <c r="M4">
-        <v>0.9929858312459325</v>
+        <v>0.9800491473099137</v>
       </c>
       <c r="N4">
-        <v>1.031087293656351</v>
+        <v>1.036547894289983</v>
       </c>
       <c r="O4">
-        <v>0.9989922668654171</v>
+        <v>1.075450031219721</v>
       </c>
       <c r="P4">
-        <v>0.988493523698863</v>
+        <v>0.965627126724144</v>
       </c>
       <c r="Q4">
-        <v>0.9967309191320692</v>
+        <v>1.023204131083678</v>
       </c>
       <c r="R4">
-        <v>1.002691447018026</v>
+        <v>0.9892673825794235</v>
       </c>
       <c r="S4">
-        <v>0.9904855395988158</v>
+        <v>0.9674041614653079</v>
       </c>
       <c r="T4">
-        <v>1.002691447018026</v>
+        <v>0.9892673825794235</v>
       </c>
       <c r="U4">
-        <v>1.0006359781132</v>
+        <v>0.9846900946714765</v>
       </c>
       <c r="V4">
-        <v>1.00672624122183</v>
+        <v>0.9950616545951778</v>
       </c>
       <c r="W4">
-        <v>0.9992193285124069</v>
+        <v>0.9894343933360176</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9715992116246506</v>
+        <v>0.874963877331538</v>
       </c>
       <c r="D5">
-        <v>1.013775890497661</v>
+        <v>1.038951276037736</v>
       </c>
       <c r="E5">
-        <v>0.9891913558041214</v>
+        <v>0.9613103554986518</v>
       </c>
       <c r="F5">
-        <v>1.010817853852573</v>
+        <v>1.083648042156334</v>
       </c>
       <c r="G5">
-        <v>1.059457581726223</v>
+        <v>1.056008583719677</v>
       </c>
       <c r="H5">
-        <v>1.059457581726223</v>
+        <v>1.056008583719677</v>
       </c>
       <c r="I5">
-        <v>1.059457581726223</v>
+        <v>1.056008583719677</v>
       </c>
       <c r="J5">
-        <v>0.9989990465376831</v>
+        <v>1.09638402477089</v>
       </c>
       <c r="K5">
-        <v>0.9578893377788282</v>
+        <v>0.8148004283126684</v>
       </c>
       <c r="L5">
-        <v>0.9578893377788282</v>
+        <v>0.8148004283126684</v>
       </c>
       <c r="M5">
-        <v>0.9867567016282554</v>
+        <v>0.9695694192183297</v>
       </c>
       <c r="N5">
-        <v>1.059457581726223</v>
+        <v>1.056008583719677</v>
       </c>
       <c r="O5">
-        <v>0.9989990465376831</v>
+        <v>1.09638402477089</v>
       </c>
       <c r="P5">
-        <v>0.9784441921582556</v>
+        <v>0.9555922265417793</v>
       </c>
       <c r="Q5">
-        <v>0.9940952011709023</v>
+        <v>1.028847190134771</v>
       </c>
       <c r="R5">
-        <v>1.005448655347578</v>
+        <v>0.9890643456010787</v>
       </c>
       <c r="S5">
-        <v>0.9820265800402108</v>
+        <v>0.9574982695274036</v>
       </c>
       <c r="T5">
-        <v>1.005448655347578</v>
+        <v>0.9890643456010787</v>
       </c>
       <c r="U5">
-        <v>1.001384330461714</v>
+        <v>0.982125848075472</v>
       </c>
       <c r="V5">
-        <v>1.012998980714616</v>
+        <v>0.996902395204313</v>
       </c>
       <c r="W5">
-        <v>0.9985608724312496</v>
+        <v>0.9869545008807281</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9581698212628745</v>
+        <v>0.8565160588636366</v>
       </c>
       <c r="D6">
-        <v>1.017617736842419</v>
+        <v>1.046163880113636</v>
       </c>
       <c r="E6">
-        <v>0.9844229914005468</v>
+        <v>0.9554464930113634</v>
       </c>
       <c r="F6">
-        <v>1.015028534270522</v>
+        <v>1.095583724829544</v>
       </c>
       <c r="G6">
-        <v>1.092271101183605</v>
+        <v>1.068467586761364</v>
       </c>
       <c r="H6">
-        <v>1.092271101183605</v>
+        <v>1.068467586761364</v>
       </c>
       <c r="I6">
-        <v>1.092271101183605</v>
+        <v>1.068467586761364</v>
       </c>
       <c r="J6">
-        <v>0.9992538512548</v>
+        <v>1.108918805852272</v>
       </c>
       <c r="K6">
-        <v>0.9386259300401929</v>
+        <v>0.7893229056647728</v>
       </c>
       <c r="L6">
-        <v>0.9386259300401929</v>
+        <v>0.7893229056647728</v>
       </c>
       <c r="M6">
-        <v>0.9818857840881751</v>
+        <v>0.9628922247159091</v>
       </c>
       <c r="N6">
-        <v>1.092271101183605</v>
+        <v>1.068467586761364</v>
       </c>
       <c r="O6">
-        <v>0.9992538512548</v>
+        <v>1.108918805852272</v>
       </c>
       <c r="P6">
-        <v>0.9689398906474964</v>
+        <v>0.9491208557585226</v>
       </c>
       <c r="Q6">
-        <v>0.9918384213276734</v>
+        <v>1.032182649431818</v>
       </c>
       <c r="R6">
-        <v>1.010050294159533</v>
+        <v>0.9889030994261363</v>
       </c>
       <c r="S6">
-        <v>0.9741009242318466</v>
+        <v>0.9512294015094694</v>
       </c>
       <c r="T6">
-        <v>1.010050294159533</v>
+        <v>0.9889030994261363</v>
       </c>
       <c r="U6">
-        <v>1.003643468469786</v>
+        <v>0.9805389478224431</v>
       </c>
       <c r="V6">
-        <v>1.02136899501255</v>
+        <v>0.9981246756102273</v>
       </c>
       <c r="W6">
-        <v>0.9984094687928919</v>
+        <v>0.9854139599765623</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9992058431693007</v>
+        <v>0.6652083097932718</v>
       </c>
       <c r="D7">
-        <v>1.000324695910354</v>
+        <v>1.082040714677688</v>
       </c>
       <c r="E7">
-        <v>0.9997946548326412</v>
+        <v>0.8250885966773004</v>
       </c>
       <c r="F7">
-        <v>1.000514730350011</v>
+        <v>1.247949714184737</v>
       </c>
       <c r="G7">
-        <v>1.00036480145811</v>
+        <v>1.350335725115835</v>
       </c>
       <c r="H7">
-        <v>1.00036480145811</v>
+        <v>1.350335725115835</v>
       </c>
       <c r="I7">
-        <v>1.00036480145811</v>
+        <v>1.350335725115835</v>
       </c>
       <c r="J7">
-        <v>1.000576074461001</v>
+        <v>1.231477442068188</v>
       </c>
       <c r="K7">
-        <v>0.9988453029941521</v>
+        <v>0.6082513346012463</v>
       </c>
       <c r="L7">
-        <v>0.9988453029941521</v>
+        <v>0.6082513346012463</v>
       </c>
       <c r="M7">
-        <v>0.9997452715095236</v>
+        <v>0.8548612603626415</v>
       </c>
       <c r="N7">
-        <v>1.00036480145811</v>
+        <v>1.350335725115835</v>
       </c>
       <c r="O7">
-        <v>1.000576074461001</v>
+        <v>1.231477442068188</v>
       </c>
       <c r="P7">
-        <v>0.9997106887275764</v>
+        <v>0.9198643883347168</v>
       </c>
       <c r="Q7">
-        <v>1.000185364646821</v>
+        <v>1.028283019372744</v>
       </c>
       <c r="R7">
-        <v>0.9999287263044211</v>
+        <v>1.063354833928423</v>
       </c>
       <c r="S7">
-        <v>0.9997386774292646</v>
+        <v>0.8882724577822447</v>
       </c>
       <c r="T7">
-        <v>0.9999287263044211</v>
+        <v>1.063354833928423</v>
       </c>
       <c r="U7">
-        <v>0.9998952084364761</v>
+        <v>1.003788274615642</v>
       </c>
       <c r="V7">
-        <v>0.9999891270408028</v>
+        <v>1.073097764715681</v>
       </c>
       <c r="W7">
-        <v>0.9999214218356367</v>
+        <v>0.9831516371851134</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9977293236722706</v>
+        <v>0.6632228675705789</v>
       </c>
       <c r="D8">
-        <v>1.000981271151461</v>
+        <v>1.083614157736081</v>
       </c>
       <c r="E8">
-        <v>0.9993412739316673</v>
+        <v>0.8250241411827343</v>
       </c>
       <c r="F8">
-        <v>1.001361636008715</v>
+        <v>1.248727718640093</v>
       </c>
       <c r="G8">
-        <v>1.001549115692195</v>
+        <v>1.352082708699472</v>
       </c>
       <c r="H8">
-        <v>1.001549115692195</v>
+        <v>1.352082708699472</v>
       </c>
       <c r="I8">
-        <v>1.001549115692195</v>
+        <v>1.352082708699472</v>
       </c>
       <c r="J8">
-        <v>1.001213359749175</v>
+        <v>1.231719363319514</v>
       </c>
       <c r="K8">
-        <v>0.9967818985979977</v>
+        <v>0.6050127885472113</v>
       </c>
       <c r="L8">
-        <v>0.9967818985979977</v>
+        <v>0.6050127885472113</v>
       </c>
       <c r="M8">
-        <v>0.9992511291019858</v>
+        <v>0.853964389359825</v>
       </c>
       <c r="N8">
-        <v>1.001549115692195</v>
+        <v>1.352082708699472</v>
       </c>
       <c r="O8">
-        <v>1.001213359749175</v>
+        <v>1.231719363319514</v>
       </c>
       <c r="P8">
-        <v>0.9989976291735865</v>
+        <v>0.9183660759333625</v>
       </c>
       <c r="Q8">
-        <v>1.000277316840421</v>
+        <v>1.028371752251124</v>
       </c>
       <c r="R8">
-        <v>0.9998481246797892</v>
+        <v>1.062938286855399</v>
       </c>
       <c r="S8">
-        <v>0.9991121774262801</v>
+        <v>0.8872520976831532</v>
       </c>
       <c r="T8">
-        <v>0.9998481246797892</v>
+        <v>1.062938286855399</v>
       </c>
       <c r="U8">
-        <v>0.9997214119927588</v>
+        <v>1.003459750437233</v>
       </c>
       <c r="V8">
-        <v>1.000086952732646</v>
+        <v>1.073184342089681</v>
       </c>
       <c r="W8">
-        <v>0.9997761259881834</v>
+        <v>0.9829210168819387</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9967984466952716</v>
+        <v>0.6615055586120641</v>
       </c>
       <c r="D9">
-        <v>1.001593668987856</v>
+        <v>1.084189709739279</v>
       </c>
       <c r="E9">
-        <v>0.9990977869931983</v>
+        <v>0.8248948486546731</v>
       </c>
       <c r="F9">
-        <v>1.001798611933937</v>
+        <v>1.25004393296017</v>
       </c>
       <c r="G9">
-        <v>1.003144546647182</v>
+        <v>1.350428742838934</v>
       </c>
       <c r="H9">
-        <v>1.003144546647182</v>
+        <v>1.350428742838934</v>
       </c>
       <c r="I9">
-        <v>1.003144546647182</v>
+        <v>1.350428742838934</v>
       </c>
       <c r="J9">
-        <v>1.001282978979159</v>
+        <v>1.234007771033538</v>
       </c>
       <c r="K9">
-        <v>0.9954084943709013</v>
+        <v>0.6022222056179755</v>
       </c>
       <c r="L9">
-        <v>0.9954084943709013</v>
+        <v>0.6022222056179755</v>
       </c>
       <c r="M9">
-        <v>0.9986616727013692</v>
+        <v>0.8538813424429674</v>
       </c>
       <c r="N9">
-        <v>1.003144546647182</v>
+        <v>1.350428742838934</v>
       </c>
       <c r="O9">
-        <v>1.001282978979159</v>
+        <v>1.234007771033538</v>
       </c>
       <c r="P9">
-        <v>0.9983457366750303</v>
+        <v>0.9181149883257567</v>
       </c>
       <c r="Q9">
-        <v>1.000190382986179</v>
+        <v>1.029451309844105</v>
       </c>
       <c r="R9">
-        <v>0.9999453399990808</v>
+        <v>1.062219573163482</v>
       </c>
       <c r="S9">
-        <v>0.9985964201144197</v>
+        <v>0.8870416084353955</v>
       </c>
       <c r="T9">
-        <v>0.9999453399990808</v>
+        <v>1.062219573163482</v>
       </c>
       <c r="U9">
-        <v>0.9997334517476102</v>
+        <v>1.00288839203628</v>
       </c>
       <c r="V9">
-        <v>1.000415670727524</v>
+        <v>1.072396462196811</v>
       </c>
       <c r="W9">
-        <v>0.9997232759136092</v>
+        <v>0.9826467639874501</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9931270233741623</v>
+        <v>0.6552004229655857</v>
       </c>
       <c r="D10">
-        <v>1.003270754272389</v>
+        <v>1.090680203160606</v>
       </c>
       <c r="E10">
-        <v>0.9981448812594353</v>
+        <v>0.8245418177960737</v>
       </c>
       <c r="F10">
-        <v>1.003968240927226</v>
+        <v>1.251590804697793</v>
       </c>
       <c r="G10">
-        <v>1.005713076578818</v>
+        <v>1.361936381460936</v>
       </c>
       <c r="H10">
-        <v>1.005713076578818</v>
+        <v>1.361936381460936</v>
       </c>
       <c r="I10">
-        <v>1.005713076578818</v>
+        <v>1.361936381460936</v>
       </c>
       <c r="J10">
-        <v>1.003236842003405</v>
+        <v>1.231119746049652</v>
       </c>
       <c r="K10">
-        <v>0.9899992994008958</v>
+        <v>0.5927974748726719</v>
       </c>
       <c r="L10">
-        <v>0.9899992994008958</v>
+        <v>0.5927974748726719</v>
       </c>
       <c r="M10">
-        <v>0.9974012907424427</v>
+        <v>0.8492941570561617</v>
       </c>
       <c r="N10">
-        <v>1.005713076578818</v>
+        <v>1.361936381460936</v>
       </c>
       <c r="O10">
-        <v>1.003236842003405</v>
+        <v>1.231119746049652</v>
       </c>
       <c r="P10">
-        <v>0.9966180707021506</v>
+        <v>0.9119586104611621</v>
       </c>
       <c r="Q10">
-        <v>1.000690861631421</v>
+        <v>1.027830781922863</v>
       </c>
       <c r="R10">
-        <v>0.9996497393277064</v>
+        <v>1.06195120079442</v>
       </c>
       <c r="S10">
-        <v>0.9971270075545787</v>
+        <v>0.8828196795727994</v>
       </c>
       <c r="T10">
-        <v>0.9996497393277064</v>
+        <v>1.06195120079442</v>
       </c>
       <c r="U10">
-        <v>0.9992735248106386</v>
+        <v>1.002598855044833</v>
       </c>
       <c r="V10">
-        <v>1.000561435164274</v>
+        <v>1.074466360328054</v>
       </c>
       <c r="W10">
-        <v>0.9993576760698468</v>
+        <v>0.9821451260074351</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9884604765074865</v>
+        <v>0.9910886276226023</v>
       </c>
       <c r="D11">
-        <v>1.006037844110522</v>
+        <v>1.00509785136563</v>
       </c>
       <c r="E11">
-        <v>0.9966906750730629</v>
+        <v>0.9965110929075257</v>
       </c>
       <c r="F11">
-        <v>1.006213312321969</v>
+        <v>1.003380893022259</v>
       </c>
       <c r="G11">
-        <v>1.012568506259566</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="H11">
-        <v>1.012568506259566</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="I11">
-        <v>1.012568506259566</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="J11">
-        <v>1.003499263262497</v>
+        <v>0.9979954426998778</v>
       </c>
       <c r="K11">
-        <v>0.9835699613677082</v>
+        <v>0.9872258236800321</v>
       </c>
       <c r="L11">
-        <v>0.9835699613677082</v>
+        <v>0.9872258236800321</v>
       </c>
       <c r="M11">
-        <v>0.9949926655851431</v>
+        <v>0.9947952324901326</v>
       </c>
       <c r="N11">
-        <v>1.012568506259566</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="O11">
-        <v>1.003499263262497</v>
+        <v>0.9979954426998778</v>
       </c>
       <c r="P11">
-        <v>0.9935346123151024</v>
+        <v>0.9926106331899549</v>
       </c>
       <c r="Q11">
-        <v>1.00009496916778</v>
+        <v>0.9972532678037018</v>
       </c>
       <c r="R11">
-        <v>0.9998792436299236</v>
+        <v>1.001965120770083</v>
       </c>
       <c r="S11">
-        <v>0.9945866332344225</v>
+        <v>0.9939107864291451</v>
       </c>
       <c r="T11">
-        <v>0.9998792436299236</v>
+        <v>1.001965120770083</v>
       </c>
       <c r="U11">
-        <v>0.9990821014907084</v>
+        <v>1.000601613804444</v>
       </c>
       <c r="V11">
-        <v>1.00177938244448</v>
+        <v>1.004616110229623</v>
       </c>
       <c r="W11">
-        <v>0.9990040880609943</v>
+        <v>0.9995961324647998</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.195553934469803</v>
+        <v>0.9942411115593652</v>
       </c>
       <c r="D12">
-        <v>1.036237983932957</v>
+        <v>1.002253056473721</v>
       </c>
       <c r="E12">
-        <v>1.07137824426673</v>
+        <v>0.9975745630128657</v>
       </c>
       <c r="F12">
-        <v>0.8413181839612555</v>
+        <v>1.003007397512548</v>
       </c>
       <c r="G12">
-        <v>1.125624028573287</v>
+        <v>1.009270920142342</v>
       </c>
       <c r="H12">
-        <v>1.125624028573287</v>
+        <v>1.009270920142342</v>
       </c>
       <c r="I12">
-        <v>1.125624028573287</v>
+        <v>1.009270920142342</v>
       </c>
       <c r="J12">
-        <v>0.6904362039496496</v>
+        <v>1.001524748425171</v>
       </c>
       <c r="K12">
-        <v>1.343527441546627</v>
+        <v>0.9919753730678498</v>
       </c>
       <c r="L12">
-        <v>1.343527441546627</v>
+        <v>0.9919753730678498</v>
       </c>
       <c r="M12">
-        <v>0.9392059045035001</v>
+        <v>0.9975175260827388</v>
       </c>
       <c r="N12">
-        <v>1.125624028573287</v>
+        <v>1.009270920142342</v>
       </c>
       <c r="O12">
-        <v>0.6904362039496496</v>
+        <v>1.001524748425171</v>
       </c>
       <c r="P12">
-        <v>1.016981822748138</v>
+        <v>0.9967500607465103</v>
       </c>
       <c r="Q12">
-        <v>0.8809072241081897</v>
+        <v>0.9995496557190182</v>
       </c>
       <c r="R12">
-        <v>1.053195891356521</v>
+        <v>1.000923680545121</v>
       </c>
       <c r="S12">
-        <v>1.035113963254336</v>
+        <v>0.9970248948352954</v>
       </c>
       <c r="T12">
-        <v>1.053195891356521</v>
+        <v>1.000923680545121</v>
       </c>
       <c r="U12">
-        <v>1.057741479584073</v>
+        <v>1.000086401162057</v>
       </c>
       <c r="V12">
-        <v>1.071317989381916</v>
+        <v>1.001923304958114</v>
       </c>
       <c r="W12">
-        <v>1.030410240650476</v>
+        <v>0.999670587034575</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.0079658628135</v>
+        <v>0.9789155120653069</v>
       </c>
       <c r="D13">
-        <v>0.9406475568271571</v>
+        <v>1.007922131319984</v>
       </c>
       <c r="E13">
-        <v>0.9914945564739818</v>
+        <v>0.9912247133589487</v>
       </c>
       <c r="F13">
-        <v>1.016894837832945</v>
+        <v>1.011454056558089</v>
       </c>
       <c r="G13">
-        <v>0.8667078842957302</v>
+        <v>1.031929769531688</v>
       </c>
       <c r="H13">
-        <v>0.8667078842957302</v>
+        <v>1.031929769531688</v>
       </c>
       <c r="I13">
-        <v>0.8667078842957302</v>
+        <v>1.031929769531688</v>
       </c>
       <c r="J13">
-        <v>1.102024286899525</v>
+        <v>1.006345330898376</v>
       </c>
       <c r="K13">
-        <v>1.00247466253149</v>
+        <v>0.9700207691038153</v>
       </c>
       <c r="L13">
-        <v>1.00247466253149</v>
+        <v>0.9700207691038153</v>
       </c>
       <c r="M13">
-        <v>1.055436583587249</v>
+        <v>0.9913395443260228</v>
       </c>
       <c r="N13">
-        <v>0.8667078842957302</v>
+        <v>1.031929769531688</v>
       </c>
       <c r="O13">
-        <v>1.102024286899525</v>
+        <v>1.006345330898376</v>
       </c>
       <c r="P13">
-        <v>1.052249474715507</v>
+        <v>0.9881830500010955</v>
       </c>
       <c r="Q13">
-        <v>1.046759421686753</v>
+        <v>0.9987850221286623</v>
       </c>
       <c r="R13">
-        <v>0.990402277908915</v>
+        <v>1.002765289844626</v>
       </c>
       <c r="S13">
-        <v>1.031997835301665</v>
+        <v>0.9891969377870465</v>
       </c>
       <c r="T13">
-        <v>0.990402277908915</v>
+        <v>1.002765289844626</v>
       </c>
       <c r="U13">
-        <v>0.9906753475501817</v>
+        <v>0.9998801457232069</v>
       </c>
       <c r="V13">
-        <v>0.9658818548992913</v>
+        <v>1.006290070484903</v>
       </c>
       <c r="W13">
-        <v>0.9979557789076973</v>
+        <v>0.9986439783952787</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8810440720733679</v>
+        <v>0.9783706913121119</v>
       </c>
       <c r="D14">
-        <v>0.867934691843096</v>
+        <v>1.010547108758256</v>
       </c>
       <c r="E14">
-        <v>0.9648572936305628</v>
+        <v>0.991728236159257</v>
       </c>
       <c r="F14">
-        <v>1.138983883956824</v>
+        <v>1.008691779349442</v>
       </c>
       <c r="G14">
-        <v>0.5264605511290485</v>
+        <v>1.043601150592135</v>
       </c>
       <c r="H14">
-        <v>0.5264605511290485</v>
+        <v>1.043601150592135</v>
       </c>
       <c r="I14">
-        <v>0.5264605511290485</v>
+        <v>1.043601150592135</v>
       </c>
       <c r="J14">
-        <v>1.423922236082588</v>
+        <v>0.9996339979252978</v>
       </c>
       <c r="K14">
-        <v>0.7023409907965469</v>
+        <v>0.9681418766864758</v>
       </c>
       <c r="L14">
-        <v>0.7023409907965469</v>
+        <v>0.9681418766864758</v>
       </c>
       <c r="M14">
-        <v>1.188087969423358</v>
+        <v>0.9898538428121408</v>
       </c>
       <c r="N14">
-        <v>0.5264605511290485</v>
+        <v>1.043601150592135</v>
       </c>
       <c r="O14">
-        <v>1.423922236082588</v>
+        <v>0.9996339979252978</v>
       </c>
       <c r="P14">
-        <v>1.063131613439568</v>
+        <v>0.9838879373058869</v>
       </c>
       <c r="Q14">
-        <v>1.194389764856576</v>
+        <v>0.9956811170422775</v>
       </c>
       <c r="R14">
-        <v>0.8842412593360613</v>
+        <v>1.003792341734636</v>
       </c>
       <c r="S14">
-        <v>1.030373506836566</v>
+        <v>0.9865013702570101</v>
       </c>
       <c r="T14">
-        <v>0.8842412593360613</v>
+        <v>1.003792341734636</v>
       </c>
       <c r="U14">
-        <v>0.9043952679096867</v>
+        <v>1.000776315340791</v>
       </c>
       <c r="V14">
-        <v>0.828808324553559</v>
+        <v>1.00934128239106</v>
       </c>
       <c r="W14">
-        <v>0.961703961116924</v>
+        <v>0.9988210854493895</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.043338375171208</v>
+        <v>0.9923790504807993</v>
       </c>
       <c r="D15">
-        <v>1.056453063421275</v>
+        <v>1.00373640105318</v>
       </c>
       <c r="E15">
-        <v>1.008723348151931</v>
+        <v>0.9970388683970198</v>
       </c>
       <c r="F15">
-        <v>0.9541336621606232</v>
+        <v>1.002847701606652</v>
       </c>
       <c r="G15">
-        <v>1.191403987328237</v>
+        <v>1.016364389738909</v>
       </c>
       <c r="H15">
-        <v>1.191403987328237</v>
+        <v>1.016364389738909</v>
       </c>
       <c r="I15">
-        <v>1.191403987328237</v>
+        <v>1.016364389738909</v>
       </c>
       <c r="J15">
-        <v>0.8334494132133775</v>
+        <v>0.9995463881253207</v>
       </c>
       <c r="K15">
-        <v>1.133303954464979</v>
+        <v>0.9887259044682083</v>
       </c>
       <c r="L15">
-        <v>1.133303954464979</v>
+        <v>0.9887259044682083</v>
       </c>
       <c r="M15">
-        <v>0.9121127047590144</v>
+        <v>0.9963832705733374</v>
       </c>
       <c r="N15">
-        <v>1.191403987328237</v>
+        <v>1.016364389738909</v>
       </c>
       <c r="O15">
-        <v>0.8334494132133775</v>
+        <v>0.9995463881253207</v>
       </c>
       <c r="P15">
-        <v>0.9833766838391782</v>
+        <v>0.9941361462967645</v>
       </c>
       <c r="Q15">
-        <v>0.9210863806826544</v>
+        <v>0.9982926282611703</v>
       </c>
       <c r="R15">
-        <v>1.052719118335531</v>
+        <v>1.001545560777479</v>
       </c>
       <c r="S15">
-        <v>0.9918255719434291</v>
+        <v>0.9951037203301829</v>
       </c>
       <c r="T15">
-        <v>1.052719118335531</v>
+        <v>1.001545560777479</v>
       </c>
       <c r="U15">
-        <v>1.041720175789631</v>
+        <v>1.000418887682365</v>
       </c>
       <c r="V15">
-        <v>1.071656938097352</v>
+        <v>1.003607988093673</v>
       </c>
       <c r="W15">
-        <v>1.016614813583831</v>
+        <v>0.9996277468054284</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8486464886009826</v>
+        <v>0.985265229052475</v>
       </c>
       <c r="D16">
-        <v>1.073947629239333</v>
+        <v>1.007420242645664</v>
       </c>
       <c r="E16">
-        <v>0.9433481067999026</v>
+        <v>0.9944695713987214</v>
       </c>
       <c r="F16">
-        <v>1.061362225147323</v>
+        <v>1.005539412702385</v>
       </c>
       <c r="G16">
-        <v>1.298439005779975</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="H16">
-        <v>1.298439005779975</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="I16">
-        <v>1.298439005779975</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="J16">
-        <v>0.9988057494903637</v>
+        <v>0.9989922668654171</v>
       </c>
       <c r="K16">
-        <v>0.7748550914695124</v>
+        <v>0.977994780532309</v>
       </c>
       <c r="L16">
-        <v>0.7748550914695124</v>
+        <v>0.977994780532309</v>
       </c>
       <c r="M16">
-        <v>0.9302796249818588</v>
+        <v>0.9929858312459325</v>
       </c>
       <c r="N16">
-        <v>1.298439005779975</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="O16">
-        <v>0.9988057494903637</v>
+        <v>0.9989922668654171</v>
       </c>
       <c r="P16">
-        <v>0.886830420479938</v>
+        <v>0.988493523698863</v>
       </c>
       <c r="Q16">
-        <v>0.9710769281451331</v>
+        <v>0.9967309191320692</v>
       </c>
       <c r="R16">
-        <v>1.024033282246617</v>
+        <v>1.002691447018026</v>
       </c>
       <c r="S16">
-        <v>0.9056696492532595</v>
+        <v>0.9904855395988158</v>
       </c>
       <c r="T16">
-        <v>1.024033282246617</v>
+        <v>1.002691447018026</v>
       </c>
       <c r="U16">
-        <v>1.003861988384938</v>
+        <v>1.0006359781132</v>
       </c>
       <c r="V16">
-        <v>1.062777391863946</v>
+        <v>1.00672624122183</v>
       </c>
       <c r="W16">
-        <v>0.9912104901886563</v>
+        <v>0.9992193285124069</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8699897202021021</v>
+        <v>0.9715992116246506</v>
       </c>
       <c r="D17">
-        <v>1.057769372172575</v>
+        <v>1.013775890497661</v>
       </c>
       <c r="E17">
-        <v>0.9534712026103177</v>
+        <v>0.9891913558041214</v>
       </c>
       <c r="F17">
-        <v>1.060410876469404</v>
+        <v>1.010817853852573</v>
       </c>
       <c r="G17">
-        <v>1.209957527155241</v>
+        <v>1.059457581726223</v>
       </c>
       <c r="H17">
-        <v>1.209957527155241</v>
+        <v>1.059457581726223</v>
       </c>
       <c r="I17">
-        <v>1.209957527155241</v>
+        <v>1.059457581726223</v>
       </c>
       <c r="J17">
-        <v>1.022042458262617</v>
+        <v>0.9989990465376831</v>
       </c>
       <c r="K17">
-        <v>0.8054912472014736</v>
+        <v>0.9578893377788282</v>
       </c>
       <c r="L17">
-        <v>0.8054912472014736</v>
+        <v>0.9578893377788282</v>
       </c>
       <c r="M17">
-        <v>0.9476662283547171</v>
+        <v>0.9867567016282554</v>
       </c>
       <c r="N17">
-        <v>1.209957527155241</v>
+        <v>1.059457581726223</v>
       </c>
       <c r="O17">
-        <v>1.022042458262617</v>
+        <v>0.9989990465376831</v>
       </c>
       <c r="P17">
-        <v>0.9137668527320453</v>
+        <v>0.9784441921582556</v>
       </c>
       <c r="Q17">
-        <v>0.9877568304364672</v>
+        <v>0.9940952011709023</v>
       </c>
       <c r="R17">
-        <v>1.012497077539777</v>
+        <v>1.005448655347578</v>
       </c>
       <c r="S17">
-        <v>0.9270016360248028</v>
+        <v>0.9820265800402108</v>
       </c>
       <c r="T17">
-        <v>1.012497077539777</v>
+        <v>1.005448655347578</v>
       </c>
       <c r="U17">
-        <v>0.9977406088074124</v>
+        <v>1.001384330461714</v>
       </c>
       <c r="V17">
-        <v>1.040183992476978</v>
+        <v>1.012998980714616</v>
       </c>
       <c r="W17">
-        <v>0.990849829053556</v>
+        <v>0.9985608724312496</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9128917579384118</v>
+        <v>0.9581698212628745</v>
       </c>
       <c r="D18">
-        <v>1.025683107383797</v>
+        <v>1.017617736842419</v>
       </c>
       <c r="E18">
-        <v>0.9737364010321896</v>
+        <v>0.9844229914005468</v>
       </c>
       <c r="F18">
-        <v>1.058030904695713</v>
+        <v>1.015028534270522</v>
       </c>
       <c r="G18">
-        <v>1.034805876782295</v>
+        <v>1.092271101183605</v>
       </c>
       <c r="H18">
-        <v>1.034805876782295</v>
+        <v>1.092271101183605</v>
       </c>
       <c r="I18">
-        <v>1.034805876782295</v>
+        <v>1.092271101183605</v>
       </c>
       <c r="J18">
-        <v>1.067233911242276</v>
+        <v>0.9992538512548</v>
       </c>
       <c r="K18">
-        <v>0.867129425882125</v>
+        <v>0.9386259300401929</v>
       </c>
       <c r="L18">
-        <v>0.867129425882125</v>
+        <v>0.9386259300401929</v>
       </c>
       <c r="M18">
-        <v>0.9821277353250094</v>
+        <v>0.9818857840881751</v>
       </c>
       <c r="N18">
-        <v>1.034805876782295</v>
+        <v>1.092271101183605</v>
       </c>
       <c r="O18">
-        <v>1.067233911242276</v>
+        <v>0.9992538512548</v>
       </c>
       <c r="P18">
-        <v>0.9671816685622003</v>
+        <v>0.9689398906474964</v>
       </c>
       <c r="Q18">
-        <v>1.020485156137233</v>
+        <v>0.9918384213276734</v>
       </c>
       <c r="R18">
-        <v>0.9897230713022319</v>
+        <v>1.010050294159533</v>
       </c>
       <c r="S18">
-        <v>0.9693665793855301</v>
+        <v>0.9741009242318466</v>
       </c>
       <c r="T18">
-        <v>0.9897230713022319</v>
+        <v>1.010050294159533</v>
       </c>
       <c r="U18">
-        <v>0.9857264037347213</v>
+        <v>1.003643468469786</v>
       </c>
       <c r="V18">
-        <v>0.9955422983442361</v>
+        <v>1.02136899501255</v>
       </c>
       <c r="W18">
-        <v>0.990204890035227</v>
+        <v>0.9984094687928919</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9007771034281945</v>
+        <v>0.9992058431693007</v>
       </c>
       <c r="D19">
-        <v>1.023593885189078</v>
+        <v>1.000324695910354</v>
       </c>
       <c r="E19">
-        <v>0.9691746290842406</v>
+        <v>0.9997946548326412</v>
       </c>
       <c r="F19">
-        <v>1.069510610744039</v>
+        <v>1.000514730350011</v>
       </c>
       <c r="G19">
-        <v>1.019593938201308</v>
+        <v>1.00036480145811</v>
       </c>
       <c r="H19">
-        <v>1.019593938201308</v>
+        <v>1.00036480145811</v>
       </c>
       <c r="I19">
-        <v>1.019593938201308</v>
+        <v>1.00036480145811</v>
       </c>
       <c r="J19">
-        <v>1.092294086933831</v>
+        <v>1.000576074461001</v>
       </c>
       <c r="K19">
-        <v>0.848543336594923</v>
+        <v>0.9988453029941521</v>
       </c>
       <c r="L19">
-        <v>0.848543336594923</v>
+        <v>0.9988453029941521</v>
       </c>
       <c r="M19">
-        <v>0.9850024578752147</v>
+        <v>0.9997452715095236</v>
       </c>
       <c r="N19">
-        <v>1.019593938201308</v>
+        <v>1.00036480145811</v>
       </c>
       <c r="O19">
-        <v>1.092294086933831</v>
+        <v>1.000576074461001</v>
       </c>
       <c r="P19">
-        <v>0.9704187117643772</v>
+        <v>0.9997106887275764</v>
       </c>
       <c r="Q19">
-        <v>1.030734358009036</v>
+        <v>1.000185364646821</v>
       </c>
       <c r="R19">
-        <v>0.9868104539100209</v>
+        <v>0.9999287263044211</v>
       </c>
       <c r="S19">
-        <v>0.970004017537665</v>
+        <v>0.9997386774292646</v>
       </c>
       <c r="T19">
-        <v>0.9868104539100209</v>
+        <v>0.9999287263044211</v>
       </c>
       <c r="U19">
-        <v>0.9824014977035758</v>
+        <v>0.9998952084364761</v>
       </c>
       <c r="V19">
-        <v>0.9898399858031223</v>
+        <v>0.9999891270408028</v>
       </c>
       <c r="W19">
-        <v>0.9885612560063538</v>
+        <v>0.9999214218356367</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999159394211805</v>
+        <v>0.9977293236722706</v>
       </c>
       <c r="D20">
-        <v>0.9995737570173197</v>
+        <v>1.000981271151461</v>
       </c>
       <c r="E20">
-        <v>0.9993053568495591</v>
+        <v>0.9993412739316673</v>
       </c>
       <c r="F20">
-        <v>1.000520285041087</v>
+        <v>1.001361636008715</v>
       </c>
       <c r="G20">
-        <v>1.000075171759897</v>
+        <v>1.001549115692195</v>
       </c>
       <c r="H20">
-        <v>1.000075171759897</v>
+        <v>1.001549115692195</v>
       </c>
       <c r="I20">
-        <v>1.000075171759897</v>
+        <v>1.001549115692195</v>
       </c>
       <c r="J20">
-        <v>1.000662673798838</v>
+        <v>1.001213359749175</v>
       </c>
       <c r="K20">
-        <v>1.001077672686831</v>
+        <v>0.9967818985979977</v>
       </c>
       <c r="L20">
-        <v>1.001077672686831</v>
+        <v>0.9967818985979977</v>
       </c>
       <c r="M20">
-        <v>0.9997413612170462</v>
+        <v>0.9992511291019858</v>
       </c>
       <c r="N20">
-        <v>1.000075171759897</v>
+        <v>1.001549115692195</v>
       </c>
       <c r="O20">
-        <v>1.000662673798838</v>
+        <v>1.001213359749175</v>
       </c>
       <c r="P20">
-        <v>1.000870173242834</v>
+        <v>0.9989976291735865</v>
       </c>
       <c r="Q20">
-        <v>0.9999840153241984</v>
+        <v>1.000277316840421</v>
       </c>
       <c r="R20">
-        <v>1.000605172748522</v>
+        <v>0.9998481246797892</v>
       </c>
       <c r="S20">
-        <v>1.000348567778409</v>
+        <v>0.9991121774262801</v>
       </c>
       <c r="T20">
-        <v>1.000605172748522</v>
+        <v>0.9998481246797892</v>
       </c>
       <c r="U20">
-        <v>1.000280218773781</v>
+        <v>0.9997214119927588</v>
       </c>
       <c r="V20">
-        <v>1.000239209371004</v>
+        <v>1.000086952732646</v>
       </c>
       <c r="W20">
-        <v>1.00010902722397</v>
+        <v>0.9997761259881834</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9991383206412237</v>
+        <v>0.9967984466952716</v>
       </c>
       <c r="D21">
-        <v>1.000907140039534</v>
+        <v>1.001593668987856</v>
       </c>
       <c r="E21">
-        <v>1.000681912371166</v>
+        <v>0.9990977869931983</v>
       </c>
       <c r="F21">
-        <v>1.000098641873462</v>
+        <v>1.001798611933937</v>
       </c>
       <c r="G21">
-        <v>0.9996656839104047</v>
+        <v>1.003144546647182</v>
       </c>
       <c r="H21">
-        <v>0.9996656839104047</v>
+        <v>1.003144546647182</v>
       </c>
       <c r="I21">
-        <v>0.9996656839104047</v>
+        <v>1.003144546647182</v>
       </c>
       <c r="J21">
-        <v>1.000351823732639</v>
+        <v>1.001282978979159</v>
       </c>
       <c r="K21">
-        <v>0.9973621287631758</v>
+        <v>0.9954084943709013</v>
       </c>
       <c r="L21">
-        <v>0.9973621287631758</v>
+        <v>0.9954084943709013</v>
       </c>
       <c r="M21">
-        <v>1.000004864385872</v>
+        <v>0.9986616727013692</v>
       </c>
       <c r="N21">
-        <v>0.9996656839104047</v>
+        <v>1.003144546647182</v>
       </c>
       <c r="O21">
-        <v>1.000351823732639</v>
+        <v>1.001282978979159</v>
       </c>
       <c r="P21">
-        <v>0.9988569762479073</v>
+        <v>0.9983457366750303</v>
       </c>
       <c r="Q21">
-        <v>1.000516868051902</v>
+        <v>1.000190382986179</v>
       </c>
       <c r="R21">
-        <v>0.9991265454687398</v>
+        <v>0.9999453399990808</v>
       </c>
       <c r="S21">
-        <v>0.9994652882889934</v>
+        <v>0.9985964201144197</v>
       </c>
       <c r="T21">
-        <v>0.9991265454687398</v>
+        <v>0.9999453399990808</v>
       </c>
       <c r="U21">
-        <v>0.9995153871943463</v>
+        <v>0.9997334517476102</v>
       </c>
       <c r="V21">
-        <v>0.9995454465375581</v>
+        <v>1.000415670727524</v>
       </c>
       <c r="W21">
-        <v>0.9997763144646845</v>
+        <v>0.9997232759136092</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9976538799431963</v>
+        <v>0.9931270233741623</v>
       </c>
       <c r="D22">
-        <v>1.000026370509348</v>
+        <v>1.003270754272389</v>
       </c>
       <c r="E22">
-        <v>0.9971786495270938</v>
+        <v>0.9981448812594353</v>
       </c>
       <c r="F22">
-        <v>1.002047979018349</v>
+        <v>1.003968240927226</v>
       </c>
       <c r="G22">
-        <v>1.005963958697656</v>
+        <v>1.005713076578818</v>
       </c>
       <c r="H22">
-        <v>1.005963958697656</v>
+        <v>1.005713076578818</v>
       </c>
       <c r="I22">
-        <v>1.005963958697656</v>
+        <v>1.005713076578818</v>
       </c>
       <c r="J22">
-        <v>1.000718142509944</v>
+        <v>1.003236842003405</v>
       </c>
       <c r="K22">
-        <v>0.9999248861535215</v>
+        <v>0.9899992994008958</v>
       </c>
       <c r="L22">
-        <v>0.9999248861535215</v>
+        <v>0.9899992994008958</v>
       </c>
       <c r="M22">
-        <v>0.9981180335476781</v>
+        <v>0.9974012907424427</v>
       </c>
       <c r="N22">
-        <v>1.005963958697656</v>
+        <v>1.005713076578818</v>
       </c>
       <c r="O22">
-        <v>1.000718142509944</v>
+        <v>1.003236842003405</v>
       </c>
       <c r="P22">
-        <v>1.000321514331733</v>
+        <v>0.9966180707021506</v>
       </c>
       <c r="Q22">
-        <v>0.9989483960185188</v>
+        <v>1.000690861631421</v>
       </c>
       <c r="R22">
-        <v>1.002202329120374</v>
+        <v>0.9996497393277064</v>
       </c>
       <c r="S22">
-        <v>0.9992738927301864</v>
+        <v>0.9971270075545787</v>
       </c>
       <c r="T22">
-        <v>1.002202329120374</v>
+        <v>0.9996497393277064</v>
       </c>
       <c r="U22">
-        <v>1.000946409222054</v>
+        <v>0.9992735248106386</v>
       </c>
       <c r="V22">
-        <v>1.001949919117174</v>
+        <v>1.000561435164274</v>
       </c>
       <c r="W22">
-        <v>1.000203987488348</v>
+        <v>0.9993576760698468</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9884604765074865</v>
+      </c>
+      <c r="D23">
+        <v>1.006037844110522</v>
+      </c>
+      <c r="E23">
+        <v>0.9966906750730629</v>
+      </c>
+      <c r="F23">
+        <v>1.006213312321969</v>
+      </c>
+      <c r="G23">
+        <v>1.012568506259566</v>
+      </c>
+      <c r="H23">
+        <v>1.012568506259566</v>
+      </c>
+      <c r="I23">
+        <v>1.012568506259566</v>
+      </c>
+      <c r="J23">
+        <v>1.003499263262497</v>
+      </c>
+      <c r="K23">
+        <v>0.9835699613677082</v>
+      </c>
+      <c r="L23">
+        <v>0.9835699613677082</v>
+      </c>
+      <c r="M23">
+        <v>0.9949926655851431</v>
+      </c>
+      <c r="N23">
+        <v>1.012568506259566</v>
+      </c>
+      <c r="O23">
+        <v>1.003499263262497</v>
+      </c>
+      <c r="P23">
+        <v>0.9935346123151024</v>
+      </c>
+      <c r="Q23">
+        <v>1.00009496916778</v>
+      </c>
+      <c r="R23">
+        <v>0.9998792436299236</v>
+      </c>
+      <c r="S23">
+        <v>0.9945866332344225</v>
+      </c>
+      <c r="T23">
+        <v>0.9998792436299236</v>
+      </c>
+      <c r="U23">
+        <v>0.9990821014907084</v>
+      </c>
+      <c r="V23">
+        <v>1.00177938244448</v>
+      </c>
+      <c r="W23">
+        <v>0.9990040880609943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.195553934469803</v>
+      </c>
+      <c r="D24">
+        <v>1.036237983932957</v>
+      </c>
+      <c r="E24">
+        <v>1.07137824426673</v>
+      </c>
+      <c r="F24">
+        <v>0.8413181839612555</v>
+      </c>
+      <c r="G24">
+        <v>1.125624028573287</v>
+      </c>
+      <c r="H24">
+        <v>1.125624028573287</v>
+      </c>
+      <c r="I24">
+        <v>1.125624028573287</v>
+      </c>
+      <c r="J24">
+        <v>0.6904362039496496</v>
+      </c>
+      <c r="K24">
+        <v>1.343527441546627</v>
+      </c>
+      <c r="L24">
+        <v>1.343527441546627</v>
+      </c>
+      <c r="M24">
+        <v>0.9392059045035001</v>
+      </c>
+      <c r="N24">
+        <v>1.125624028573287</v>
+      </c>
+      <c r="O24">
+        <v>0.6904362039496496</v>
+      </c>
+      <c r="P24">
+        <v>1.016981822748138</v>
+      </c>
+      <c r="Q24">
+        <v>0.8809072241081897</v>
+      </c>
+      <c r="R24">
+        <v>1.053195891356521</v>
+      </c>
+      <c r="S24">
+        <v>1.035113963254336</v>
+      </c>
+      <c r="T24">
+        <v>1.053195891356521</v>
+      </c>
+      <c r="U24">
+        <v>1.057741479584073</v>
+      </c>
+      <c r="V24">
+        <v>1.071317989381916</v>
+      </c>
+      <c r="W24">
+        <v>1.030410240650476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.0079658628135</v>
+      </c>
+      <c r="D25">
+        <v>0.9406475568271571</v>
+      </c>
+      <c r="E25">
+        <v>0.9914945564739818</v>
+      </c>
+      <c r="F25">
+        <v>1.016894837832945</v>
+      </c>
+      <c r="G25">
+        <v>0.8667078842957302</v>
+      </c>
+      <c r="H25">
+        <v>0.8667078842957302</v>
+      </c>
+      <c r="I25">
+        <v>0.8667078842957302</v>
+      </c>
+      <c r="J25">
+        <v>1.102024286899525</v>
+      </c>
+      <c r="K25">
+        <v>1.00247466253149</v>
+      </c>
+      <c r="L25">
+        <v>1.00247466253149</v>
+      </c>
+      <c r="M25">
+        <v>1.055436583587249</v>
+      </c>
+      <c r="N25">
+        <v>0.8667078842957302</v>
+      </c>
+      <c r="O25">
+        <v>1.102024286899525</v>
+      </c>
+      <c r="P25">
+        <v>1.052249474715507</v>
+      </c>
+      <c r="Q25">
+        <v>1.046759421686753</v>
+      </c>
+      <c r="R25">
+        <v>0.990402277908915</v>
+      </c>
+      <c r="S25">
+        <v>1.031997835301665</v>
+      </c>
+      <c r="T25">
+        <v>0.990402277908915</v>
+      </c>
+      <c r="U25">
+        <v>0.9906753475501817</v>
+      </c>
+      <c r="V25">
+        <v>0.9658818548992913</v>
+      </c>
+      <c r="W25">
+        <v>0.9979557789076973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8810440720733679</v>
+      </c>
+      <c r="D26">
+        <v>0.867934691843096</v>
+      </c>
+      <c r="E26">
+        <v>0.9648572936305628</v>
+      </c>
+      <c r="F26">
+        <v>1.138983883956824</v>
+      </c>
+      <c r="G26">
+        <v>0.5264605511290485</v>
+      </c>
+      <c r="H26">
+        <v>0.5264605511290485</v>
+      </c>
+      <c r="I26">
+        <v>0.5264605511290485</v>
+      </c>
+      <c r="J26">
+        <v>1.423922236082588</v>
+      </c>
+      <c r="K26">
+        <v>0.7023409907965469</v>
+      </c>
+      <c r="L26">
+        <v>0.7023409907965469</v>
+      </c>
+      <c r="M26">
+        <v>1.188087969423358</v>
+      </c>
+      <c r="N26">
+        <v>0.5264605511290485</v>
+      </c>
+      <c r="O26">
+        <v>1.423922236082588</v>
+      </c>
+      <c r="P26">
+        <v>1.063131613439568</v>
+      </c>
+      <c r="Q26">
+        <v>1.194389764856576</v>
+      </c>
+      <c r="R26">
+        <v>0.8842412593360613</v>
+      </c>
+      <c r="S26">
+        <v>1.030373506836566</v>
+      </c>
+      <c r="T26">
+        <v>0.8842412593360613</v>
+      </c>
+      <c r="U26">
+        <v>0.9043952679096867</v>
+      </c>
+      <c r="V26">
+        <v>0.828808324553559</v>
+      </c>
+      <c r="W26">
+        <v>0.961703961116924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.043338375171208</v>
+      </c>
+      <c r="D27">
+        <v>1.056453063421275</v>
+      </c>
+      <c r="E27">
+        <v>1.008723348151931</v>
+      </c>
+      <c r="F27">
+        <v>0.9541336621606232</v>
+      </c>
+      <c r="G27">
+        <v>1.191403987328237</v>
+      </c>
+      <c r="H27">
+        <v>1.191403987328237</v>
+      </c>
+      <c r="I27">
+        <v>1.191403987328237</v>
+      </c>
+      <c r="J27">
+        <v>0.8334494132133775</v>
+      </c>
+      <c r="K27">
+        <v>1.133303954464979</v>
+      </c>
+      <c r="L27">
+        <v>1.133303954464979</v>
+      </c>
+      <c r="M27">
+        <v>0.9121127047590144</v>
+      </c>
+      <c r="N27">
+        <v>1.191403987328237</v>
+      </c>
+      <c r="O27">
+        <v>0.8334494132133775</v>
+      </c>
+      <c r="P27">
+        <v>0.9833766838391782</v>
+      </c>
+      <c r="Q27">
+        <v>0.9210863806826544</v>
+      </c>
+      <c r="R27">
+        <v>1.052719118335531</v>
+      </c>
+      <c r="S27">
+        <v>0.9918255719434291</v>
+      </c>
+      <c r="T27">
+        <v>1.052719118335531</v>
+      </c>
+      <c r="U27">
+        <v>1.041720175789631</v>
+      </c>
+      <c r="V27">
+        <v>1.071656938097352</v>
+      </c>
+      <c r="W27">
+        <v>1.016614813583831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8486464886009826</v>
+      </c>
+      <c r="D28">
+        <v>1.073947629239333</v>
+      </c>
+      <c r="E28">
+        <v>0.9433481067999026</v>
+      </c>
+      <c r="F28">
+        <v>1.061362225147323</v>
+      </c>
+      <c r="G28">
+        <v>1.298439005779975</v>
+      </c>
+      <c r="H28">
+        <v>1.298439005779975</v>
+      </c>
+      <c r="I28">
+        <v>1.298439005779975</v>
+      </c>
+      <c r="J28">
+        <v>0.9988057494903637</v>
+      </c>
+      <c r="K28">
+        <v>0.7748550914695124</v>
+      </c>
+      <c r="L28">
+        <v>0.7748550914695124</v>
+      </c>
+      <c r="M28">
+        <v>0.9302796249818588</v>
+      </c>
+      <c r="N28">
+        <v>1.298439005779975</v>
+      </c>
+      <c r="O28">
+        <v>0.9988057494903637</v>
+      </c>
+      <c r="P28">
+        <v>0.886830420479938</v>
+      </c>
+      <c r="Q28">
+        <v>0.9710769281451331</v>
+      </c>
+      <c r="R28">
+        <v>1.024033282246617</v>
+      </c>
+      <c r="S28">
+        <v>0.9056696492532595</v>
+      </c>
+      <c r="T28">
+        <v>1.024033282246617</v>
+      </c>
+      <c r="U28">
+        <v>1.003861988384938</v>
+      </c>
+      <c r="V28">
+        <v>1.062777391863946</v>
+      </c>
+      <c r="W28">
+        <v>0.9912104901886563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8699897202021021</v>
+      </c>
+      <c r="D29">
+        <v>1.057769372172575</v>
+      </c>
+      <c r="E29">
+        <v>0.9534712026103177</v>
+      </c>
+      <c r="F29">
+        <v>1.060410876469404</v>
+      </c>
+      <c r="G29">
+        <v>1.209957527155241</v>
+      </c>
+      <c r="H29">
+        <v>1.209957527155241</v>
+      </c>
+      <c r="I29">
+        <v>1.209957527155241</v>
+      </c>
+      <c r="J29">
+        <v>1.022042458262617</v>
+      </c>
+      <c r="K29">
+        <v>0.8054912472014736</v>
+      </c>
+      <c r="L29">
+        <v>0.8054912472014736</v>
+      </c>
+      <c r="M29">
+        <v>0.9476662283547171</v>
+      </c>
+      <c r="N29">
+        <v>1.209957527155241</v>
+      </c>
+      <c r="O29">
+        <v>1.022042458262617</v>
+      </c>
+      <c r="P29">
+        <v>0.9137668527320453</v>
+      </c>
+      <c r="Q29">
+        <v>0.9877568304364672</v>
+      </c>
+      <c r="R29">
+        <v>1.012497077539777</v>
+      </c>
+      <c r="S29">
+        <v>0.9270016360248028</v>
+      </c>
+      <c r="T29">
+        <v>1.012497077539777</v>
+      </c>
+      <c r="U29">
+        <v>0.9977406088074124</v>
+      </c>
+      <c r="V29">
+        <v>1.040183992476978</v>
+      </c>
+      <c r="W29">
+        <v>0.990849829053556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9128917579384118</v>
+      </c>
+      <c r="D30">
+        <v>1.025683107383797</v>
+      </c>
+      <c r="E30">
+        <v>0.9737364010321896</v>
+      </c>
+      <c r="F30">
+        <v>1.058030904695713</v>
+      </c>
+      <c r="G30">
+        <v>1.034805876782295</v>
+      </c>
+      <c r="H30">
+        <v>1.034805876782295</v>
+      </c>
+      <c r="I30">
+        <v>1.034805876782295</v>
+      </c>
+      <c r="J30">
+        <v>1.067233911242276</v>
+      </c>
+      <c r="K30">
+        <v>0.867129425882125</v>
+      </c>
+      <c r="L30">
+        <v>0.867129425882125</v>
+      </c>
+      <c r="M30">
+        <v>0.9821277353250094</v>
+      </c>
+      <c r="N30">
+        <v>1.034805876782295</v>
+      </c>
+      <c r="O30">
+        <v>1.067233911242276</v>
+      </c>
+      <c r="P30">
+        <v>0.9671816685622003</v>
+      </c>
+      <c r="Q30">
+        <v>1.020485156137233</v>
+      </c>
+      <c r="R30">
+        <v>0.9897230713022319</v>
+      </c>
+      <c r="S30">
+        <v>0.9693665793855301</v>
+      </c>
+      <c r="T30">
+        <v>0.9897230713022319</v>
+      </c>
+      <c r="U30">
+        <v>0.9857264037347213</v>
+      </c>
+      <c r="V30">
+        <v>0.9955422983442361</v>
+      </c>
+      <c r="W30">
+        <v>0.990204890035227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9007771034281945</v>
+      </c>
+      <c r="D31">
+        <v>1.023593885189078</v>
+      </c>
+      <c r="E31">
+        <v>0.9691746290842406</v>
+      </c>
+      <c r="F31">
+        <v>1.069510610744039</v>
+      </c>
+      <c r="G31">
+        <v>1.019593938201308</v>
+      </c>
+      <c r="H31">
+        <v>1.019593938201308</v>
+      </c>
+      <c r="I31">
+        <v>1.019593938201308</v>
+      </c>
+      <c r="J31">
+        <v>1.092294086933831</v>
+      </c>
+      <c r="K31">
+        <v>0.848543336594923</v>
+      </c>
+      <c r="L31">
+        <v>0.848543336594923</v>
+      </c>
+      <c r="M31">
+        <v>0.9850024578752147</v>
+      </c>
+      <c r="N31">
+        <v>1.019593938201308</v>
+      </c>
+      <c r="O31">
+        <v>1.092294086933831</v>
+      </c>
+      <c r="P31">
+        <v>0.9704187117643772</v>
+      </c>
+      <c r="Q31">
+        <v>1.030734358009036</v>
+      </c>
+      <c r="R31">
+        <v>0.9868104539100209</v>
+      </c>
+      <c r="S31">
+        <v>0.970004017537665</v>
+      </c>
+      <c r="T31">
+        <v>0.9868104539100209</v>
+      </c>
+      <c r="U31">
+        <v>0.9824014977035758</v>
+      </c>
+      <c r="V31">
+        <v>0.9898399858031223</v>
+      </c>
+      <c r="W31">
+        <v>0.9885612560063538</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.819384537808219</v>
+      </c>
+      <c r="D32">
+        <v>1.098937846849316</v>
+      </c>
+      <c r="E32">
+        <v>0.9314277347945201</v>
+      </c>
+      <c r="F32">
+        <v>1.063747341643836</v>
+      </c>
+      <c r="G32">
+        <v>1.410310167123288</v>
+      </c>
+      <c r="H32">
+        <v>1.410310167123288</v>
+      </c>
+      <c r="I32">
+        <v>1.410310167123288</v>
+      </c>
+      <c r="J32">
+        <v>0.9679932642465756</v>
+      </c>
+      <c r="K32">
+        <v>0.7341982231232878</v>
+      </c>
+      <c r="L32">
+        <v>0.7341982231232878</v>
+      </c>
+      <c r="M32">
+        <v>0.9049547493150683</v>
+      </c>
+      <c r="N32">
+        <v>1.410310167123288</v>
+      </c>
+      <c r="O32">
+        <v>0.9679932642465756</v>
+      </c>
+      <c r="P32">
+        <v>0.8510957436849317</v>
+      </c>
+      <c r="Q32">
+        <v>0.9497104995205479</v>
+      </c>
+      <c r="R32">
+        <v>1.037500551497717</v>
+      </c>
+      <c r="S32">
+        <v>0.8778730740547944</v>
+      </c>
+      <c r="T32">
+        <v>1.037500551497717</v>
+      </c>
+      <c r="U32">
+        <v>1.010982347321918</v>
+      </c>
+      <c r="V32">
+        <v>1.090847911282192</v>
+      </c>
+      <c r="W32">
+        <v>0.9913692331130137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.5481095184210525</v>
+      </c>
+      <c r="D33">
+        <v>1.068012005263158</v>
+      </c>
+      <c r="E33">
+        <v>0.8653858184210527</v>
+      </c>
+      <c r="F33">
+        <v>1.297642321052631</v>
+      </c>
+      <c r="G33">
+        <v>1.066422366842105</v>
+      </c>
+      <c r="H33">
+        <v>1.066422366842105</v>
+      </c>
+      <c r="I33">
+        <v>1.066422366842105</v>
+      </c>
+      <c r="J33">
+        <v>1.439543825789473</v>
+      </c>
+      <c r="K33">
+        <v>0.251991426</v>
+      </c>
+      <c r="L33">
+        <v>0.251991426</v>
+      </c>
+      <c r="M33">
+        <v>0.9972373457894734</v>
+      </c>
+      <c r="N33">
+        <v>1.066422366842105</v>
+      </c>
+      <c r="O33">
+        <v>1.439543825789473</v>
+      </c>
+      <c r="P33">
+        <v>0.8457676258947368</v>
+      </c>
+      <c r="Q33">
+        <v>1.152464822105263</v>
+      </c>
+      <c r="R33">
+        <v>0.9193192062105263</v>
+      </c>
+      <c r="S33">
+        <v>0.8523070234035087</v>
+      </c>
+      <c r="T33">
+        <v>0.9193192062105263</v>
+      </c>
+      <c r="U33">
+        <v>0.9058358592631579</v>
+      </c>
+      <c r="V33">
+        <v>0.9379531607789474</v>
+      </c>
+      <c r="W33">
+        <v>0.9417930784473684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.6347483063157894</v>
+      </c>
+      <c r="D34">
+        <v>1.105821573157895</v>
+      </c>
+      <c r="E34">
+        <v>0.8255858373684211</v>
+      </c>
+      <c r="F34">
+        <v>1.260198751052632</v>
+      </c>
+      <c r="G34">
+        <v>1.36919445368421</v>
+      </c>
+      <c r="H34">
+        <v>1.36919445368421</v>
+      </c>
+      <c r="I34">
+        <v>1.36919445368421</v>
+      </c>
+      <c r="J34">
+        <v>1.238608237894737</v>
+      </c>
+      <c r="K34">
+        <v>0.5564497356842104</v>
+      </c>
+      <c r="L34">
+        <v>0.5564497356842104</v>
+      </c>
+      <c r="M34">
+        <v>0.8430159336842108</v>
+      </c>
+      <c r="N34">
+        <v>1.36919445368421</v>
+      </c>
+      <c r="O34">
+        <v>1.238608237894737</v>
+      </c>
+      <c r="P34">
+        <v>0.8975289867894737</v>
+      </c>
+      <c r="Q34">
+        <v>1.032097037631579</v>
+      </c>
+      <c r="R34">
+        <v>1.054750809087719</v>
+      </c>
+      <c r="S34">
+        <v>0.873547936982456</v>
+      </c>
+      <c r="T34">
+        <v>1.054750809087719</v>
+      </c>
+      <c r="U34">
+        <v>0.9974595661578947</v>
+      </c>
+      <c r="V34">
+        <v>1.071806543663158</v>
+      </c>
+      <c r="W34">
+        <v>0.9792028536052633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.6423190087414575</v>
+      </c>
+      <c r="D35">
+        <v>1.112268173824278</v>
+      </c>
+      <c r="E35">
+        <v>0.9051815614945792</v>
+      </c>
+      <c r="F35">
+        <v>1.258585163697411</v>
+      </c>
+      <c r="G35">
+        <v>1.017682362934605</v>
+      </c>
+      <c r="H35">
+        <v>1.017682362934605</v>
+      </c>
+      <c r="I35">
+        <v>1.017682362934605</v>
+      </c>
+      <c r="J35">
+        <v>1.348078728096311</v>
+      </c>
+      <c r="K35">
+        <v>0.4777782176337861</v>
+      </c>
+      <c r="L35">
+        <v>0.4777782176337861</v>
+      </c>
+      <c r="M35">
+        <v>0.9198843571803581</v>
+      </c>
+      <c r="N35">
+        <v>1.017682362934605</v>
+      </c>
+      <c r="O35">
+        <v>1.348078728096311</v>
+      </c>
+      <c r="P35">
+        <v>0.9129284728650485</v>
+      </c>
+      <c r="Q35">
+        <v>1.126630144795445</v>
+      </c>
+      <c r="R35">
+        <v>0.9478464362215672</v>
+      </c>
+      <c r="S35">
+        <v>0.9103461690748921</v>
+      </c>
+      <c r="T35">
+        <v>0.9478464362215672</v>
+      </c>
+      <c r="U35">
+        <v>0.9371802175398202</v>
+      </c>
+      <c r="V35">
+        <v>0.9532806466187772</v>
+      </c>
+      <c r="W35">
+        <v>0.9602221967003481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999159394211805</v>
+      </c>
+      <c r="D36">
+        <v>0.9995737570173197</v>
+      </c>
+      <c r="E36">
+        <v>0.9993053568495591</v>
+      </c>
+      <c r="F36">
+        <v>1.000520285041087</v>
+      </c>
+      <c r="G36">
+        <v>1.000075171759897</v>
+      </c>
+      <c r="H36">
+        <v>1.000075171759897</v>
+      </c>
+      <c r="I36">
+        <v>1.000075171759897</v>
+      </c>
+      <c r="J36">
+        <v>1.000662673798838</v>
+      </c>
+      <c r="K36">
+        <v>1.001077672686831</v>
+      </c>
+      <c r="L36">
+        <v>1.001077672686831</v>
+      </c>
+      <c r="M36">
+        <v>0.9997413612170462</v>
+      </c>
+      <c r="N36">
+        <v>1.000075171759897</v>
+      </c>
+      <c r="O36">
+        <v>1.000662673798838</v>
+      </c>
+      <c r="P36">
+        <v>1.000870173242834</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999840153241984</v>
+      </c>
+      <c r="R36">
+        <v>1.000605172748522</v>
+      </c>
+      <c r="S36">
+        <v>1.000348567778409</v>
+      </c>
+      <c r="T36">
+        <v>1.000605172748522</v>
+      </c>
+      <c r="U36">
+        <v>1.000280218773781</v>
+      </c>
+      <c r="V36">
+        <v>1.000239209371004</v>
+      </c>
+      <c r="W36">
+        <v>1.00010902722397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9991383206412237</v>
+      </c>
+      <c r="D37">
+        <v>1.000907140039534</v>
+      </c>
+      <c r="E37">
+        <v>1.000681912371166</v>
+      </c>
+      <c r="F37">
+        <v>1.000098641873462</v>
+      </c>
+      <c r="G37">
+        <v>0.9996656839104047</v>
+      </c>
+      <c r="H37">
+        <v>0.9996656839104047</v>
+      </c>
+      <c r="I37">
+        <v>0.9996656839104047</v>
+      </c>
+      <c r="J37">
+        <v>1.000351823732639</v>
+      </c>
+      <c r="K37">
+        <v>0.9973621287631758</v>
+      </c>
+      <c r="L37">
+        <v>0.9973621287631758</v>
+      </c>
+      <c r="M37">
+        <v>1.000004864385872</v>
+      </c>
+      <c r="N37">
+        <v>0.9996656839104047</v>
+      </c>
+      <c r="O37">
+        <v>1.000351823732639</v>
+      </c>
+      <c r="P37">
+        <v>0.9988569762479073</v>
+      </c>
+      <c r="Q37">
+        <v>1.000516868051902</v>
+      </c>
+      <c r="R37">
+        <v>0.9991265454687398</v>
+      </c>
+      <c r="S37">
+        <v>0.9994652882889934</v>
+      </c>
+      <c r="T37">
+        <v>0.9991265454687398</v>
+      </c>
+      <c r="U37">
+        <v>0.9995153871943463</v>
+      </c>
+      <c r="V37">
+        <v>0.9995454465375581</v>
+      </c>
+      <c r="W37">
+        <v>0.9997763144646845</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9976538799431963</v>
+      </c>
+      <c r="D38">
+        <v>1.000026370509348</v>
+      </c>
+      <c r="E38">
+        <v>0.9971786495270938</v>
+      </c>
+      <c r="F38">
+        <v>1.002047979018349</v>
+      </c>
+      <c r="G38">
+        <v>1.005963958697656</v>
+      </c>
+      <c r="H38">
+        <v>1.005963958697656</v>
+      </c>
+      <c r="I38">
+        <v>1.005963958697656</v>
+      </c>
+      <c r="J38">
+        <v>1.000718142509944</v>
+      </c>
+      <c r="K38">
+        <v>0.9999248861535215</v>
+      </c>
+      <c r="L38">
+        <v>0.9999248861535215</v>
+      </c>
+      <c r="M38">
+        <v>0.9981180335476781</v>
+      </c>
+      <c r="N38">
+        <v>1.005963958697656</v>
+      </c>
+      <c r="O38">
+        <v>1.000718142509944</v>
+      </c>
+      <c r="P38">
+        <v>1.000321514331733</v>
+      </c>
+      <c r="Q38">
+        <v>0.9989483960185188</v>
+      </c>
+      <c r="R38">
+        <v>1.002202329120374</v>
+      </c>
+      <c r="S38">
+        <v>0.9992738927301864</v>
+      </c>
+      <c r="T38">
+        <v>1.002202329120374</v>
+      </c>
+      <c r="U38">
+        <v>1.000946409222054</v>
+      </c>
+      <c r="V38">
+        <v>1.001949919117174</v>
+      </c>
+      <c r="W38">
+        <v>1.000203987488348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9951390396576457</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9974392151624313</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9892967474728002</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.006168243055572</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.0197413020938</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.0197413020938</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.0197413020938</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.001820592064191</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.007108463976743</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.007108463976743</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9939368116388794</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.0197413020938</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.001820592064191</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.004464528020467</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9955586697684955</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.009556786044912</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9994086011712447</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.009556786044912</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.004491776401884</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.007541681540267</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.001331301890258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8706096567854724</v>
+      </c>
+      <c r="D40">
+        <v>1.037086054544158</v>
+      </c>
+      <c r="E40">
+        <v>0.940806393969069</v>
+      </c>
+      <c r="F40">
+        <v>1.081712872029824</v>
+      </c>
+      <c r="G40">
+        <v>1.150843442960901</v>
+      </c>
+      <c r="H40">
+        <v>1.150843442960901</v>
+      </c>
+      <c r="I40">
+        <v>1.150843442960901</v>
+      </c>
+      <c r="J40">
+        <v>1.066650748030889</v>
+      </c>
+      <c r="K40">
+        <v>0.8249563308089707</v>
+      </c>
+      <c r="L40">
+        <v>0.8249563308089707</v>
+      </c>
+      <c r="M40">
+        <v>0.9545155714297309</v>
+      </c>
+      <c r="N40">
+        <v>1.150843442960901</v>
+      </c>
+      <c r="O40">
+        <v>1.066650748030889</v>
+      </c>
+      <c r="P40">
+        <v>0.94580353941993</v>
+      </c>
+      <c r="Q40">
+        <v>1.003728570999979</v>
+      </c>
+      <c r="R40">
+        <v>1.014150173933587</v>
+      </c>
+      <c r="S40">
+        <v>0.9441378242696429</v>
+      </c>
+      <c r="T40">
+        <v>1.014150173933587</v>
+      </c>
+      <c r="U40">
+        <v>0.9958142289424576</v>
+      </c>
+      <c r="V40">
+        <v>1.026820071746146</v>
+      </c>
+      <c r="W40">
+        <v>0.9908976338198769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.072784348803494</v>
+      </c>
+      <c r="D41">
+        <v>0.98344620968092</v>
+      </c>
+      <c r="E41">
+        <v>1.023162266148455</v>
+      </c>
+      <c r="F41">
+        <v>0.9566416209340183</v>
+      </c>
+      <c r="G41">
+        <v>0.9582382228384748</v>
+      </c>
+      <c r="H41">
+        <v>0.9582382228384748</v>
+      </c>
+      <c r="I41">
+        <v>0.9582382228384748</v>
+      </c>
+      <c r="J41">
+        <v>0.9527569839420653</v>
+      </c>
+      <c r="K41">
+        <v>1.124816012246376</v>
+      </c>
+      <c r="L41">
+        <v>1.124816012246376</v>
+      </c>
+      <c r="M41">
+        <v>1.005157355576645</v>
+      </c>
+      <c r="N41">
+        <v>0.9582382228384748</v>
+      </c>
+      <c r="O41">
+        <v>0.9527569839420653</v>
+      </c>
+      <c r="P41">
+        <v>1.038786498094221</v>
+      </c>
+      <c r="Q41">
+        <v>0.9879596250452601</v>
+      </c>
+      <c r="R41">
+        <v>1.011937073008972</v>
+      </c>
+      <c r="S41">
+        <v>1.033578420778965</v>
+      </c>
+      <c r="T41">
+        <v>1.011937073008972</v>
+      </c>
+      <c r="U41">
+        <v>1.014743371293843</v>
+      </c>
+      <c r="V41">
+        <v>1.003442341602769</v>
+      </c>
+      <c r="W41">
+        <v>1.009625377521306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.8661640388894918</v>
+      </c>
+      <c r="D42">
+        <v>1.021234751620003</v>
+      </c>
+      <c r="E42">
+        <v>0.9557751180053737</v>
+      </c>
+      <c r="F42">
+        <v>1.092817219325812</v>
+      </c>
+      <c r="G42">
+        <v>1.027573637738878</v>
+      </c>
+      <c r="H42">
+        <v>1.027573637738878</v>
+      </c>
+      <c r="I42">
+        <v>1.027573637738878</v>
+      </c>
+      <c r="J42">
+        <v>1.128591823243376</v>
+      </c>
+      <c r="K42">
+        <v>0.7865912654668421</v>
+      </c>
+      <c r="L42">
+        <v>0.7865912654668421</v>
+      </c>
+      <c r="M42">
+        <v>0.991101428100803</v>
+      </c>
+      <c r="N42">
+        <v>1.027573637738878</v>
+      </c>
+      <c r="O42">
+        <v>1.128591823243376</v>
+      </c>
+      <c r="P42">
+        <v>0.9575915443551088</v>
+      </c>
+      <c r="Q42">
+        <v>1.042183470624375</v>
+      </c>
+      <c r="R42">
+        <v>0.9809189088163652</v>
+      </c>
+      <c r="S42">
+        <v>0.9569860689051971</v>
+      </c>
+      <c r="T42">
+        <v>0.9809189088163652</v>
+      </c>
+      <c r="U42">
+        <v>0.9746329611136173</v>
+      </c>
+      <c r="V42">
+        <v>0.9852210964386694</v>
+      </c>
+      <c r="W42">
+        <v>0.9837311602988225</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.016364389738909</v>
+        <v>0.9977293236722706</v>
       </c>
       <c r="D3">
-        <v>0.9887259044682083</v>
+        <v>1.000981271151461</v>
       </c>
       <c r="E3">
-        <v>0.9995463881253207</v>
+        <v>0.9993412739316673</v>
       </c>
       <c r="F3">
-        <v>1.016364389738909</v>
+        <v>1.001361636008715</v>
       </c>
       <c r="G3">
-        <v>0.9970388683970198</v>
+        <v>1.001549115692195</v>
       </c>
       <c r="H3">
-        <v>1.002847701606652</v>
+        <v>1.001549115692195</v>
       </c>
       <c r="I3">
-        <v>1.016364389738909</v>
+        <v>1.001549115692195</v>
       </c>
       <c r="J3">
-        <v>0.9887259044682083</v>
+        <v>1.001213359749175</v>
       </c>
       <c r="K3">
-        <v>0.9963832705733374</v>
+        <v>0.9967818985979977</v>
       </c>
       <c r="L3">
-        <v>1.00373640105318</v>
+        <v>0.9967818985979977</v>
       </c>
       <c r="M3">
-        <v>0.992379050480799</v>
+        <v>0.9992511291019858</v>
       </c>
       <c r="N3">
-        <v>1.016364389738909</v>
+        <v>1.001549115692195</v>
       </c>
       <c r="O3">
-        <v>0.9995463881253207</v>
+        <v>1.001213359749175</v>
       </c>
       <c r="P3">
-        <v>0.9941361462967645</v>
+        <v>0.9989976291735865</v>
       </c>
       <c r="Q3">
-        <v>0.9982926282611703</v>
+        <v>1.000277316840421</v>
       </c>
       <c r="R3">
-        <v>1.001545560777479</v>
+        <v>0.9998481246797892</v>
       </c>
       <c r="S3">
-        <v>0.9951037203301829</v>
+        <v>0.9991121774262801</v>
       </c>
       <c r="T3">
-        <v>1.001545560777479</v>
+        <v>0.9998481246797892</v>
       </c>
       <c r="U3">
-        <v>1.000418887682365</v>
+        <v>0.9997214119927588</v>
       </c>
       <c r="V3">
-        <v>1.003607988093673</v>
+        <v>1.000086952732646</v>
       </c>
       <c r="W3">
-        <v>0.9996277468054284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9997761259881834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.031087293656351</v>
+        <v>0.8706096567854724</v>
       </c>
       <c r="D4">
-        <v>0.977994780532309</v>
+        <v>1.037086054544158</v>
       </c>
       <c r="E4">
-        <v>0.9989922668654171</v>
+        <v>0.940806393969069</v>
       </c>
       <c r="F4">
-        <v>1.031087293656351</v>
+        <v>1.081712872029824</v>
       </c>
       <c r="G4">
-        <v>0.9944695713987214</v>
+        <v>1.150843442960901</v>
       </c>
       <c r="H4">
-        <v>1.005539412702385</v>
+        <v>1.150843442960901</v>
       </c>
       <c r="I4">
-        <v>1.031087293656351</v>
+        <v>1.150843442960901</v>
       </c>
       <c r="J4">
-        <v>0.977994780532309</v>
+        <v>1.066650748030889</v>
       </c>
       <c r="K4">
-        <v>0.9929858312459325</v>
+        <v>0.8249563308089707</v>
       </c>
       <c r="L4">
-        <v>1.007420242645665</v>
+        <v>0.8249563308089707</v>
       </c>
       <c r="M4">
-        <v>0.9852652290524748</v>
+        <v>0.9545155714297309</v>
       </c>
       <c r="N4">
-        <v>1.031087293656351</v>
+        <v>1.150843442960901</v>
       </c>
       <c r="O4">
-        <v>0.9989922668654171</v>
+        <v>1.066650748030889</v>
       </c>
       <c r="P4">
-        <v>0.988493523698863</v>
+        <v>0.94580353941993</v>
       </c>
       <c r="Q4">
-        <v>0.9967309191320692</v>
+        <v>1.003728570999979</v>
       </c>
       <c r="R4">
-        <v>1.002691447018026</v>
+        <v>1.014150173933587</v>
       </c>
       <c r="S4">
-        <v>0.9904855395988158</v>
+        <v>0.9441378242696429</v>
       </c>
       <c r="T4">
-        <v>1.002691447018026</v>
+        <v>1.014150173933587</v>
       </c>
       <c r="U4">
-        <v>1.0006359781132</v>
+        <v>0.9958142289424576</v>
       </c>
       <c r="V4">
-        <v>1.00672624122183</v>
+        <v>1.026820071746146</v>
       </c>
       <c r="W4">
-        <v>0.999219328512407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9908976338198769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.059457581726223</v>
+        <v>0.8944951734077798</v>
       </c>
       <c r="D5">
-        <v>0.9578893377788282</v>
+        <v>1.031558151505765</v>
       </c>
       <c r="E5">
-        <v>0.9989990465376831</v>
+        <v>0.9676218863256485</v>
       </c>
       <c r="F5">
-        <v>1.059457581726223</v>
+        <v>1.070887325324201</v>
       </c>
       <c r="G5">
-        <v>0.9891913558041222</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="H5">
-        <v>1.010817853852573</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="I5">
-        <v>1.059457581726223</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="J5">
-        <v>0.9578893377788282</v>
+        <v>1.082732298602304</v>
       </c>
       <c r="K5">
-        <v>0.9867567016282554</v>
+        <v>0.841751529167867</v>
       </c>
       <c r="L5">
-        <v>1.013775890497661</v>
+        <v>0.841751529167867</v>
       </c>
       <c r="M5">
-        <v>0.9715992116246509</v>
+        <v>0.9764953793155635</v>
       </c>
       <c r="N5">
-        <v>1.059457581726223</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="O5">
-        <v>0.9989990465376831</v>
+        <v>1.082732298602304</v>
       </c>
       <c r="P5">
-        <v>0.9784441921582556</v>
+        <v>0.9622419138850856</v>
       </c>
       <c r="Q5">
-        <v>0.9940952011709027</v>
+        <v>1.025177092463976</v>
       </c>
       <c r="R5">
-        <v>1.005448655347578</v>
+        <v>0.9892058065670005</v>
       </c>
       <c r="S5">
-        <v>0.9820265800402112</v>
+        <v>0.9640352380319399</v>
       </c>
       <c r="T5">
-        <v>1.005448655347578</v>
+        <v>0.9892058065670005</v>
       </c>
       <c r="U5">
-        <v>1.001384330461714</v>
+        <v>0.9838098265066626</v>
       </c>
       <c r="V5">
-        <v>1.012998980714616</v>
+        <v>0.9956745795914962</v>
       </c>
       <c r="W5">
-        <v>0.9985608724312496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9885844169474949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.092271101183605</v>
+        <v>0.6423190087414575</v>
       </c>
       <c r="D6">
-        <v>0.9386259300401929</v>
+        <v>1.112268173824278</v>
       </c>
       <c r="E6">
-        <v>0.9992538512548</v>
+        <v>0.9051815614945792</v>
       </c>
       <c r="F6">
-        <v>1.092271101183605</v>
+        <v>1.258585163697411</v>
       </c>
       <c r="G6">
-        <v>0.9844229914005468</v>
+        <v>1.017682362934605</v>
       </c>
       <c r="H6">
-        <v>1.015028534270522</v>
+        <v>1.017682362934605</v>
       </c>
       <c r="I6">
-        <v>1.092271101183605</v>
+        <v>1.017682362934605</v>
       </c>
       <c r="J6">
-        <v>0.9386259300401929</v>
+        <v>1.348078728096311</v>
       </c>
       <c r="K6">
-        <v>0.9818857840881751</v>
+        <v>0.4777782176337861</v>
       </c>
       <c r="L6">
-        <v>1.017617736842419</v>
+        <v>0.4777782176337861</v>
       </c>
       <c r="M6">
-        <v>0.9581698212628745</v>
+        <v>0.9198843571803581</v>
       </c>
       <c r="N6">
-        <v>1.092271101183605</v>
+        <v>1.017682362934605</v>
       </c>
       <c r="O6">
-        <v>0.9992538512548</v>
+        <v>1.348078728096311</v>
       </c>
       <c r="P6">
-        <v>0.9689398906474964</v>
+        <v>0.9129284728650485</v>
       </c>
       <c r="Q6">
-        <v>0.9918384213276734</v>
+        <v>1.126630144795445</v>
       </c>
       <c r="R6">
-        <v>1.010050294159533</v>
+        <v>0.9478464362215672</v>
       </c>
       <c r="S6">
-        <v>0.9741009242318466</v>
+        <v>0.9103461690748921</v>
       </c>
       <c r="T6">
-        <v>1.010050294159533</v>
+        <v>0.9478464362215672</v>
       </c>
       <c r="U6">
-        <v>1.003643468469786</v>
+        <v>0.9371802175398202</v>
       </c>
       <c r="V6">
-        <v>1.02136899501255</v>
+        <v>0.9532806466187772</v>
       </c>
       <c r="W6">
-        <v>0.9984094687928919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9602221967003481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00036480145811</v>
+        <v>0.9910886276226023</v>
       </c>
       <c r="D7">
-        <v>0.9988453029941518</v>
+        <v>1.00509785136563</v>
       </c>
       <c r="E7">
-        <v>1.000576074461001</v>
+        <v>0.9965110929075257</v>
       </c>
       <c r="F7">
-        <v>1.00036480145811</v>
+        <v>1.003380893022259</v>
       </c>
       <c r="G7">
-        <v>0.9997946548326412</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="H7">
-        <v>1.000514730350011</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="I7">
-        <v>1.00036480145811</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="J7">
-        <v>0.9988453029941518</v>
+        <v>0.9979954426998778</v>
       </c>
       <c r="K7">
-        <v>0.9997452715095241</v>
+        <v>0.9872258236800321</v>
       </c>
       <c r="L7">
-        <v>1.000324695910354</v>
+        <v>0.9872258236800321</v>
       </c>
       <c r="M7">
-        <v>0.9992058431693003</v>
+        <v>0.9947952324901326</v>
       </c>
       <c r="N7">
-        <v>1.00036480145811</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="O7">
-        <v>1.000576074461001</v>
+        <v>0.9979954426998778</v>
       </c>
       <c r="P7">
-        <v>0.9997106887275766</v>
+        <v>0.9926106331899549</v>
       </c>
       <c r="Q7">
-        <v>1.000185364646821</v>
+        <v>0.9972532678037018</v>
       </c>
       <c r="R7">
-        <v>0.9999287263044211</v>
+        <v>1.001965120770083</v>
       </c>
       <c r="S7">
-        <v>0.9997386774292648</v>
+        <v>0.9939107864291451</v>
       </c>
       <c r="T7">
-        <v>0.9999287263044211</v>
+        <v>1.001965120770083</v>
       </c>
       <c r="U7">
-        <v>0.9998952084364761</v>
+        <v>1.000601613804444</v>
       </c>
       <c r="V7">
-        <v>0.9999891270408028</v>
+        <v>1.004616110229623</v>
       </c>
       <c r="W7">
-        <v>0.9999214218356367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9995961324647998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001549115692195</v>
+        <v>0.9991383206412237</v>
       </c>
       <c r="D8">
-        <v>0.9967818985979986</v>
+        <v>1.000907140039534</v>
       </c>
       <c r="E8">
-        <v>1.001213359749175</v>
+        <v>1.000681912371166</v>
       </c>
       <c r="F8">
-        <v>1.001549115692195</v>
+        <v>1.000098641873462</v>
       </c>
       <c r="G8">
-        <v>0.9993412739316674</v>
+        <v>0.9996656839104047</v>
       </c>
       <c r="H8">
-        <v>1.001361636008714</v>
+        <v>0.9996656839104047</v>
       </c>
       <c r="I8">
-        <v>1.001549115692195</v>
+        <v>0.9996656839104047</v>
       </c>
       <c r="J8">
-        <v>0.9967818985979986</v>
+        <v>1.000351823732639</v>
       </c>
       <c r="K8">
-        <v>0.9992511291019858</v>
+        <v>0.9973621287631758</v>
       </c>
       <c r="L8">
-        <v>1.000981271151462</v>
+        <v>0.9973621287631758</v>
       </c>
       <c r="M8">
-        <v>0.9977293236722714</v>
+        <v>1.000004864385872</v>
       </c>
       <c r="N8">
-        <v>1.001549115692195</v>
+        <v>0.9996656839104047</v>
       </c>
       <c r="O8">
-        <v>1.001213359749175</v>
+        <v>1.000351823732639</v>
       </c>
       <c r="P8">
-        <v>0.9989976291735866</v>
+        <v>0.9988569762479073</v>
       </c>
       <c r="Q8">
-        <v>1.000277316840421</v>
+        <v>1.000516868051902</v>
       </c>
       <c r="R8">
-        <v>0.9998481246797893</v>
+        <v>0.9991265454687398</v>
       </c>
       <c r="S8">
-        <v>0.9991121774262801</v>
+        <v>0.9994652882889934</v>
       </c>
       <c r="T8">
-        <v>0.9998481246797893</v>
+        <v>0.9991265454687398</v>
       </c>
       <c r="U8">
-        <v>0.9997214119927589</v>
+        <v>0.9995153871943463</v>
       </c>
       <c r="V8">
-        <v>1.000086952732646</v>
+        <v>0.9995454465375581</v>
       </c>
       <c r="W8">
-        <v>0.9997761259881836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9997763144646845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.003144546647182</v>
+        <v>0.985265229052475</v>
       </c>
       <c r="D9">
-        <v>0.9954084943709013</v>
+        <v>1.007420242645664</v>
       </c>
       <c r="E9">
-        <v>1.00128297897916</v>
+        <v>0.9944695713987214</v>
       </c>
       <c r="F9">
-        <v>1.003144546647182</v>
+        <v>1.005539412702385</v>
       </c>
       <c r="G9">
-        <v>0.9990977869931983</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="H9">
-        <v>1.001798611933937</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="I9">
-        <v>1.003144546647182</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="J9">
-        <v>0.9954084943709013</v>
+        <v>0.9989922668654171</v>
       </c>
       <c r="K9">
-        <v>0.9986616727013692</v>
+        <v>0.977994780532309</v>
       </c>
       <c r="L9">
-        <v>1.001593668987856</v>
+        <v>0.977994780532309</v>
       </c>
       <c r="M9">
-        <v>0.9967984466952716</v>
+        <v>0.9929858312459325</v>
       </c>
       <c r="N9">
-        <v>1.003144546647182</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="O9">
-        <v>1.00128297897916</v>
+        <v>0.9989922668654171</v>
       </c>
       <c r="P9">
-        <v>0.9983457366750303</v>
+        <v>0.988493523698863</v>
       </c>
       <c r="Q9">
-        <v>1.000190382986179</v>
+        <v>0.9967309191320692</v>
       </c>
       <c r="R9">
-        <v>0.9999453399990808</v>
+        <v>1.002691447018026</v>
       </c>
       <c r="S9">
-        <v>0.9985964201144197</v>
+        <v>0.9904855395988158</v>
       </c>
       <c r="T9">
-        <v>0.9999453399990808</v>
+        <v>1.002691447018026</v>
       </c>
       <c r="U9">
-        <v>0.9997334517476102</v>
+        <v>1.0006359781132</v>
       </c>
       <c r="V9">
-        <v>1.000415670727524</v>
+        <v>1.00672624122183</v>
       </c>
       <c r="W9">
-        <v>0.9997232759136093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9992193285124069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.005713076578818</v>
+        <v>0.6361814857455106</v>
       </c>
       <c r="D10">
-        <v>0.9899992994008955</v>
+        <v>1.11275348926638</v>
       </c>
       <c r="E10">
-        <v>1.003236842003405</v>
+        <v>0.9030960006898638</v>
       </c>
       <c r="F10">
-        <v>1.005713076578818</v>
+        <v>1.263559846347232</v>
       </c>
       <c r="G10">
-        <v>0.9981448812594353</v>
+        <v>1.01457203659518</v>
       </c>
       <c r="H10">
-        <v>1.003968240927226</v>
+        <v>1.01457203659518</v>
       </c>
       <c r="I10">
-        <v>1.005713076578818</v>
+        <v>1.01457203659518</v>
       </c>
       <c r="J10">
-        <v>0.9899992994008955</v>
+        <v>1.357055289587041</v>
       </c>
       <c r="K10">
-        <v>0.9974012907424427</v>
+        <v>0.4685663354993928</v>
       </c>
       <c r="L10">
-        <v>1.003270754272389</v>
+        <v>0.4685663354993928</v>
       </c>
       <c r="M10">
-        <v>0.9931270233741623</v>
+        <v>0.9199414396743051</v>
       </c>
       <c r="N10">
-        <v>1.005713076578818</v>
+        <v>1.01457203659518</v>
       </c>
       <c r="O10">
-        <v>1.003236842003405</v>
+        <v>1.357055289587041</v>
       </c>
       <c r="P10">
-        <v>0.9966180707021504</v>
+        <v>0.9128108125432171</v>
       </c>
       <c r="Q10">
-        <v>1.00069086163142</v>
+        <v>1.130075645138453</v>
       </c>
       <c r="R10">
-        <v>0.9996497393277063</v>
+        <v>0.9467312205605382</v>
       </c>
       <c r="S10">
-        <v>0.9971270075545787</v>
+        <v>0.9095725419254327</v>
       </c>
       <c r="T10">
-        <v>0.9996497393277063</v>
+        <v>0.9467312205605382</v>
       </c>
       <c r="U10">
-        <v>0.9992735248106386</v>
+        <v>0.9358224155928696</v>
       </c>
       <c r="V10">
-        <v>1.000561435164274</v>
+        <v>0.9515723397933318</v>
       </c>
       <c r="W10">
-        <v>0.9993576760698468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9594657404256132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.012568506259566</v>
+        <v>0.9419747891837359</v>
       </c>
       <c r="D11">
-        <v>0.9835699613677082</v>
+        <v>1.01876258856172</v>
       </c>
       <c r="E11">
-        <v>1.003499263262497</v>
+        <v>0.9628454315394126</v>
       </c>
       <c r="F11">
-        <v>1.012568506259566</v>
+        <v>1.040813651271651</v>
       </c>
       <c r="G11">
-        <v>0.9966906750730629</v>
+        <v>1.104211396472324</v>
       </c>
       <c r="H11">
-        <v>1.006213312321969</v>
+        <v>1.104211396472324</v>
       </c>
       <c r="I11">
-        <v>1.012568506259566</v>
+        <v>1.104211396472324</v>
       </c>
       <c r="J11">
-        <v>0.9835699613677082</v>
+        <v>1.024761710808005</v>
       </c>
       <c r="K11">
-        <v>0.9949926655851431</v>
+        <v>0.9464838191671986</v>
       </c>
       <c r="L11">
-        <v>1.006037844110522</v>
+        <v>0.9464838191671986</v>
       </c>
       <c r="M11">
-        <v>0.9884604765074865</v>
+        <v>0.9611672125848807</v>
       </c>
       <c r="N11">
-        <v>1.012568506259566</v>
+        <v>1.104211396472324</v>
       </c>
       <c r="O11">
-        <v>1.003499263262497</v>
+        <v>1.024761710808005</v>
       </c>
       <c r="P11">
-        <v>0.9935346123151024</v>
+        <v>0.9856227649876019</v>
       </c>
       <c r="Q11">
-        <v>1.00009496916778</v>
+        <v>0.9938035711737089</v>
       </c>
       <c r="R11">
-        <v>0.9998792436299236</v>
+        <v>1.025152308815843</v>
       </c>
       <c r="S11">
-        <v>0.9945866332344225</v>
+        <v>0.9780303205048723</v>
       </c>
       <c r="T11">
-        <v>0.9998792436299236</v>
+        <v>1.025152308815843</v>
       </c>
       <c r="U11">
-        <v>0.9990821014907084</v>
+        <v>1.009575589496735</v>
       </c>
       <c r="V11">
-        <v>1.00177938244448</v>
+        <v>1.028502750891853</v>
       </c>
       <c r="W11">
-        <v>0.9990040880609943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.000127574948616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.125624028573287</v>
+        <v>0.8890826152210505</v>
       </c>
       <c r="D12">
-        <v>1.343527441546627</v>
+        <v>1.026356461452632</v>
       </c>
       <c r="E12">
-        <v>0.6904362039496496</v>
+        <v>0.9662136654947382</v>
       </c>
       <c r="F12">
-        <v>1.125624028573287</v>
+        <v>1.078909832199996</v>
       </c>
       <c r="G12">
-        <v>1.07137824426673</v>
+        <v>1.014316703863156</v>
       </c>
       <c r="H12">
-        <v>0.8413181839612556</v>
+        <v>1.014316703863156</v>
       </c>
       <c r="I12">
-        <v>1.125624028573287</v>
+        <v>1.014316703863156</v>
       </c>
       <c r="J12">
-        <v>1.343527441546627</v>
+        <v>1.108565126347366</v>
       </c>
       <c r="K12">
-        <v>0.9392059045035001</v>
+        <v>0.8322348356905266</v>
       </c>
       <c r="L12">
-        <v>1.036237983932957</v>
+        <v>0.8322348356905266</v>
       </c>
       <c r="M12">
-        <v>1.195553934469803</v>
+        <v>0.9830488482631599</v>
       </c>
       <c r="N12">
-        <v>1.125624028573287</v>
+        <v>1.014316703863156</v>
       </c>
       <c r="O12">
-        <v>0.6904362039496496</v>
+        <v>1.108565126347366</v>
       </c>
       <c r="P12">
-        <v>1.016981822748138</v>
+        <v>0.9703999810189465</v>
       </c>
       <c r="Q12">
-        <v>0.8809072241081897</v>
+        <v>1.037389395921052</v>
       </c>
       <c r="R12">
-        <v>1.053195891356521</v>
+        <v>0.9850388886336831</v>
       </c>
       <c r="S12">
-        <v>1.035113963254336</v>
+        <v>0.9690045425108771</v>
       </c>
       <c r="T12">
-        <v>1.053195891356521</v>
+        <v>0.9850388886336831</v>
       </c>
       <c r="U12">
-        <v>1.057741479584073</v>
+        <v>0.9803325828489469</v>
       </c>
       <c r="V12">
-        <v>1.071317989381916</v>
+        <v>0.9871294070517888</v>
       </c>
       <c r="W12">
-        <v>1.030410240650476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9873410110665782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8667078842957303</v>
+        <v>1.063345019733001</v>
       </c>
       <c r="D13">
-        <v>1.00247466253149</v>
+        <v>0.9779319348618234</v>
       </c>
       <c r="E13">
-        <v>1.102024286899525</v>
+        <v>1.021415248020498</v>
       </c>
       <c r="F13">
-        <v>0.8667078842957303</v>
+        <v>0.9599852949238434</v>
       </c>
       <c r="G13">
-        <v>0.9914945564739819</v>
+        <v>0.9480423688571361</v>
       </c>
       <c r="H13">
-        <v>1.016894837832945</v>
+        <v>0.9480423688571361</v>
       </c>
       <c r="I13">
-        <v>0.8667078842957303</v>
+        <v>0.9480423688571361</v>
       </c>
       <c r="J13">
-        <v>1.00247466253149</v>
+        <v>0.9663165547968691</v>
       </c>
       <c r="K13">
-        <v>1.055436583587249</v>
+        <v>1.09199607126408</v>
       </c>
       <c r="L13">
-        <v>0.9406475568271571</v>
+        <v>1.09199607126408</v>
       </c>
       <c r="M13">
-        <v>1.0079658628135</v>
+        <v>1.019800048778039</v>
       </c>
       <c r="N13">
-        <v>0.8667078842957303</v>
+        <v>0.9480423688571361</v>
       </c>
       <c r="O13">
-        <v>1.102024286899525</v>
+        <v>0.9663165547968691</v>
       </c>
       <c r="P13">
-        <v>1.052249474715507</v>
+        <v>1.029156313030475</v>
       </c>
       <c r="Q13">
-        <v>1.046759421686753</v>
+        <v>0.9938659014086837</v>
       </c>
       <c r="R13">
-        <v>0.9904022779089149</v>
+        <v>1.002118331639362</v>
       </c>
       <c r="S13">
-        <v>1.031997835301665</v>
+        <v>1.026575958027149</v>
       </c>
       <c r="T13">
-        <v>0.9904022779089149</v>
+        <v>1.002118331639362</v>
       </c>
       <c r="U13">
-        <v>0.9906753475501816</v>
+        <v>1.006942560734646</v>
       </c>
       <c r="V13">
-        <v>0.9658818548992913</v>
+        <v>0.995162522359144</v>
       </c>
       <c r="W13">
-        <v>0.9979557789076974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.006104067654411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5264605511290485</v>
+        <v>0.3694900499999997</v>
       </c>
       <c r="D14">
-        <v>0.7023409907965468</v>
+        <v>1.2005111</v>
       </c>
       <c r="E14">
-        <v>1.423922236082588</v>
+        <v>0.8359351100000008</v>
       </c>
       <c r="F14">
-        <v>0.5264605511290485</v>
+        <v>1.459925100000002</v>
       </c>
       <c r="G14">
-        <v>0.9648572936305628</v>
+        <v>1.005506199999999</v>
       </c>
       <c r="H14">
-        <v>1.138983883956824</v>
+        <v>1.005506199999999</v>
       </c>
       <c r="I14">
-        <v>0.5264605511290485</v>
+        <v>1.005506199999999</v>
       </c>
       <c r="J14">
-        <v>0.7023409907965468</v>
+        <v>1.628315</v>
       </c>
       <c r="K14">
-        <v>1.188087969423358</v>
+        <v>0.08536282699999999</v>
       </c>
       <c r="L14">
-        <v>0.8679346918430961</v>
+        <v>0.08536282699999999</v>
       </c>
       <c r="M14">
-        <v>0.8810440720733679</v>
+        <v>0.8561004499999997</v>
       </c>
       <c r="N14">
-        <v>0.5264605511290485</v>
+        <v>1.005506199999999</v>
       </c>
       <c r="O14">
-        <v>1.423922236082588</v>
+        <v>1.628315</v>
       </c>
       <c r="P14">
-        <v>1.063131613439568</v>
+        <v>0.8568389135000002</v>
       </c>
       <c r="Q14">
-        <v>1.194389764856576</v>
+        <v>1.232125055</v>
       </c>
       <c r="R14">
-        <v>0.8842412593360613</v>
+        <v>0.9063946756666666</v>
       </c>
       <c r="S14">
-        <v>1.030373506836566</v>
+        <v>0.8498709790000003</v>
       </c>
       <c r="T14">
-        <v>0.8842412593360613</v>
+        <v>0.9063946756666666</v>
       </c>
       <c r="U14">
-        <v>0.9043952679096867</v>
+        <v>0.8887797842500001</v>
       </c>
       <c r="V14">
-        <v>0.828808324553559</v>
+        <v>0.9121250674000001</v>
       </c>
       <c r="W14">
-        <v>0.961703961116924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9301432296250003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.191403987328237</v>
+        <v>0.27947574</v>
       </c>
       <c r="D15">
-        <v>1.133303954464979</v>
+        <v>1.7173855</v>
       </c>
       <c r="E15">
-        <v>0.8334494132133775</v>
+        <v>0.8094833</v>
       </c>
       <c r="F15">
-        <v>1.191403987328237</v>
+        <v>1.1490595</v>
       </c>
       <c r="G15">
-        <v>1.008723348151931</v>
+        <v>3.0720958</v>
       </c>
       <c r="H15">
-        <v>0.9541336621606232</v>
+        <v>3.0720958</v>
       </c>
       <c r="I15">
-        <v>1.191403987328237</v>
+        <v>3.0720958</v>
       </c>
       <c r="J15">
-        <v>1.133303954464979</v>
+        <v>0.40709903</v>
       </c>
       <c r="K15">
-        <v>0.9121127047590144</v>
+        <v>0.054840442</v>
       </c>
       <c r="L15">
-        <v>1.056453063421275</v>
+        <v>0.054840442</v>
       </c>
       <c r="M15">
-        <v>1.043338375171208</v>
+        <v>0.34652932</v>
       </c>
       <c r="N15">
-        <v>1.191403987328237</v>
+        <v>3.0720958</v>
       </c>
       <c r="O15">
-        <v>0.8334494132133775</v>
+        <v>0.40709903</v>
       </c>
       <c r="P15">
-        <v>0.9833766838391782</v>
+        <v>0.230969736</v>
       </c>
       <c r="Q15">
-        <v>0.9210863806826544</v>
+        <v>0.608291165</v>
       </c>
       <c r="R15">
-        <v>1.052719118335531</v>
+        <v>1.178011757333333</v>
       </c>
       <c r="S15">
-        <v>0.9918255719434291</v>
+        <v>0.4238075906666667</v>
       </c>
       <c r="T15">
-        <v>1.052719118335531</v>
+        <v>1.178011757333333</v>
       </c>
       <c r="U15">
-        <v>1.041720175789631</v>
+        <v>1.085879643</v>
       </c>
       <c r="V15">
-        <v>1.071656938097352</v>
+        <v>1.4831228744</v>
       </c>
       <c r="W15">
-        <v>1.016614813583831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.979496079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000075171759897</v>
+        <v>0.1340124</v>
       </c>
       <c r="D16">
-        <v>1.00107767268683</v>
+        <v>1.1477551</v>
       </c>
       <c r="E16">
-        <v>1.000662673798838</v>
+        <v>0.45156375</v>
       </c>
       <c r="F16">
-        <v>1.000075171759897</v>
+        <v>1.6052976</v>
       </c>
       <c r="G16">
-        <v>0.9993053568495591</v>
+        <v>2.3487482</v>
       </c>
       <c r="H16">
-        <v>1.000520285041087</v>
+        <v>2.3487482</v>
       </c>
       <c r="I16">
-        <v>1.000075171759897</v>
+        <v>2.3487482</v>
       </c>
       <c r="J16">
-        <v>1.00107767268683</v>
+        <v>1.5557089</v>
       </c>
       <c r="K16">
-        <v>0.9997413612170463</v>
+        <v>0.018488841</v>
       </c>
       <c r="L16">
-        <v>0.9995737570173197</v>
+        <v>0.018488841</v>
       </c>
       <c r="M16">
-        <v>0.9999159394211805</v>
+        <v>0.60451479</v>
       </c>
       <c r="N16">
-        <v>1.000075171759897</v>
+        <v>2.3487482</v>
       </c>
       <c r="O16">
-        <v>1.000662673798838</v>
+        <v>1.5557089</v>
       </c>
       <c r="P16">
-        <v>1.000870173242834</v>
+        <v>0.7870988704999999</v>
       </c>
       <c r="Q16">
-        <v>0.9999840153241984</v>
+        <v>1.003636325</v>
       </c>
       <c r="R16">
-        <v>1.000605172748522</v>
+        <v>1.307648647</v>
       </c>
       <c r="S16">
-        <v>1.000348567778409</v>
+        <v>0.6752538303333333</v>
       </c>
       <c r="T16">
-        <v>1.000605172748522</v>
+        <v>1.307648647</v>
       </c>
       <c r="U16">
-        <v>1.000280218773781</v>
+        <v>1.09362742275</v>
       </c>
       <c r="V16">
-        <v>1.000239209371004</v>
+        <v>1.3446515782</v>
       </c>
       <c r="W16">
-        <v>1.00010902722397</v>
+        <v>0.9832611976250001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9996656839104044</v>
+        <v>0.72592591</v>
       </c>
       <c r="D17">
-        <v>0.9973621287631761</v>
+        <v>1.2552043</v>
       </c>
       <c r="E17">
-        <v>1.000351823732639</v>
+        <v>1.0719083</v>
       </c>
       <c r="F17">
-        <v>0.9996656839104044</v>
+        <v>1.0389502</v>
       </c>
       <c r="G17">
-        <v>1.000681912371166</v>
+        <v>1.1888041</v>
       </c>
       <c r="H17">
-        <v>1.000098641873461</v>
+        <v>1.1888041</v>
       </c>
       <c r="I17">
-        <v>0.9996656839104044</v>
+        <v>1.1888041</v>
       </c>
       <c r="J17">
-        <v>0.9973621287631761</v>
+        <v>0.8674998899999999</v>
       </c>
       <c r="K17">
-        <v>1.000004864385872</v>
+        <v>0.36873232</v>
       </c>
       <c r="L17">
-        <v>1.000907140039534</v>
+        <v>0.36873232</v>
       </c>
       <c r="M17">
-        <v>0.9991383206412235</v>
+        <v>0.96989494</v>
       </c>
       <c r="N17">
-        <v>0.9996656839104044</v>
+        <v>1.1888041</v>
       </c>
       <c r="O17">
-        <v>1.000351823732639</v>
+        <v>0.8674998899999999</v>
       </c>
       <c r="P17">
-        <v>0.9988569762479074</v>
+        <v>0.6181161049999999</v>
       </c>
       <c r="Q17">
-        <v>1.000516868051902</v>
+        <v>0.969704095</v>
       </c>
       <c r="R17">
-        <v>0.9991265454687398</v>
+        <v>0.8083454366666666</v>
       </c>
       <c r="S17">
-        <v>0.9994652882889935</v>
+        <v>0.7693801699999999</v>
       </c>
       <c r="T17">
-        <v>0.9991265454687398</v>
+        <v>0.8083454366666666</v>
       </c>
       <c r="U17">
-        <v>0.9995153871943463</v>
+        <v>0.8742361525</v>
       </c>
       <c r="V17">
-        <v>0.9995454465375578</v>
+        <v>0.9371497420000001</v>
       </c>
       <c r="W17">
-        <v>0.9997763144646844</v>
+        <v>0.935864995</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.005963958697656</v>
+        <v>0.819384537808219</v>
       </c>
       <c r="D18">
-        <v>0.9999248861535219</v>
+        <v>1.098937846849316</v>
       </c>
       <c r="E18">
-        <v>1.000718142509944</v>
+        <v>0.9314277347945201</v>
       </c>
       <c r="F18">
-        <v>1.005963958697656</v>
+        <v>1.063747341643836</v>
       </c>
       <c r="G18">
-        <v>0.9971786495270939</v>
+        <v>1.410310167123288</v>
       </c>
       <c r="H18">
-        <v>1.002047979018349</v>
+        <v>1.410310167123288</v>
       </c>
       <c r="I18">
-        <v>1.005963958697656</v>
+        <v>1.410310167123288</v>
       </c>
       <c r="J18">
-        <v>0.9999248861535219</v>
+        <v>0.9679932642465756</v>
       </c>
       <c r="K18">
-        <v>0.9981180335476781</v>
+        <v>0.7341982231232878</v>
       </c>
       <c r="L18">
-        <v>1.000026370509348</v>
+        <v>0.7341982231232878</v>
       </c>
       <c r="M18">
-        <v>0.9976538799431965</v>
+        <v>0.9049547493150683</v>
       </c>
       <c r="N18">
-        <v>1.005963958697656</v>
+        <v>1.410310167123288</v>
       </c>
       <c r="O18">
-        <v>1.000718142509944</v>
+        <v>0.9679932642465756</v>
       </c>
       <c r="P18">
-        <v>1.000321514331733</v>
+        <v>0.8510957436849317</v>
       </c>
       <c r="Q18">
-        <v>0.9989483960185188</v>
+        <v>0.9497104995205479</v>
       </c>
       <c r="R18">
-        <v>1.002202329120374</v>
+        <v>1.037500551497717</v>
       </c>
       <c r="S18">
-        <v>0.9992738927301864</v>
+        <v>0.8778730740547944</v>
       </c>
       <c r="T18">
-        <v>1.002202329120374</v>
+        <v>1.037500551497717</v>
       </c>
       <c r="U18">
-        <v>1.000946409222054</v>
+        <v>1.010982347321918</v>
       </c>
       <c r="V18">
-        <v>1.001949919117174</v>
+        <v>1.090847911282192</v>
       </c>
       <c r="W18">
-        <v>1.000203987488348</v>
+        <v>0.9913692331130137</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.0197413020938</v>
+        <v>0.5481095184210525</v>
       </c>
       <c r="D19">
-        <v>1.007108463976743</v>
+        <v>1.068012005263158</v>
       </c>
       <c r="E19">
-        <v>1.001820592064192</v>
+        <v>0.8653858184210527</v>
       </c>
       <c r="F19">
-        <v>1.0197413020938</v>
+        <v>1.297642321052631</v>
       </c>
       <c r="G19">
-        <v>0.9892967474728002</v>
+        <v>1.066422366842105</v>
       </c>
       <c r="H19">
-        <v>1.006168243055572</v>
+        <v>1.066422366842105</v>
       </c>
       <c r="I19">
-        <v>1.0197413020938</v>
+        <v>1.066422366842105</v>
       </c>
       <c r="J19">
-        <v>1.007108463976743</v>
+        <v>1.439543825789473</v>
       </c>
       <c r="K19">
-        <v>0.9939368116388794</v>
+        <v>0.251991426</v>
       </c>
       <c r="L19">
-        <v>0.9974392151624313</v>
+        <v>0.251991426</v>
       </c>
       <c r="M19">
-        <v>0.9951390396576457</v>
+        <v>0.9972373457894734</v>
       </c>
       <c r="N19">
-        <v>1.0197413020938</v>
+        <v>1.066422366842105</v>
       </c>
       <c r="O19">
-        <v>1.001820592064192</v>
+        <v>1.439543825789473</v>
       </c>
       <c r="P19">
-        <v>1.004464528020467</v>
+        <v>0.8457676258947368</v>
       </c>
       <c r="Q19">
-        <v>0.9955586697684959</v>
+        <v>1.152464822105263</v>
       </c>
       <c r="R19">
-        <v>1.009556786044912</v>
+        <v>0.9193192062105263</v>
       </c>
       <c r="S19">
-        <v>0.999408601171245</v>
+        <v>0.8523070234035087</v>
       </c>
       <c r="T19">
-        <v>1.009556786044912</v>
+        <v>0.9193192062105263</v>
       </c>
       <c r="U19">
-        <v>1.004491776401884</v>
+        <v>0.9058358592631579</v>
       </c>
       <c r="V19">
-        <v>1.007541681540267</v>
+        <v>0.9379531607789474</v>
       </c>
       <c r="W19">
-        <v>1.001331301890258</v>
+        <v>0.9417930784473684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.6347483063157894</v>
+      </c>
+      <c r="D20">
+        <v>1.105821573157895</v>
+      </c>
+      <c r="E20">
+        <v>0.8255858373684211</v>
+      </c>
+      <c r="F20">
+        <v>1.260198751052632</v>
+      </c>
+      <c r="G20">
+        <v>1.36919445368421</v>
+      </c>
+      <c r="H20">
+        <v>1.36919445368421</v>
+      </c>
+      <c r="I20">
+        <v>1.36919445368421</v>
+      </c>
+      <c r="J20">
+        <v>1.238608237894737</v>
+      </c>
+      <c r="K20">
+        <v>0.5564497356842104</v>
+      </c>
+      <c r="L20">
+        <v>0.5564497356842104</v>
+      </c>
+      <c r="M20">
+        <v>0.8430159336842108</v>
+      </c>
+      <c r="N20">
+        <v>1.36919445368421</v>
+      </c>
+      <c r="O20">
+        <v>1.238608237894737</v>
+      </c>
+      <c r="P20">
+        <v>0.8975289867894737</v>
+      </c>
+      <c r="Q20">
+        <v>1.032097037631579</v>
+      </c>
+      <c r="R20">
+        <v>1.054750809087719</v>
+      </c>
+      <c r="S20">
+        <v>0.873547936982456</v>
+      </c>
+      <c r="T20">
+        <v>1.054750809087719</v>
+      </c>
+      <c r="U20">
+        <v>0.9974595661578947</v>
+      </c>
+      <c r="V20">
+        <v>1.071806543663158</v>
+      </c>
+      <c r="W20">
+        <v>0.9792028536052633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.8810440720733679</v>
+      </c>
+      <c r="D21">
+        <v>0.867934691843096</v>
+      </c>
+      <c r="E21">
+        <v>0.9648572936305628</v>
+      </c>
+      <c r="F21">
+        <v>1.138983883956824</v>
+      </c>
+      <c r="G21">
+        <v>0.5264605511290485</v>
+      </c>
+      <c r="H21">
+        <v>0.5264605511290485</v>
+      </c>
+      <c r="I21">
+        <v>0.5264605511290485</v>
+      </c>
+      <c r="J21">
+        <v>1.423922236082588</v>
+      </c>
+      <c r="K21">
+        <v>0.7023409907965469</v>
+      </c>
+      <c r="L21">
+        <v>0.7023409907965469</v>
+      </c>
+      <c r="M21">
+        <v>1.188087969423358</v>
+      </c>
+      <c r="N21">
+        <v>0.5264605511290485</v>
+      </c>
+      <c r="O21">
+        <v>1.423922236082588</v>
+      </c>
+      <c r="P21">
+        <v>1.063131613439568</v>
+      </c>
+      <c r="Q21">
+        <v>1.194389764856576</v>
+      </c>
+      <c r="R21">
+        <v>0.8842412593360613</v>
+      </c>
+      <c r="S21">
+        <v>1.030373506836566</v>
+      </c>
+      <c r="T21">
+        <v>0.8842412593360613</v>
+      </c>
+      <c r="U21">
+        <v>0.9043952679096867</v>
+      </c>
+      <c r="V21">
+        <v>0.828808324553559</v>
+      </c>
+      <c r="W21">
+        <v>0.961703961116924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.043338375171208</v>
+      </c>
+      <c r="D22">
+        <v>1.056453063421275</v>
+      </c>
+      <c r="E22">
+        <v>1.008723348151931</v>
+      </c>
+      <c r="F22">
+        <v>0.9541336621606232</v>
+      </c>
+      <c r="G22">
+        <v>1.191403987328237</v>
+      </c>
+      <c r="H22">
+        <v>1.191403987328237</v>
+      </c>
+      <c r="I22">
+        <v>1.191403987328237</v>
+      </c>
+      <c r="J22">
+        <v>0.8334494132133775</v>
+      </c>
+      <c r="K22">
+        <v>1.133303954464979</v>
+      </c>
+      <c r="L22">
+        <v>1.133303954464979</v>
+      </c>
+      <c r="M22">
+        <v>0.9121127047590144</v>
+      </c>
+      <c r="N22">
+        <v>1.191403987328237</v>
+      </c>
+      <c r="O22">
+        <v>0.8334494132133775</v>
+      </c>
+      <c r="P22">
+        <v>0.9833766838391782</v>
+      </c>
+      <c r="Q22">
+        <v>0.9210863806826544</v>
+      </c>
+      <c r="R22">
+        <v>1.052719118335531</v>
+      </c>
+      <c r="S22">
+        <v>0.9918255719434291</v>
+      </c>
+      <c r="T22">
+        <v>1.052719118335531</v>
+      </c>
+      <c r="U22">
+        <v>1.041720175789631</v>
+      </c>
+      <c r="V22">
+        <v>1.071656938097352</v>
+      </c>
+      <c r="W22">
+        <v>1.016614813583831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.195553934469803</v>
+      </c>
+      <c r="D23">
+        <v>1.036237983932957</v>
+      </c>
+      <c r="E23">
+        <v>1.07137824426673</v>
+      </c>
+      <c r="F23">
+        <v>0.8413181839612555</v>
+      </c>
+      <c r="G23">
+        <v>1.125624028573287</v>
+      </c>
+      <c r="H23">
+        <v>1.125624028573287</v>
+      </c>
+      <c r="I23">
+        <v>1.125624028573287</v>
+      </c>
+      <c r="J23">
+        <v>0.6904362039496496</v>
+      </c>
+      <c r="K23">
+        <v>1.343527441546627</v>
+      </c>
+      <c r="L23">
+        <v>1.343527441546627</v>
+      </c>
+      <c r="M23">
+        <v>0.9392059045035001</v>
+      </c>
+      <c r="N23">
+        <v>1.125624028573287</v>
+      </c>
+      <c r="O23">
+        <v>0.6904362039496496</v>
+      </c>
+      <c r="P23">
+        <v>1.016981822748138</v>
+      </c>
+      <c r="Q23">
+        <v>0.8809072241081897</v>
+      </c>
+      <c r="R23">
+        <v>1.053195891356521</v>
+      </c>
+      <c r="S23">
+        <v>1.035113963254336</v>
+      </c>
+      <c r="T23">
+        <v>1.053195891356521</v>
+      </c>
+      <c r="U23">
+        <v>1.057741479584073</v>
+      </c>
+      <c r="V23">
+        <v>1.071317989381916</v>
+      </c>
+      <c r="W23">
+        <v>1.030410240650476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.0079658628135</v>
+      </c>
+      <c r="D24">
+        <v>0.9406475568271571</v>
+      </c>
+      <c r="E24">
+        <v>0.9914945564739818</v>
+      </c>
+      <c r="F24">
+        <v>1.016894837832945</v>
+      </c>
+      <c r="G24">
+        <v>0.8667078842957302</v>
+      </c>
+      <c r="H24">
+        <v>0.8667078842957302</v>
+      </c>
+      <c r="I24">
+        <v>0.8667078842957302</v>
+      </c>
+      <c r="J24">
+        <v>1.102024286899525</v>
+      </c>
+      <c r="K24">
+        <v>1.00247466253149</v>
+      </c>
+      <c r="L24">
+        <v>1.00247466253149</v>
+      </c>
+      <c r="M24">
+        <v>1.055436583587249</v>
+      </c>
+      <c r="N24">
+        <v>0.8667078842957302</v>
+      </c>
+      <c r="O24">
+        <v>1.102024286899525</v>
+      </c>
+      <c r="P24">
+        <v>1.052249474715507</v>
+      </c>
+      <c r="Q24">
+        <v>1.046759421686753</v>
+      </c>
+      <c r="R24">
+        <v>0.990402277908915</v>
+      </c>
+      <c r="S24">
+        <v>1.031997835301665</v>
+      </c>
+      <c r="T24">
+        <v>0.990402277908915</v>
+      </c>
+      <c r="U24">
+        <v>0.9906753475501817</v>
+      </c>
+      <c r="V24">
+        <v>0.9658818548992913</v>
+      </c>
+      <c r="W24">
+        <v>0.9979557789076973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.093361809951537</v>
+      </c>
+      <c r="D25">
+        <v>1.068565957395708</v>
+      </c>
+      <c r="E25">
+        <v>1.009275559266679</v>
+      </c>
+      <c r="F25">
+        <v>0.9167438376321116</v>
+      </c>
+      <c r="G25">
+        <v>1.273179832518596</v>
+      </c>
+      <c r="H25">
+        <v>1.273179832518596</v>
+      </c>
+      <c r="I25">
+        <v>1.273179832518596</v>
+      </c>
+      <c r="J25">
+        <v>0.7448385582213456</v>
+      </c>
+      <c r="K25">
+        <v>1.255197590813971</v>
+      </c>
+      <c r="L25">
+        <v>1.255197590813971</v>
+      </c>
+      <c r="M25">
+        <v>0.8745569630995849</v>
+      </c>
+      <c r="N25">
+        <v>1.273179832518596</v>
+      </c>
+      <c r="O25">
+        <v>0.7448385582213456</v>
+      </c>
+      <c r="P25">
+        <v>1.000018074517659</v>
+      </c>
+      <c r="Q25">
+        <v>0.8770570587440125</v>
+      </c>
+      <c r="R25">
+        <v>1.091071993851304</v>
+      </c>
+      <c r="S25">
+        <v>1.003103902767332</v>
+      </c>
+      <c r="T25">
+        <v>1.091071993851304</v>
+      </c>
+      <c r="U25">
+        <v>1.070622885205148</v>
+      </c>
+      <c r="V25">
+        <v>1.111134274667838</v>
+      </c>
+      <c r="W25">
+        <v>1.029465013612442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.978460843479661</v>
+      </c>
+      <c r="D26">
+        <v>0.9609263679364897</v>
+      </c>
+      <c r="E26">
+        <v>1.013067978802491</v>
+      </c>
+      <c r="F26">
+        <v>1.0016390421454</v>
+      </c>
+      <c r="G26">
+        <v>0.8962410031259009</v>
+      </c>
+      <c r="H26">
+        <v>0.8962410031259009</v>
+      </c>
+      <c r="I26">
+        <v>0.8962410031259009</v>
+      </c>
+      <c r="J26">
+        <v>1.079917561073898</v>
+      </c>
+      <c r="K26">
+        <v>0.864466227657453</v>
+      </c>
+      <c r="L26">
+        <v>0.864466227657453</v>
+      </c>
+      <c r="M26">
+        <v>1.086390853064837</v>
+      </c>
+      <c r="N26">
+        <v>0.8962410031259009</v>
+      </c>
+      <c r="O26">
+        <v>1.079917561073898</v>
+      </c>
+      <c r="P26">
+        <v>0.9721918943656753</v>
+      </c>
+      <c r="Q26">
+        <v>1.046492769938195</v>
+      </c>
+      <c r="R26">
+        <v>0.9468749306190839</v>
+      </c>
+      <c r="S26">
+        <v>0.985817255844614</v>
+      </c>
+      <c r="T26">
+        <v>0.9468749306190839</v>
+      </c>
+      <c r="U26">
+        <v>0.9634231926649358</v>
+      </c>
+      <c r="V26">
+        <v>0.9499867547571288</v>
+      </c>
+      <c r="W26">
+        <v>0.9851387346607663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9671157765813967</v>
+      </c>
+      <c r="D27">
+        <v>1.021877741197313</v>
+      </c>
+      <c r="E27">
+        <v>0.9784421891328541</v>
+      </c>
+      <c r="F27">
+        <v>1.038330098337193</v>
+      </c>
+      <c r="G27">
+        <v>1.016178824286337</v>
+      </c>
+      <c r="H27">
+        <v>1.016178824286337</v>
+      </c>
+      <c r="I27">
+        <v>1.016178824286337</v>
+      </c>
+      <c r="J27">
+        <v>1.025367907182339</v>
+      </c>
+      <c r="K27">
+        <v>1.025015745953552</v>
+      </c>
+      <c r="L27">
+        <v>1.025015745953552</v>
+      </c>
+      <c r="M27">
+        <v>0.9542211336324083</v>
+      </c>
+      <c r="N27">
+        <v>1.016178824286337</v>
+      </c>
+      <c r="O27">
+        <v>1.025367907182339</v>
+      </c>
+      <c r="P27">
+        <v>1.025191826567946</v>
+      </c>
+      <c r="Q27">
+        <v>1.001905048157597</v>
+      </c>
+      <c r="R27">
+        <v>1.022187492474076</v>
+      </c>
+      <c r="S27">
+        <v>1.009608614089582</v>
+      </c>
+      <c r="T27">
+        <v>1.022187492474076</v>
+      </c>
+      <c r="U27">
+        <v>1.01125116663877</v>
+      </c>
+      <c r="V27">
+        <v>1.012236698168284</v>
+      </c>
+      <c r="W27">
+        <v>1.003318677037924</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.961687801101026</v>
+      </c>
+      <c r="D28">
+        <v>0.9916237188404636</v>
+      </c>
+      <c r="E28">
+        <v>0.9570257209441456</v>
+      </c>
+      <c r="F28">
+        <v>1.029302850921995</v>
+      </c>
+      <c r="G28">
+        <v>1.08027154474948</v>
+      </c>
+      <c r="H28">
+        <v>1.08027154474948</v>
+      </c>
+      <c r="I28">
+        <v>1.08027154474948</v>
+      </c>
+      <c r="J28">
+        <v>1.025813851759179</v>
+      </c>
+      <c r="K28">
+        <v>0.9753834187503145</v>
+      </c>
+      <c r="L28">
+        <v>0.9753834187503145</v>
+      </c>
+      <c r="M28">
+        <v>0.9875845415912574</v>
+      </c>
+      <c r="N28">
+        <v>1.08027154474948</v>
+      </c>
+      <c r="O28">
+        <v>1.025813851759179</v>
+      </c>
+      <c r="P28">
+        <v>1.000598635254747</v>
+      </c>
+      <c r="Q28">
+        <v>0.9914197863516625</v>
+      </c>
+      <c r="R28">
+        <v>1.027156271752991</v>
+      </c>
+      <c r="S28">
+        <v>0.9860743304845464</v>
+      </c>
+      <c r="T28">
+        <v>1.027156271752991</v>
+      </c>
+      <c r="U28">
+        <v>1.00962363405078</v>
+      </c>
+      <c r="V28">
+        <v>1.02375321619052</v>
+      </c>
+      <c r="W28">
+        <v>1.001086681082233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.080482503481483</v>
+      </c>
+      <c r="D29">
+        <v>1.055098658568419</v>
+      </c>
+      <c r="E29">
+        <v>1.088805958438736</v>
+      </c>
+      <c r="F29">
+        <v>0.8978560973354262</v>
+      </c>
+      <c r="G29">
+        <v>0.9998317012997779</v>
+      </c>
+      <c r="H29">
+        <v>0.9998317012997779</v>
+      </c>
+      <c r="I29">
+        <v>0.9998317012997779</v>
+      </c>
+      <c r="J29">
+        <v>0.7850734165256948</v>
+      </c>
+      <c r="K29">
+        <v>1.019316068417309</v>
+      </c>
+      <c r="L29">
+        <v>1.019316068417309</v>
+      </c>
+      <c r="M29">
+        <v>1.016355804221851</v>
+      </c>
+      <c r="N29">
+        <v>0.9998317012997779</v>
+      </c>
+      <c r="O29">
+        <v>0.7850734165256948</v>
+      </c>
+      <c r="P29">
+        <v>0.9021947424715022</v>
+      </c>
+      <c r="Q29">
+        <v>0.9369396874822156</v>
+      </c>
+      <c r="R29">
+        <v>0.9347403954142607</v>
+      </c>
+      <c r="S29">
+        <v>0.9643984811272469</v>
+      </c>
+      <c r="T29">
+        <v>0.9347403954142609</v>
+      </c>
+      <c r="U29">
+        <v>0.9732567861703797</v>
+      </c>
+      <c r="V29">
+        <v>0.9785717691962594</v>
+      </c>
+      <c r="W29">
+        <v>0.9928525260360872</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8706096567854724</v>
+        <v>0.9160237763813099</v>
       </c>
       <c r="D4">
-        <v>1.037086054544158</v>
+        <v>1.021826018421064</v>
       </c>
       <c r="E4">
-        <v>0.940806393969069</v>
+        <v>0.9745672228609793</v>
       </c>
       <c r="F4">
-        <v>1.081712872029824</v>
+        <v>1.058065214856483</v>
       </c>
       <c r="G4">
-        <v>1.150843442960901</v>
+        <v>1.021629857503901</v>
       </c>
       <c r="H4">
-        <v>1.150843442960901</v>
+        <v>1.021629857503901</v>
       </c>
       <c r="I4">
-        <v>1.150843442960901</v>
+        <v>1.021629857503901</v>
       </c>
       <c r="J4">
-        <v>1.066650748030889</v>
+        <v>1.072100138211873</v>
       </c>
       <c r="K4">
-        <v>0.8249563308089707</v>
+        <v>0.8713615074512504</v>
       </c>
       <c r="L4">
-        <v>0.8249563308089707</v>
+        <v>0.8713615074512504</v>
       </c>
       <c r="M4">
-        <v>0.9545155714297309</v>
+        <v>0.9858164056105517</v>
       </c>
       <c r="N4">
-        <v>1.150843442960901</v>
+        <v>1.021629857503901</v>
       </c>
       <c r="O4">
-        <v>1.066650748030889</v>
+        <v>1.072100138211873</v>
       </c>
       <c r="P4">
-        <v>0.94580353941993</v>
+        <v>0.9717308228315619</v>
       </c>
       <c r="Q4">
-        <v>1.003728570999979</v>
+        <v>1.023333680536426</v>
       </c>
       <c r="R4">
-        <v>1.014150173933587</v>
+        <v>0.9883638343890082</v>
       </c>
       <c r="S4">
-        <v>0.9441378242696429</v>
+        <v>0.9726762895080343</v>
       </c>
       <c r="T4">
-        <v>1.014150173933587</v>
+        <v>0.9883638343890082</v>
       </c>
       <c r="U4">
-        <v>0.9958142289424576</v>
+        <v>0.984914681507001</v>
       </c>
       <c r="V4">
-        <v>1.026820071746146</v>
+        <v>0.9922577167063811</v>
       </c>
       <c r="W4">
-        <v>0.9908976338198769</v>
+        <v>0.9901737676621765</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8944951734077798</v>
+        <v>0.6632228675705789</v>
       </c>
       <c r="D5">
-        <v>1.031558151505765</v>
+        <v>1.083614157736081</v>
       </c>
       <c r="E5">
-        <v>0.9676218863256485</v>
+        <v>0.8250241411827343</v>
       </c>
       <c r="F5">
-        <v>1.070887325324201</v>
+        <v>1.248727718640093</v>
       </c>
       <c r="G5">
-        <v>1.043133591930831</v>
+        <v>1.352082708699472</v>
       </c>
       <c r="H5">
-        <v>1.043133591930831</v>
+        <v>1.352082708699472</v>
       </c>
       <c r="I5">
-        <v>1.043133591930831</v>
+        <v>1.352082708699472</v>
       </c>
       <c r="J5">
-        <v>1.082732298602304</v>
+        <v>1.231719363319514</v>
       </c>
       <c r="K5">
-        <v>0.841751529167867</v>
+        <v>0.6050127885472113</v>
       </c>
       <c r="L5">
-        <v>0.841751529167867</v>
+        <v>0.6050127885472113</v>
       </c>
       <c r="M5">
-        <v>0.9764953793155635</v>
+        <v>0.853964389359825</v>
       </c>
       <c r="N5">
-        <v>1.043133591930831</v>
+        <v>1.352082708699472</v>
       </c>
       <c r="O5">
-        <v>1.082732298602304</v>
+        <v>1.231719363319514</v>
       </c>
       <c r="P5">
-        <v>0.9622419138850856</v>
+        <v>0.9183660759333625</v>
       </c>
       <c r="Q5">
-        <v>1.025177092463976</v>
+        <v>1.028371752251124</v>
       </c>
       <c r="R5">
-        <v>0.9892058065670005</v>
+        <v>1.062938286855399</v>
       </c>
       <c r="S5">
-        <v>0.9640352380319399</v>
+        <v>0.8872520976831532</v>
       </c>
       <c r="T5">
-        <v>0.9892058065670005</v>
+        <v>1.062938286855399</v>
       </c>
       <c r="U5">
-        <v>0.9838098265066626</v>
+        <v>1.003459750437233</v>
       </c>
       <c r="V5">
-        <v>0.9956745795914962</v>
+        <v>1.073184342089681</v>
       </c>
       <c r="W5">
-        <v>0.9885844169474949</v>
+        <v>0.9829210168819387</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6423190087414575</v>
+        <v>0.8706096567854724</v>
       </c>
       <c r="D6">
-        <v>1.112268173824278</v>
+        <v>1.037086054544158</v>
       </c>
       <c r="E6">
-        <v>0.9051815614945792</v>
+        <v>0.940806393969069</v>
       </c>
       <c r="F6">
-        <v>1.258585163697411</v>
+        <v>1.081712872029824</v>
       </c>
       <c r="G6">
-        <v>1.017682362934605</v>
+        <v>1.150843442960901</v>
       </c>
       <c r="H6">
-        <v>1.017682362934605</v>
+        <v>1.150843442960901</v>
       </c>
       <c r="I6">
-        <v>1.017682362934605</v>
+        <v>1.150843442960901</v>
       </c>
       <c r="J6">
-        <v>1.348078728096311</v>
+        <v>1.066650748030889</v>
       </c>
       <c r="K6">
-        <v>0.4777782176337861</v>
+        <v>0.8249563308089707</v>
       </c>
       <c r="L6">
-        <v>0.4777782176337861</v>
+        <v>0.8249563308089707</v>
       </c>
       <c r="M6">
-        <v>0.9198843571803581</v>
+        <v>0.9545155714297309</v>
       </c>
       <c r="N6">
-        <v>1.017682362934605</v>
+        <v>1.150843442960901</v>
       </c>
       <c r="O6">
-        <v>1.348078728096311</v>
+        <v>1.066650748030889</v>
       </c>
       <c r="P6">
-        <v>0.9129284728650485</v>
+        <v>0.94580353941993</v>
       </c>
       <c r="Q6">
-        <v>1.126630144795445</v>
+        <v>1.003728570999979</v>
       </c>
       <c r="R6">
-        <v>0.9478464362215672</v>
+        <v>1.014150173933587</v>
       </c>
       <c r="S6">
-        <v>0.9103461690748921</v>
+        <v>0.9441378242696429</v>
       </c>
       <c r="T6">
-        <v>0.9478464362215672</v>
+        <v>1.014150173933587</v>
       </c>
       <c r="U6">
-        <v>0.9371802175398202</v>
+        <v>0.9958142289424576</v>
       </c>
       <c r="V6">
-        <v>0.9532806466187772</v>
+        <v>1.026820071746146</v>
       </c>
       <c r="W6">
-        <v>0.9602221967003481</v>
+        <v>0.9908976338198769</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9910886276226023</v>
+        <v>0.8944951734077798</v>
       </c>
       <c r="D7">
-        <v>1.00509785136563</v>
+        <v>1.031558151505765</v>
       </c>
       <c r="E7">
-        <v>0.9965110929075257</v>
+        <v>0.9676218863256485</v>
       </c>
       <c r="F7">
-        <v>1.003380893022259</v>
+        <v>1.070887325324201</v>
       </c>
       <c r="G7">
-        <v>1.020674095930339</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="H7">
-        <v>1.020674095930339</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="I7">
-        <v>1.020674095930339</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="J7">
-        <v>0.9979954426998778</v>
+        <v>1.082732298602304</v>
       </c>
       <c r="K7">
-        <v>0.9872258236800321</v>
+        <v>0.841751529167867</v>
       </c>
       <c r="L7">
-        <v>0.9872258236800321</v>
+        <v>0.841751529167867</v>
       </c>
       <c r="M7">
-        <v>0.9947952324901326</v>
+        <v>0.9764953793155635</v>
       </c>
       <c r="N7">
-        <v>1.020674095930339</v>
+        <v>1.043133591930831</v>
       </c>
       <c r="O7">
-        <v>0.9979954426998778</v>
+        <v>1.082732298602304</v>
       </c>
       <c r="P7">
-        <v>0.9926106331899549</v>
+        <v>0.9622419138850856</v>
       </c>
       <c r="Q7">
-        <v>0.9972532678037018</v>
+        <v>1.025177092463976</v>
       </c>
       <c r="R7">
-        <v>1.001965120770083</v>
+        <v>0.9892058065670005</v>
       </c>
       <c r="S7">
-        <v>0.9939107864291451</v>
+        <v>0.9640352380319399</v>
       </c>
       <c r="T7">
-        <v>1.001965120770083</v>
+        <v>0.9892058065670005</v>
       </c>
       <c r="U7">
-        <v>1.000601613804444</v>
+        <v>0.9838098265066626</v>
       </c>
       <c r="V7">
-        <v>1.004616110229623</v>
+        <v>0.9956745795914962</v>
       </c>
       <c r="W7">
-        <v>0.9995961324647998</v>
+        <v>0.9885844169474949</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9991383206412237</v>
+        <v>0.6423190087414575</v>
       </c>
       <c r="D8">
-        <v>1.000907140039534</v>
+        <v>1.112268173824278</v>
       </c>
       <c r="E8">
-        <v>1.000681912371166</v>
+        <v>0.9051815614945792</v>
       </c>
       <c r="F8">
-        <v>1.000098641873462</v>
+        <v>1.258585163697411</v>
       </c>
       <c r="G8">
-        <v>0.9996656839104047</v>
+        <v>1.017682362934605</v>
       </c>
       <c r="H8">
-        <v>0.9996656839104047</v>
+        <v>1.017682362934605</v>
       </c>
       <c r="I8">
-        <v>0.9996656839104047</v>
+        <v>1.017682362934605</v>
       </c>
       <c r="J8">
-        <v>1.000351823732639</v>
+        <v>1.348078728096311</v>
       </c>
       <c r="K8">
-        <v>0.9973621287631758</v>
+        <v>0.4777782176337861</v>
       </c>
       <c r="L8">
-        <v>0.9973621287631758</v>
+        <v>0.4777782176337861</v>
       </c>
       <c r="M8">
-        <v>1.000004864385872</v>
+        <v>0.9198843571803581</v>
       </c>
       <c r="N8">
-        <v>0.9996656839104047</v>
+        <v>1.017682362934605</v>
       </c>
       <c r="O8">
-        <v>1.000351823732639</v>
+        <v>1.348078728096311</v>
       </c>
       <c r="P8">
-        <v>0.9988569762479073</v>
+        <v>0.9129284728650485</v>
       </c>
       <c r="Q8">
-        <v>1.000516868051902</v>
+        <v>1.126630144795445</v>
       </c>
       <c r="R8">
-        <v>0.9991265454687398</v>
+        <v>0.9478464362215672</v>
       </c>
       <c r="S8">
-        <v>0.9994652882889934</v>
+        <v>0.9103461690748921</v>
       </c>
       <c r="T8">
-        <v>0.9991265454687398</v>
+        <v>0.9478464362215672</v>
       </c>
       <c r="U8">
-        <v>0.9995153871943463</v>
+        <v>0.9371802175398202</v>
       </c>
       <c r="V8">
-        <v>0.9995454465375581</v>
+        <v>0.9532806466187772</v>
       </c>
       <c r="W8">
-        <v>0.9997763144646845</v>
+        <v>0.9602221967003481</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.985265229052475</v>
+        <v>0.9910886276226023</v>
       </c>
       <c r="D9">
-        <v>1.007420242645664</v>
+        <v>1.00509785136563</v>
       </c>
       <c r="E9">
-        <v>0.9944695713987214</v>
+        <v>0.9965110929075257</v>
       </c>
       <c r="F9">
-        <v>1.005539412702385</v>
+        <v>1.003380893022259</v>
       </c>
       <c r="G9">
-        <v>1.031087293656351</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="H9">
-        <v>1.031087293656351</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="I9">
-        <v>1.031087293656351</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="J9">
-        <v>0.9989922668654171</v>
+        <v>0.9979954426998778</v>
       </c>
       <c r="K9">
-        <v>0.977994780532309</v>
+        <v>0.9872258236800321</v>
       </c>
       <c r="L9">
-        <v>0.977994780532309</v>
+        <v>0.9872258236800321</v>
       </c>
       <c r="M9">
-        <v>0.9929858312459325</v>
+        <v>0.9947952324901326</v>
       </c>
       <c r="N9">
-        <v>1.031087293656351</v>
+        <v>1.020674095930339</v>
       </c>
       <c r="O9">
-        <v>0.9989922668654171</v>
+        <v>0.9979954426998778</v>
       </c>
       <c r="P9">
-        <v>0.988493523698863</v>
+        <v>0.9926106331899549</v>
       </c>
       <c r="Q9">
-        <v>0.9967309191320692</v>
+        <v>0.9972532678037018</v>
       </c>
       <c r="R9">
-        <v>1.002691447018026</v>
+        <v>1.001965120770083</v>
       </c>
       <c r="S9">
-        <v>0.9904855395988158</v>
+        <v>0.9939107864291451</v>
       </c>
       <c r="T9">
-        <v>1.002691447018026</v>
+        <v>1.001965120770083</v>
       </c>
       <c r="U9">
-        <v>1.0006359781132</v>
+        <v>1.000601613804444</v>
       </c>
       <c r="V9">
-        <v>1.00672624122183</v>
+        <v>1.004616110229623</v>
       </c>
       <c r="W9">
-        <v>0.9992193285124069</v>
+        <v>0.9995961324647998</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6361814857455106</v>
+        <v>0.9991383206412237</v>
       </c>
       <c r="D10">
-        <v>1.11275348926638</v>
+        <v>1.000907140039534</v>
       </c>
       <c r="E10">
-        <v>0.9030960006898638</v>
+        <v>1.000681912371166</v>
       </c>
       <c r="F10">
-        <v>1.263559846347232</v>
+        <v>1.000098641873462</v>
       </c>
       <c r="G10">
-        <v>1.01457203659518</v>
+        <v>0.9996656839104047</v>
       </c>
       <c r="H10">
-        <v>1.01457203659518</v>
+        <v>0.9996656839104047</v>
       </c>
       <c r="I10">
-        <v>1.01457203659518</v>
+        <v>0.9996656839104047</v>
       </c>
       <c r="J10">
-        <v>1.357055289587041</v>
+        <v>1.000351823732639</v>
       </c>
       <c r="K10">
-        <v>0.4685663354993928</v>
+        <v>0.9973621287631758</v>
       </c>
       <c r="L10">
-        <v>0.4685663354993928</v>
+        <v>0.9973621287631758</v>
       </c>
       <c r="M10">
-        <v>0.9199414396743051</v>
+        <v>1.000004864385872</v>
       </c>
       <c r="N10">
-        <v>1.01457203659518</v>
+        <v>0.9996656839104047</v>
       </c>
       <c r="O10">
-        <v>1.357055289587041</v>
+        <v>1.000351823732639</v>
       </c>
       <c r="P10">
-        <v>0.9128108125432171</v>
+        <v>0.9988569762479073</v>
       </c>
       <c r="Q10">
-        <v>1.130075645138453</v>
+        <v>1.000516868051902</v>
       </c>
       <c r="R10">
-        <v>0.9467312205605382</v>
+        <v>0.9991265454687398</v>
       </c>
       <c r="S10">
-        <v>0.9095725419254327</v>
+        <v>0.9994652882889934</v>
       </c>
       <c r="T10">
-        <v>0.9467312205605382</v>
+        <v>0.9991265454687398</v>
       </c>
       <c r="U10">
-        <v>0.9358224155928696</v>
+        <v>0.9995153871943463</v>
       </c>
       <c r="V10">
-        <v>0.9515723397933318</v>
+        <v>0.9995454465375581</v>
       </c>
       <c r="W10">
-        <v>0.9594657404256132</v>
+        <v>0.9997763144646845</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9419747891837359</v>
+        <v>0.985265229052475</v>
       </c>
       <c r="D11">
-        <v>1.01876258856172</v>
+        <v>1.007420242645664</v>
       </c>
       <c r="E11">
-        <v>0.9628454315394126</v>
+        <v>0.9944695713987214</v>
       </c>
       <c r="F11">
-        <v>1.040813651271651</v>
+        <v>1.005539412702385</v>
       </c>
       <c r="G11">
-        <v>1.104211396472324</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="H11">
-        <v>1.104211396472324</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="I11">
-        <v>1.104211396472324</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="J11">
-        <v>1.024761710808005</v>
+        <v>0.9989922668654171</v>
       </c>
       <c r="K11">
-        <v>0.9464838191671986</v>
+        <v>0.977994780532309</v>
       </c>
       <c r="L11">
-        <v>0.9464838191671986</v>
+        <v>0.977994780532309</v>
       </c>
       <c r="M11">
-        <v>0.9611672125848807</v>
+        <v>0.9929858312459325</v>
       </c>
       <c r="N11">
-        <v>1.104211396472324</v>
+        <v>1.031087293656351</v>
       </c>
       <c r="O11">
-        <v>1.024761710808005</v>
+        <v>0.9989922668654171</v>
       </c>
       <c r="P11">
-        <v>0.9856227649876019</v>
+        <v>0.988493523698863</v>
       </c>
       <c r="Q11">
-        <v>0.9938035711737089</v>
+        <v>0.9967309191320692</v>
       </c>
       <c r="R11">
-        <v>1.025152308815843</v>
+        <v>1.002691447018026</v>
       </c>
       <c r="S11">
-        <v>0.9780303205048723</v>
+        <v>0.9904855395988158</v>
       </c>
       <c r="T11">
-        <v>1.025152308815843</v>
+        <v>1.002691447018026</v>
       </c>
       <c r="U11">
-        <v>1.009575589496735</v>
+        <v>1.0006359781132</v>
       </c>
       <c r="V11">
-        <v>1.028502750891853</v>
+        <v>1.00672624122183</v>
       </c>
       <c r="W11">
-        <v>1.000127574948616</v>
+        <v>0.9992193285124069</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8890826152210505</v>
+        <v>0.6361814857455106</v>
       </c>
       <c r="D12">
-        <v>1.026356461452632</v>
+        <v>1.11275348926638</v>
       </c>
       <c r="E12">
-        <v>0.9662136654947382</v>
+        <v>0.9030960006898638</v>
       </c>
       <c r="F12">
-        <v>1.078909832199996</v>
+        <v>1.263559846347232</v>
       </c>
       <c r="G12">
-        <v>1.014316703863156</v>
+        <v>1.01457203659518</v>
       </c>
       <c r="H12">
-        <v>1.014316703863156</v>
+        <v>1.01457203659518</v>
       </c>
       <c r="I12">
-        <v>1.014316703863156</v>
+        <v>1.01457203659518</v>
       </c>
       <c r="J12">
-        <v>1.108565126347366</v>
+        <v>1.357055289587041</v>
       </c>
       <c r="K12">
-        <v>0.8322348356905266</v>
+        <v>0.4685663354993928</v>
       </c>
       <c r="L12">
-        <v>0.8322348356905266</v>
+        <v>0.4685663354993928</v>
       </c>
       <c r="M12">
-        <v>0.9830488482631599</v>
+        <v>0.9199414396743051</v>
       </c>
       <c r="N12">
-        <v>1.014316703863156</v>
+        <v>1.01457203659518</v>
       </c>
       <c r="O12">
-        <v>1.108565126347366</v>
+        <v>1.357055289587041</v>
       </c>
       <c r="P12">
-        <v>0.9703999810189465</v>
+        <v>0.9128108125432171</v>
       </c>
       <c r="Q12">
-        <v>1.037389395921052</v>
+        <v>1.130075645138453</v>
       </c>
       <c r="R12">
-        <v>0.9850388886336831</v>
+        <v>0.9467312205605382</v>
       </c>
       <c r="S12">
-        <v>0.9690045425108771</v>
+        <v>0.9095725419254327</v>
       </c>
       <c r="T12">
-        <v>0.9850388886336831</v>
+        <v>0.9467312205605382</v>
       </c>
       <c r="U12">
-        <v>0.9803325828489469</v>
+        <v>0.9358224155928696</v>
       </c>
       <c r="V12">
-        <v>0.9871294070517888</v>
+        <v>0.9515723397933318</v>
       </c>
       <c r="W12">
-        <v>0.9873410110665782</v>
+        <v>0.9594657404256132</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.063345019733001</v>
+        <v>0.9419747891837359</v>
       </c>
       <c r="D13">
-        <v>0.9779319348618234</v>
+        <v>1.01876258856172</v>
       </c>
       <c r="E13">
-        <v>1.021415248020498</v>
+        <v>0.9628454315394126</v>
       </c>
       <c r="F13">
-        <v>0.9599852949238434</v>
+        <v>1.040813651271651</v>
       </c>
       <c r="G13">
-        <v>0.9480423688571361</v>
+        <v>1.104211396472324</v>
       </c>
       <c r="H13">
-        <v>0.9480423688571361</v>
+        <v>1.104211396472324</v>
       </c>
       <c r="I13">
-        <v>0.9480423688571361</v>
+        <v>1.104211396472324</v>
       </c>
       <c r="J13">
-        <v>0.9663165547968691</v>
+        <v>1.024761710808005</v>
       </c>
       <c r="K13">
-        <v>1.09199607126408</v>
+        <v>0.9464838191671986</v>
       </c>
       <c r="L13">
-        <v>1.09199607126408</v>
+        <v>0.9464838191671986</v>
       </c>
       <c r="M13">
-        <v>1.019800048778039</v>
+        <v>0.9611672125848807</v>
       </c>
       <c r="N13">
-        <v>0.9480423688571361</v>
+        <v>1.104211396472324</v>
       </c>
       <c r="O13">
-        <v>0.9663165547968691</v>
+        <v>1.024761710808005</v>
       </c>
       <c r="P13">
-        <v>1.029156313030475</v>
+        <v>0.9856227649876019</v>
       </c>
       <c r="Q13">
-        <v>0.9938659014086837</v>
+        <v>0.9938035711737089</v>
       </c>
       <c r="R13">
-        <v>1.002118331639362</v>
+        <v>1.025152308815843</v>
       </c>
       <c r="S13">
-        <v>1.026575958027149</v>
+        <v>0.9780303205048723</v>
       </c>
       <c r="T13">
-        <v>1.002118331639362</v>
+        <v>1.025152308815843</v>
       </c>
       <c r="U13">
-        <v>1.006942560734646</v>
+        <v>1.009575589496735</v>
       </c>
       <c r="V13">
-        <v>0.995162522359144</v>
+        <v>1.028502750891853</v>
       </c>
       <c r="W13">
-        <v>1.006104067654411</v>
+        <v>1.000127574948616</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3694900499999997</v>
+        <v>0.8890826152210505</v>
       </c>
       <c r="D14">
-        <v>1.2005111</v>
+        <v>1.026356461452632</v>
       </c>
       <c r="E14">
-        <v>0.8359351100000008</v>
+        <v>0.9662136654947382</v>
       </c>
       <c r="F14">
-        <v>1.459925100000002</v>
+        <v>1.078909832199996</v>
       </c>
       <c r="G14">
-        <v>1.005506199999999</v>
+        <v>1.014316703863156</v>
       </c>
       <c r="H14">
-        <v>1.005506199999999</v>
+        <v>1.014316703863156</v>
       </c>
       <c r="I14">
-        <v>1.005506199999999</v>
+        <v>1.014316703863156</v>
       </c>
       <c r="J14">
-        <v>1.628315</v>
+        <v>1.108565126347366</v>
       </c>
       <c r="K14">
-        <v>0.08536282699999999</v>
+        <v>0.8322348356905266</v>
       </c>
       <c r="L14">
-        <v>0.08536282699999999</v>
+        <v>0.8322348356905266</v>
       </c>
       <c r="M14">
-        <v>0.8561004499999997</v>
+        <v>0.9830488482631599</v>
       </c>
       <c r="N14">
-        <v>1.005506199999999</v>
+        <v>1.014316703863156</v>
       </c>
       <c r="O14">
-        <v>1.628315</v>
+        <v>1.108565126347366</v>
       </c>
       <c r="P14">
-        <v>0.8568389135000002</v>
+        <v>0.9703999810189465</v>
       </c>
       <c r="Q14">
-        <v>1.232125055</v>
+        <v>1.037389395921052</v>
       </c>
       <c r="R14">
-        <v>0.9063946756666666</v>
+        <v>0.9850388886336831</v>
       </c>
       <c r="S14">
-        <v>0.8498709790000003</v>
+        <v>0.9690045425108771</v>
       </c>
       <c r="T14">
-        <v>0.9063946756666666</v>
+        <v>0.9850388886336831</v>
       </c>
       <c r="U14">
-        <v>0.8887797842500001</v>
+        <v>0.9803325828489469</v>
       </c>
       <c r="V14">
-        <v>0.9121250674000001</v>
+        <v>0.9871294070517888</v>
       </c>
       <c r="W14">
-        <v>0.9301432296250003</v>
+        <v>0.9873410110665782</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.27947574</v>
+        <v>1.063345019733001</v>
       </c>
       <c r="D15">
-        <v>1.7173855</v>
+        <v>0.9779319348618234</v>
       </c>
       <c r="E15">
-        <v>0.8094833</v>
+        <v>1.021415248020498</v>
       </c>
       <c r="F15">
-        <v>1.1490595</v>
+        <v>0.9599852949238434</v>
       </c>
       <c r="G15">
-        <v>3.0720958</v>
+        <v>0.9480423688571361</v>
       </c>
       <c r="H15">
-        <v>3.0720958</v>
+        <v>0.9480423688571361</v>
       </c>
       <c r="I15">
-        <v>3.0720958</v>
+        <v>0.9480423688571361</v>
       </c>
       <c r="J15">
-        <v>0.40709903</v>
+        <v>0.9663165547968691</v>
       </c>
       <c r="K15">
-        <v>0.054840442</v>
+        <v>1.09199607126408</v>
       </c>
       <c r="L15">
-        <v>0.054840442</v>
+        <v>1.09199607126408</v>
       </c>
       <c r="M15">
-        <v>0.34652932</v>
+        <v>1.019800048778039</v>
       </c>
       <c r="N15">
-        <v>3.0720958</v>
+        <v>0.9480423688571361</v>
       </c>
       <c r="O15">
-        <v>0.40709903</v>
+        <v>0.9663165547968691</v>
       </c>
       <c r="P15">
-        <v>0.230969736</v>
+        <v>1.029156313030475</v>
       </c>
       <c r="Q15">
-        <v>0.608291165</v>
+        <v>0.9938659014086837</v>
       </c>
       <c r="R15">
-        <v>1.178011757333333</v>
+        <v>1.002118331639362</v>
       </c>
       <c r="S15">
-        <v>0.4238075906666667</v>
+        <v>1.026575958027149</v>
       </c>
       <c r="T15">
-        <v>1.178011757333333</v>
+        <v>1.002118331639362</v>
       </c>
       <c r="U15">
-        <v>1.085879643</v>
+        <v>1.006942560734646</v>
       </c>
       <c r="V15">
-        <v>1.4831228744</v>
+        <v>0.995162522359144</v>
       </c>
       <c r="W15">
-        <v>0.979496079</v>
+        <v>1.006104067654411</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1340124</v>
+        <v>0.3694900499999997</v>
       </c>
       <c r="D16">
-        <v>1.1477551</v>
+        <v>1.2005111</v>
       </c>
       <c r="E16">
-        <v>0.45156375</v>
+        <v>0.8359351100000008</v>
       </c>
       <c r="F16">
-        <v>1.6052976</v>
+        <v>1.459925100000002</v>
       </c>
       <c r="G16">
-        <v>2.3487482</v>
+        <v>1.005506199999999</v>
       </c>
       <c r="H16">
-        <v>2.3487482</v>
+        <v>1.005506199999999</v>
       </c>
       <c r="I16">
-        <v>2.3487482</v>
+        <v>1.005506199999999</v>
       </c>
       <c r="J16">
-        <v>1.5557089</v>
+        <v>1.628315</v>
       </c>
       <c r="K16">
-        <v>0.018488841</v>
+        <v>0.08536282699999999</v>
       </c>
       <c r="L16">
-        <v>0.018488841</v>
+        <v>0.08536282699999999</v>
       </c>
       <c r="M16">
-        <v>0.60451479</v>
+        <v>0.8561004499999997</v>
       </c>
       <c r="N16">
-        <v>2.3487482</v>
+        <v>1.005506199999999</v>
       </c>
       <c r="O16">
-        <v>1.5557089</v>
+        <v>1.628315</v>
       </c>
       <c r="P16">
-        <v>0.7870988704999999</v>
+        <v>0.8568389135000002</v>
       </c>
       <c r="Q16">
-        <v>1.003636325</v>
+        <v>1.232125055</v>
       </c>
       <c r="R16">
-        <v>1.307648647</v>
+        <v>0.9063946756666666</v>
       </c>
       <c r="S16">
-        <v>0.6752538303333333</v>
+        <v>0.8498709790000003</v>
       </c>
       <c r="T16">
-        <v>1.307648647</v>
+        <v>0.9063946756666666</v>
       </c>
       <c r="U16">
-        <v>1.09362742275</v>
+        <v>0.8887797842500001</v>
       </c>
       <c r="V16">
-        <v>1.3446515782</v>
+        <v>0.9121250674000001</v>
       </c>
       <c r="W16">
-        <v>0.9832611976250001</v>
+        <v>0.9301432296250003</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.72592591</v>
+        <v>0.27947574</v>
       </c>
       <c r="D17">
-        <v>1.2552043</v>
+        <v>1.7173855</v>
       </c>
       <c r="E17">
-        <v>1.0719083</v>
+        <v>0.8094833</v>
       </c>
       <c r="F17">
-        <v>1.0389502</v>
+        <v>1.1490595</v>
       </c>
       <c r="G17">
-        <v>1.1888041</v>
+        <v>3.0720958</v>
       </c>
       <c r="H17">
-        <v>1.1888041</v>
+        <v>3.0720958</v>
       </c>
       <c r="I17">
-        <v>1.1888041</v>
+        <v>3.0720958</v>
       </c>
       <c r="J17">
-        <v>0.8674998899999999</v>
+        <v>0.40709903</v>
       </c>
       <c r="K17">
-        <v>0.36873232</v>
+        <v>0.054840442</v>
       </c>
       <c r="L17">
-        <v>0.36873232</v>
+        <v>0.054840442</v>
       </c>
       <c r="M17">
-        <v>0.96989494</v>
+        <v>0.34652932</v>
       </c>
       <c r="N17">
-        <v>1.1888041</v>
+        <v>3.0720958</v>
       </c>
       <c r="O17">
-        <v>0.8674998899999999</v>
+        <v>0.40709903</v>
       </c>
       <c r="P17">
-        <v>0.6181161049999999</v>
+        <v>0.230969736</v>
       </c>
       <c r="Q17">
-        <v>0.969704095</v>
+        <v>0.608291165</v>
       </c>
       <c r="R17">
-        <v>0.8083454366666666</v>
+        <v>1.178011757333333</v>
       </c>
       <c r="S17">
-        <v>0.7693801699999999</v>
+        <v>0.4238075906666667</v>
       </c>
       <c r="T17">
-        <v>0.8083454366666666</v>
+        <v>1.178011757333333</v>
       </c>
       <c r="U17">
-        <v>0.8742361525</v>
+        <v>1.085879643</v>
       </c>
       <c r="V17">
-        <v>0.9371497420000001</v>
+        <v>1.4831228744</v>
       </c>
       <c r="W17">
-        <v>0.935864995</v>
+        <v>0.979496079</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.819384537808219</v>
+        <v>0.1340124</v>
       </c>
       <c r="D18">
-        <v>1.098937846849316</v>
+        <v>1.1477551</v>
       </c>
       <c r="E18">
-        <v>0.9314277347945201</v>
+        <v>0.45156375</v>
       </c>
       <c r="F18">
-        <v>1.063747341643836</v>
+        <v>1.6052976</v>
       </c>
       <c r="G18">
-        <v>1.410310167123288</v>
+        <v>2.3487482</v>
       </c>
       <c r="H18">
-        <v>1.410310167123288</v>
+        <v>2.3487482</v>
       </c>
       <c r="I18">
-        <v>1.410310167123288</v>
+        <v>2.3487482</v>
       </c>
       <c r="J18">
-        <v>0.9679932642465756</v>
+        <v>1.5557089</v>
       </c>
       <c r="K18">
-        <v>0.7341982231232878</v>
+        <v>0.018488841</v>
       </c>
       <c r="L18">
-        <v>0.7341982231232878</v>
+        <v>0.018488841</v>
       </c>
       <c r="M18">
-        <v>0.9049547493150683</v>
+        <v>0.60451479</v>
       </c>
       <c r="N18">
-        <v>1.410310167123288</v>
+        <v>2.3487482</v>
       </c>
       <c r="O18">
-        <v>0.9679932642465756</v>
+        <v>1.5557089</v>
       </c>
       <c r="P18">
-        <v>0.8510957436849317</v>
+        <v>0.7870988704999999</v>
       </c>
       <c r="Q18">
-        <v>0.9497104995205479</v>
+        <v>1.003636325</v>
       </c>
       <c r="R18">
-        <v>1.037500551497717</v>
+        <v>1.307648647</v>
       </c>
       <c r="S18">
-        <v>0.8778730740547944</v>
+        <v>0.6752538303333333</v>
       </c>
       <c r="T18">
-        <v>1.037500551497717</v>
+        <v>1.307648647</v>
       </c>
       <c r="U18">
-        <v>1.010982347321918</v>
+        <v>1.09362742275</v>
       </c>
       <c r="V18">
-        <v>1.090847911282192</v>
+        <v>1.3446515782</v>
       </c>
       <c r="W18">
-        <v>0.9913692331130137</v>
+        <v>0.9832611976250001</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.5481095184210525</v>
+        <v>0.72592591</v>
       </c>
       <c r="D19">
-        <v>1.068012005263158</v>
+        <v>1.2552043</v>
       </c>
       <c r="E19">
-        <v>0.8653858184210527</v>
+        <v>1.0719083</v>
       </c>
       <c r="F19">
-        <v>1.297642321052631</v>
+        <v>1.0389502</v>
       </c>
       <c r="G19">
-        <v>1.066422366842105</v>
+        <v>1.1888041</v>
       </c>
       <c r="H19">
-        <v>1.066422366842105</v>
+        <v>1.1888041</v>
       </c>
       <c r="I19">
-        <v>1.066422366842105</v>
+        <v>1.1888041</v>
       </c>
       <c r="J19">
-        <v>1.439543825789473</v>
+        <v>0.8674998899999999</v>
       </c>
       <c r="K19">
-        <v>0.251991426</v>
+        <v>0.36873232</v>
       </c>
       <c r="L19">
-        <v>0.251991426</v>
+        <v>0.36873232</v>
       </c>
       <c r="M19">
-        <v>0.9972373457894734</v>
+        <v>0.96989494</v>
       </c>
       <c r="N19">
-        <v>1.066422366842105</v>
+        <v>1.1888041</v>
       </c>
       <c r="O19">
-        <v>1.439543825789473</v>
+        <v>0.8674998899999999</v>
       </c>
       <c r="P19">
-        <v>0.8457676258947368</v>
+        <v>0.6181161049999999</v>
       </c>
       <c r="Q19">
-        <v>1.152464822105263</v>
+        <v>0.969704095</v>
       </c>
       <c r="R19">
-        <v>0.9193192062105263</v>
+        <v>0.8083454366666666</v>
       </c>
       <c r="S19">
-        <v>0.8523070234035087</v>
+        <v>0.7693801699999999</v>
       </c>
       <c r="T19">
-        <v>0.9193192062105263</v>
+        <v>0.8083454366666666</v>
       </c>
       <c r="U19">
-        <v>0.9058358592631579</v>
+        <v>0.8742361525</v>
       </c>
       <c r="V19">
-        <v>0.9379531607789474</v>
+        <v>0.9371497420000001</v>
       </c>
       <c r="W19">
-        <v>0.9417930784473684</v>
+        <v>0.935864995</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6347483063157894</v>
+        <v>0.819384537808219</v>
       </c>
       <c r="D20">
-        <v>1.105821573157895</v>
+        <v>1.098937846849316</v>
       </c>
       <c r="E20">
-        <v>0.8255858373684211</v>
+        <v>0.9314277347945201</v>
       </c>
       <c r="F20">
-        <v>1.260198751052632</v>
+        <v>1.063747341643836</v>
       </c>
       <c r="G20">
-        <v>1.36919445368421</v>
+        <v>1.410310167123288</v>
       </c>
       <c r="H20">
-        <v>1.36919445368421</v>
+        <v>1.410310167123288</v>
       </c>
       <c r="I20">
-        <v>1.36919445368421</v>
+        <v>1.410310167123288</v>
       </c>
       <c r="J20">
-        <v>1.238608237894737</v>
+        <v>0.9679932642465756</v>
       </c>
       <c r="K20">
-        <v>0.5564497356842104</v>
+        <v>0.7341982231232878</v>
       </c>
       <c r="L20">
-        <v>0.5564497356842104</v>
+        <v>0.7341982231232878</v>
       </c>
       <c r="M20">
-        <v>0.8430159336842108</v>
+        <v>0.9049547493150683</v>
       </c>
       <c r="N20">
-        <v>1.36919445368421</v>
+        <v>1.410310167123288</v>
       </c>
       <c r="O20">
-        <v>1.238608237894737</v>
+        <v>0.9679932642465756</v>
       </c>
       <c r="P20">
-        <v>0.8975289867894737</v>
+        <v>0.8510957436849317</v>
       </c>
       <c r="Q20">
-        <v>1.032097037631579</v>
+        <v>0.9497104995205479</v>
       </c>
       <c r="R20">
-        <v>1.054750809087719</v>
+        <v>1.037500551497717</v>
       </c>
       <c r="S20">
-        <v>0.873547936982456</v>
+        <v>0.8778730740547944</v>
       </c>
       <c r="T20">
-        <v>1.054750809087719</v>
+        <v>1.037500551497717</v>
       </c>
       <c r="U20">
-        <v>0.9974595661578947</v>
+        <v>1.010982347321918</v>
       </c>
       <c r="V20">
-        <v>1.071806543663158</v>
+        <v>1.090847911282192</v>
       </c>
       <c r="W20">
-        <v>0.9792028536052633</v>
+        <v>0.9913692331130137</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8810440720733679</v>
+        <v>0.5481095184210525</v>
       </c>
       <c r="D21">
-        <v>0.867934691843096</v>
+        <v>1.068012005263158</v>
       </c>
       <c r="E21">
-        <v>0.9648572936305628</v>
+        <v>0.8653858184210527</v>
       </c>
       <c r="F21">
-        <v>1.138983883956824</v>
+        <v>1.297642321052631</v>
       </c>
       <c r="G21">
-        <v>0.5264605511290485</v>
+        <v>1.066422366842105</v>
       </c>
       <c r="H21">
-        <v>0.5264605511290485</v>
+        <v>1.066422366842105</v>
       </c>
       <c r="I21">
-        <v>0.5264605511290485</v>
+        <v>1.066422366842105</v>
       </c>
       <c r="J21">
-        <v>1.423922236082588</v>
+        <v>1.439543825789473</v>
       </c>
       <c r="K21">
-        <v>0.7023409907965469</v>
+        <v>0.251991426</v>
       </c>
       <c r="L21">
-        <v>0.7023409907965469</v>
+        <v>0.251991426</v>
       </c>
       <c r="M21">
-        <v>1.188087969423358</v>
+        <v>0.9972373457894734</v>
       </c>
       <c r="N21">
-        <v>0.5264605511290485</v>
+        <v>1.066422366842105</v>
       </c>
       <c r="O21">
-        <v>1.423922236082588</v>
+        <v>1.439543825789473</v>
       </c>
       <c r="P21">
-        <v>1.063131613439568</v>
+        <v>0.8457676258947368</v>
       </c>
       <c r="Q21">
-        <v>1.194389764856576</v>
+        <v>1.152464822105263</v>
       </c>
       <c r="R21">
-        <v>0.8842412593360613</v>
+        <v>0.9193192062105263</v>
       </c>
       <c r="S21">
-        <v>1.030373506836566</v>
+        <v>0.8523070234035087</v>
       </c>
       <c r="T21">
-        <v>0.8842412593360613</v>
+        <v>0.9193192062105263</v>
       </c>
       <c r="U21">
-        <v>0.9043952679096867</v>
+        <v>0.9058358592631579</v>
       </c>
       <c r="V21">
-        <v>0.828808324553559</v>
+        <v>0.9379531607789474</v>
       </c>
       <c r="W21">
-        <v>0.961703961116924</v>
+        <v>0.9417930784473684</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.043338375171208</v>
+        <v>0.6347483063157894</v>
       </c>
       <c r="D22">
-        <v>1.056453063421275</v>
+        <v>1.105821573157895</v>
       </c>
       <c r="E22">
-        <v>1.008723348151931</v>
+        <v>0.8255858373684211</v>
       </c>
       <c r="F22">
-        <v>0.9541336621606232</v>
+        <v>1.260198751052632</v>
       </c>
       <c r="G22">
-        <v>1.191403987328237</v>
+        <v>1.36919445368421</v>
       </c>
       <c r="H22">
-        <v>1.191403987328237</v>
+        <v>1.36919445368421</v>
       </c>
       <c r="I22">
-        <v>1.191403987328237</v>
+        <v>1.36919445368421</v>
       </c>
       <c r="J22">
-        <v>0.8334494132133775</v>
+        <v>1.238608237894737</v>
       </c>
       <c r="K22">
-        <v>1.133303954464979</v>
+        <v>0.5564497356842104</v>
       </c>
       <c r="L22">
-        <v>1.133303954464979</v>
+        <v>0.5564497356842104</v>
       </c>
       <c r="M22">
-        <v>0.9121127047590144</v>
+        <v>0.8430159336842108</v>
       </c>
       <c r="N22">
-        <v>1.191403987328237</v>
+        <v>1.36919445368421</v>
       </c>
       <c r="O22">
-        <v>0.8334494132133775</v>
+        <v>1.238608237894737</v>
       </c>
       <c r="P22">
-        <v>0.9833766838391782</v>
+        <v>0.8975289867894737</v>
       </c>
       <c r="Q22">
-        <v>0.9210863806826544</v>
+        <v>1.032097037631579</v>
       </c>
       <c r="R22">
-        <v>1.052719118335531</v>
+        <v>1.054750809087719</v>
       </c>
       <c r="S22">
-        <v>0.9918255719434291</v>
+        <v>0.873547936982456</v>
       </c>
       <c r="T22">
-        <v>1.052719118335531</v>
+        <v>1.054750809087719</v>
       </c>
       <c r="U22">
-        <v>1.041720175789631</v>
+        <v>0.9974595661578947</v>
       </c>
       <c r="V22">
-        <v>1.071656938097352</v>
+        <v>1.071806543663158</v>
       </c>
       <c r="W22">
-        <v>1.016614813583831</v>
+        <v>0.9792028536052633</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.195553934469803</v>
+        <v>0.8810440720733679</v>
       </c>
       <c r="D23">
-        <v>1.036237983932957</v>
+        <v>0.867934691843096</v>
       </c>
       <c r="E23">
-        <v>1.07137824426673</v>
+        <v>0.9648572936305628</v>
       </c>
       <c r="F23">
-        <v>0.8413181839612555</v>
+        <v>1.138983883956824</v>
       </c>
       <c r="G23">
-        <v>1.125624028573287</v>
+        <v>0.5264605511290485</v>
       </c>
       <c r="H23">
-        <v>1.125624028573287</v>
+        <v>0.5264605511290485</v>
       </c>
       <c r="I23">
-        <v>1.125624028573287</v>
+        <v>0.5264605511290485</v>
       </c>
       <c r="J23">
-        <v>0.6904362039496496</v>
+        <v>1.423922236082588</v>
       </c>
       <c r="K23">
-        <v>1.343527441546627</v>
+        <v>0.7023409907965469</v>
       </c>
       <c r="L23">
-        <v>1.343527441546627</v>
+        <v>0.7023409907965469</v>
       </c>
       <c r="M23">
-        <v>0.9392059045035001</v>
+        <v>1.188087969423358</v>
       </c>
       <c r="N23">
-        <v>1.125624028573287</v>
+        <v>0.5264605511290485</v>
       </c>
       <c r="O23">
-        <v>0.6904362039496496</v>
+        <v>1.423922236082588</v>
       </c>
       <c r="P23">
-        <v>1.016981822748138</v>
+        <v>1.063131613439568</v>
       </c>
       <c r="Q23">
-        <v>0.8809072241081897</v>
+        <v>1.194389764856576</v>
       </c>
       <c r="R23">
-        <v>1.053195891356521</v>
+        <v>0.8842412593360613</v>
       </c>
       <c r="S23">
-        <v>1.035113963254336</v>
+        <v>1.030373506836566</v>
       </c>
       <c r="T23">
-        <v>1.053195891356521</v>
+        <v>0.8842412593360613</v>
       </c>
       <c r="U23">
-        <v>1.057741479584073</v>
+        <v>0.9043952679096867</v>
       </c>
       <c r="V23">
-        <v>1.071317989381916</v>
+        <v>0.828808324553559</v>
       </c>
       <c r="W23">
-        <v>1.030410240650476</v>
+        <v>0.961703961116924</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.0079658628135</v>
+        <v>1.043338375171208</v>
       </c>
       <c r="D24">
-        <v>0.9406475568271571</v>
+        <v>1.056453063421275</v>
       </c>
       <c r="E24">
-        <v>0.9914945564739818</v>
+        <v>1.008723348151931</v>
       </c>
       <c r="F24">
-        <v>1.016894837832945</v>
+        <v>0.9541336621606232</v>
       </c>
       <c r="G24">
-        <v>0.8667078842957302</v>
+        <v>1.191403987328237</v>
       </c>
       <c r="H24">
-        <v>0.8667078842957302</v>
+        <v>1.191403987328237</v>
       </c>
       <c r="I24">
-        <v>0.8667078842957302</v>
+        <v>1.191403987328237</v>
       </c>
       <c r="J24">
-        <v>1.102024286899525</v>
+        <v>0.8334494132133775</v>
       </c>
       <c r="K24">
-        <v>1.00247466253149</v>
+        <v>1.133303954464979</v>
       </c>
       <c r="L24">
-        <v>1.00247466253149</v>
+        <v>1.133303954464979</v>
       </c>
       <c r="M24">
-        <v>1.055436583587249</v>
+        <v>0.9121127047590144</v>
       </c>
       <c r="N24">
-        <v>0.8667078842957302</v>
+        <v>1.191403987328237</v>
       </c>
       <c r="O24">
-        <v>1.102024286899525</v>
+        <v>0.8334494132133775</v>
       </c>
       <c r="P24">
-        <v>1.052249474715507</v>
+        <v>0.9833766838391782</v>
       </c>
       <c r="Q24">
-        <v>1.046759421686753</v>
+        <v>0.9210863806826544</v>
       </c>
       <c r="R24">
-        <v>0.990402277908915</v>
+        <v>1.052719118335531</v>
       </c>
       <c r="S24">
-        <v>1.031997835301665</v>
+        <v>0.9918255719434291</v>
       </c>
       <c r="T24">
-        <v>0.990402277908915</v>
+        <v>1.052719118335531</v>
       </c>
       <c r="U24">
-        <v>0.9906753475501817</v>
+        <v>1.041720175789631</v>
       </c>
       <c r="V24">
-        <v>0.9658818548992913</v>
+        <v>1.071656938097352</v>
       </c>
       <c r="W24">
-        <v>0.9979557789076973</v>
+        <v>1.016614813583831</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.093361809951537</v>
+        <v>1.195553934469803</v>
       </c>
       <c r="D25">
-        <v>1.068565957395708</v>
+        <v>1.036237983932957</v>
       </c>
       <c r="E25">
-        <v>1.009275559266679</v>
+        <v>1.07137824426673</v>
       </c>
       <c r="F25">
-        <v>0.9167438376321116</v>
+        <v>0.8413181839612555</v>
       </c>
       <c r="G25">
-        <v>1.273179832518596</v>
+        <v>1.125624028573287</v>
       </c>
       <c r="H25">
-        <v>1.273179832518596</v>
+        <v>1.125624028573287</v>
       </c>
       <c r="I25">
-        <v>1.273179832518596</v>
+        <v>1.125624028573287</v>
       </c>
       <c r="J25">
-        <v>0.7448385582213456</v>
+        <v>0.6904362039496496</v>
       </c>
       <c r="K25">
-        <v>1.255197590813971</v>
+        <v>1.343527441546627</v>
       </c>
       <c r="L25">
-        <v>1.255197590813971</v>
+        <v>1.343527441546627</v>
       </c>
       <c r="M25">
-        <v>0.8745569630995849</v>
+        <v>0.9392059045035001</v>
       </c>
       <c r="N25">
-        <v>1.273179832518596</v>
+        <v>1.125624028573287</v>
       </c>
       <c r="O25">
-        <v>0.7448385582213456</v>
+        <v>0.6904362039496496</v>
       </c>
       <c r="P25">
-        <v>1.000018074517659</v>
+        <v>1.016981822748138</v>
       </c>
       <c r="Q25">
-        <v>0.8770570587440125</v>
+        <v>0.8809072241081897</v>
       </c>
       <c r="R25">
-        <v>1.091071993851304</v>
+        <v>1.053195891356521</v>
       </c>
       <c r="S25">
-        <v>1.003103902767332</v>
+        <v>1.035113963254336</v>
       </c>
       <c r="T25">
-        <v>1.091071993851304</v>
+        <v>1.053195891356521</v>
       </c>
       <c r="U25">
-        <v>1.070622885205148</v>
+        <v>1.057741479584073</v>
       </c>
       <c r="V25">
-        <v>1.111134274667838</v>
+        <v>1.071317989381916</v>
       </c>
       <c r="W25">
-        <v>1.029465013612442</v>
+        <v>1.030410240650476</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.978460843479661</v>
+        <v>1.0079658628135</v>
       </c>
       <c r="D26">
-        <v>0.9609263679364897</v>
+        <v>0.9406475568271571</v>
       </c>
       <c r="E26">
-        <v>1.013067978802491</v>
+        <v>0.9914945564739818</v>
       </c>
       <c r="F26">
-        <v>1.0016390421454</v>
+        <v>1.016894837832945</v>
       </c>
       <c r="G26">
-        <v>0.8962410031259009</v>
+        <v>0.8667078842957302</v>
       </c>
       <c r="H26">
-        <v>0.8962410031259009</v>
+        <v>0.8667078842957302</v>
       </c>
       <c r="I26">
-        <v>0.8962410031259009</v>
+        <v>0.8667078842957302</v>
       </c>
       <c r="J26">
-        <v>1.079917561073898</v>
+        <v>1.102024286899525</v>
       </c>
       <c r="K26">
-        <v>0.864466227657453</v>
+        <v>1.00247466253149</v>
       </c>
       <c r="L26">
-        <v>0.864466227657453</v>
+        <v>1.00247466253149</v>
       </c>
       <c r="M26">
-        <v>1.086390853064837</v>
+        <v>1.055436583587249</v>
       </c>
       <c r="N26">
-        <v>0.8962410031259009</v>
+        <v>0.8667078842957302</v>
       </c>
       <c r="O26">
-        <v>1.079917561073898</v>
+        <v>1.102024286899525</v>
       </c>
       <c r="P26">
-        <v>0.9721918943656753</v>
+        <v>1.052249474715507</v>
       </c>
       <c r="Q26">
-        <v>1.046492769938195</v>
+        <v>1.046759421686753</v>
       </c>
       <c r="R26">
-        <v>0.9468749306190839</v>
+        <v>0.990402277908915</v>
       </c>
       <c r="S26">
-        <v>0.985817255844614</v>
+        <v>1.031997835301665</v>
       </c>
       <c r="T26">
-        <v>0.9468749306190839</v>
+        <v>0.990402277908915</v>
       </c>
       <c r="U26">
-        <v>0.9634231926649358</v>
+        <v>0.9906753475501817</v>
       </c>
       <c r="V26">
-        <v>0.9499867547571288</v>
+        <v>0.9658818548992913</v>
       </c>
       <c r="W26">
-        <v>0.9851387346607663</v>
+        <v>0.9979557789076973</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9671157765813967</v>
+        <v>1.093361809951537</v>
       </c>
       <c r="D27">
-        <v>1.021877741197313</v>
+        <v>1.068565957395708</v>
       </c>
       <c r="E27">
-        <v>0.9784421891328541</v>
+        <v>1.009275559266679</v>
       </c>
       <c r="F27">
-        <v>1.038330098337193</v>
+        <v>0.9167438376321116</v>
       </c>
       <c r="G27">
-        <v>1.016178824286337</v>
+        <v>1.273179832518596</v>
       </c>
       <c r="H27">
-        <v>1.016178824286337</v>
+        <v>1.273179832518596</v>
       </c>
       <c r="I27">
-        <v>1.016178824286337</v>
+        <v>1.273179832518596</v>
       </c>
       <c r="J27">
-        <v>1.025367907182339</v>
+        <v>0.7448385582213456</v>
       </c>
       <c r="K27">
-        <v>1.025015745953552</v>
+        <v>1.255197590813971</v>
       </c>
       <c r="L27">
-        <v>1.025015745953552</v>
+        <v>1.255197590813971</v>
       </c>
       <c r="M27">
-        <v>0.9542211336324083</v>
+        <v>0.8745569630995849</v>
       </c>
       <c r="N27">
-        <v>1.016178824286337</v>
+        <v>1.273179832518596</v>
       </c>
       <c r="O27">
-        <v>1.025367907182339</v>
+        <v>0.7448385582213456</v>
       </c>
       <c r="P27">
-        <v>1.025191826567946</v>
+        <v>1.000018074517659</v>
       </c>
       <c r="Q27">
-        <v>1.001905048157597</v>
+        <v>0.8770570587440125</v>
       </c>
       <c r="R27">
-        <v>1.022187492474076</v>
+        <v>1.091071993851304</v>
       </c>
       <c r="S27">
-        <v>1.009608614089582</v>
+        <v>1.003103902767332</v>
       </c>
       <c r="T27">
-        <v>1.022187492474076</v>
+        <v>1.091071993851304</v>
       </c>
       <c r="U27">
-        <v>1.01125116663877</v>
+        <v>1.070622885205148</v>
       </c>
       <c r="V27">
-        <v>1.012236698168284</v>
+        <v>1.111134274667838</v>
       </c>
       <c r="W27">
-        <v>1.003318677037924</v>
+        <v>1.029465013612442</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.961687801101026</v>
+        <v>0.978460843479661</v>
       </c>
       <c r="D28">
-        <v>0.9916237188404636</v>
+        <v>0.9609263679364897</v>
       </c>
       <c r="E28">
-        <v>0.9570257209441456</v>
+        <v>1.013067978802491</v>
       </c>
       <c r="F28">
-        <v>1.029302850921995</v>
+        <v>1.0016390421454</v>
       </c>
       <c r="G28">
-        <v>1.08027154474948</v>
+        <v>0.8962410031259009</v>
       </c>
       <c r="H28">
-        <v>1.08027154474948</v>
+        <v>0.8962410031259009</v>
       </c>
       <c r="I28">
-        <v>1.08027154474948</v>
+        <v>0.8962410031259009</v>
       </c>
       <c r="J28">
-        <v>1.025813851759179</v>
+        <v>1.079917561073898</v>
       </c>
       <c r="K28">
-        <v>0.9753834187503145</v>
+        <v>0.864466227657453</v>
       </c>
       <c r="L28">
-        <v>0.9753834187503145</v>
+        <v>0.864466227657453</v>
       </c>
       <c r="M28">
-        <v>0.9875845415912574</v>
+        <v>1.086390853064837</v>
       </c>
       <c r="N28">
-        <v>1.08027154474948</v>
+        <v>0.8962410031259009</v>
       </c>
       <c r="O28">
-        <v>1.025813851759179</v>
+        <v>1.079917561073898</v>
       </c>
       <c r="P28">
-        <v>1.000598635254747</v>
+        <v>0.9721918943656753</v>
       </c>
       <c r="Q28">
-        <v>0.9914197863516625</v>
+        <v>1.046492769938195</v>
       </c>
       <c r="R28">
-        <v>1.027156271752991</v>
+        <v>0.9468749306190839</v>
       </c>
       <c r="S28">
-        <v>0.9860743304845464</v>
+        <v>0.985817255844614</v>
       </c>
       <c r="T28">
-        <v>1.027156271752991</v>
+        <v>0.9468749306190839</v>
       </c>
       <c r="U28">
-        <v>1.00962363405078</v>
+        <v>0.9634231926649358</v>
       </c>
       <c r="V28">
-        <v>1.02375321619052</v>
+        <v>0.9499867547571288</v>
       </c>
       <c r="W28">
-        <v>1.001086681082233</v>
+        <v>0.9851387346607663</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9671157765813967</v>
+      </c>
+      <c r="D29">
+        <v>1.021877741197313</v>
+      </c>
+      <c r="E29">
+        <v>0.9784421891328541</v>
+      </c>
+      <c r="F29">
+        <v>1.038330098337193</v>
+      </c>
+      <c r="G29">
+        <v>1.016178824286337</v>
+      </c>
+      <c r="H29">
+        <v>1.016178824286337</v>
+      </c>
+      <c r="I29">
+        <v>1.016178824286337</v>
+      </c>
+      <c r="J29">
+        <v>1.025367907182339</v>
+      </c>
+      <c r="K29">
+        <v>1.025015745953552</v>
+      </c>
+      <c r="L29">
+        <v>1.025015745953552</v>
+      </c>
+      <c r="M29">
+        <v>0.9542211336324083</v>
+      </c>
+      <c r="N29">
+        <v>1.016178824286337</v>
+      </c>
+      <c r="O29">
+        <v>1.025367907182339</v>
+      </c>
+      <c r="P29">
+        <v>1.025191826567946</v>
+      </c>
+      <c r="Q29">
+        <v>1.001905048157597</v>
+      </c>
+      <c r="R29">
+        <v>1.022187492474076</v>
+      </c>
+      <c r="S29">
+        <v>1.009608614089582</v>
+      </c>
+      <c r="T29">
+        <v>1.022187492474076</v>
+      </c>
+      <c r="U29">
+        <v>1.01125116663877</v>
+      </c>
+      <c r="V29">
+        <v>1.012236698168284</v>
+      </c>
+      <c r="W29">
+        <v>1.003318677037924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.961687801101026</v>
+      </c>
+      <c r="D30">
+        <v>0.9916237188404636</v>
+      </c>
+      <c r="E30">
+        <v>0.9570257209441456</v>
+      </c>
+      <c r="F30">
+        <v>1.029302850921995</v>
+      </c>
+      <c r="G30">
+        <v>1.08027154474948</v>
+      </c>
+      <c r="H30">
+        <v>1.08027154474948</v>
+      </c>
+      <c r="I30">
+        <v>1.08027154474948</v>
+      </c>
+      <c r="J30">
+        <v>1.025813851759179</v>
+      </c>
+      <c r="K30">
+        <v>0.9753834187503145</v>
+      </c>
+      <c r="L30">
+        <v>0.9753834187503145</v>
+      </c>
+      <c r="M30">
+        <v>0.9875845415912574</v>
+      </c>
+      <c r="N30">
+        <v>1.08027154474948</v>
+      </c>
+      <c r="O30">
+        <v>1.025813851759179</v>
+      </c>
+      <c r="P30">
+        <v>1.000598635254747</v>
+      </c>
+      <c r="Q30">
+        <v>0.9914197863516625</v>
+      </c>
+      <c r="R30">
+        <v>1.027156271752991</v>
+      </c>
+      <c r="S30">
+        <v>0.9860743304845464</v>
+      </c>
+      <c r="T30">
+        <v>1.027156271752991</v>
+      </c>
+      <c r="U30">
+        <v>1.00962363405078</v>
+      </c>
+      <c r="V30">
+        <v>1.02375321619052</v>
+      </c>
+      <c r="W30">
+        <v>1.001086681082233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.080482503481483</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.055098658568419</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.088805958438736</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.8978560973354262</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9998317012997779</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9998317012997779</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9998317012997779</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.7850734165256948</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.019316068417309</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.019316068417309</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.016355804221851</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9998317012997779</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.7850734165256948</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9021947424715022</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9369396874822156</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9347403954142607</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9643984811272469</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9347403954142609</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.9732567861703797</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9785717691962594</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9928525260360872</v>
       </c>
     </row>
